--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B251EE-E014-4A5D-9876-1BD62EE57298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BC455C-7B26-4796-A00E-162CD24BDDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="558">
   <si>
     <t>Edição</t>
   </si>
@@ -1569,18 +1569,6 @@
     <t>Formalizar datos de documentación</t>
   </si>
   <si>
-    <t>Prancha.A0</t>
-  </si>
-  <si>
-    <t>Prancha.A1</t>
-  </si>
-  <si>
-    <t>Prancha.A2</t>
-  </si>
-  <si>
-    <t>Prancha.A3</t>
-  </si>
-  <si>
     <t>Folha.A4</t>
   </si>
   <si>
@@ -1605,9 +1593,6 @@
     <t>"Prancha tamanho A5"</t>
   </si>
   <si>
-    <t>Folha</t>
-  </si>
-  <si>
     <t>é.categoria.revit</t>
   </si>
   <si>
@@ -1618,6 +1603,150 @@
   </si>
   <si>
     <t>"Folha de projeto. Pode ser A0, A1, A2, A3, A4 ou A5"</t>
+  </si>
+  <si>
+    <t>Carimbo.Exe</t>
+  </si>
+  <si>
+    <t>Carimbo.Ofi</t>
+  </si>
+  <si>
+    <t>Carimbo.Cli</t>
+  </si>
+  <si>
+    <t>"Carimbos de projeto. Oficial, Executivo, Clientes, etc."</t>
+  </si>
+  <si>
+    <t>"Carimbo de projeto para prefeitura"</t>
+  </si>
+  <si>
+    <t>"Carimbo de projeto para Executivo"</t>
+  </si>
+  <si>
+    <t>"Carimbo de projeto de um Cliente"</t>
+  </si>
+  <si>
+    <t>"OST_TitleBlocks"</t>
+  </si>
+  <si>
+    <t>Carimbo.Bom</t>
+  </si>
+  <si>
+    <t>"Carimbo de projeto para corpo de Bombeiros"</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>"Carimbo.01"</t>
+  </si>
+  <si>
+    <t>"Carimbo.02"</t>
+  </si>
+  <si>
+    <t>"Carimbo.03"</t>
+  </si>
+  <si>
+    <t>"Carimbo.04"</t>
+  </si>
+  <si>
+    <t>"Etiquetas para componentes do projeto."</t>
+  </si>
+  <si>
+    <t>"OST_Tags"</t>
+  </si>
+  <si>
+    <t>"Etiquetas para identificar portas."</t>
+  </si>
+  <si>
+    <t>"Etiquetas para identificar janelas."</t>
+  </si>
+  <si>
+    <t>"Tag.01"</t>
+  </si>
+  <si>
+    <t>"Tag.02"</t>
+  </si>
+  <si>
+    <t>"Folha.01"</t>
+  </si>
+  <si>
+    <t>"Folha.02"</t>
+  </si>
+  <si>
+    <t>"Folha.03"</t>
+  </si>
+  <si>
+    <t>"Folha.04"</t>
+  </si>
+  <si>
+    <t>"Folha.05"</t>
+  </si>
+  <si>
+    <t>"Folha.06"</t>
+  </si>
+  <si>
+    <t>Folha.A0</t>
+  </si>
+  <si>
+    <t>Folha.A1</t>
+  </si>
+  <si>
+    <t>Folha.A2</t>
+  </si>
+  <si>
+    <t>Folha.A3</t>
+  </si>
+  <si>
+    <t>"Etiquetas para identificar paredes."</t>
+  </si>
+  <si>
+    <t>"Etiquetas para identificar colunas."</t>
+  </si>
+  <si>
+    <t>EtiquetaJanelas</t>
+  </si>
+  <si>
+    <t>EtiquetaParedes</t>
+  </si>
+  <si>
+    <t>EtiquetaPortas</t>
+  </si>
+  <si>
+    <t>EtiquetaColunas</t>
+  </si>
+  <si>
+    <t>EtiquetaVigas</t>
+  </si>
+  <si>
+    <t>EtiquetaLajes</t>
+  </si>
+  <si>
+    <t>"Etiquetas para identificar vigas."</t>
+  </si>
+  <si>
+    <t>"Etiquetas para identificar lajes."</t>
+  </si>
+  <si>
+    <t>"Tag.03"</t>
+  </si>
+  <si>
+    <t>"Tag.04"</t>
+  </si>
+  <si>
+    <t>"Tag.05"</t>
+  </si>
+  <si>
+    <t>"Tag.06"</t>
+  </si>
+  <si>
+    <t>RevitFolha</t>
+  </si>
+  <si>
+    <t>RevitCarimbo</t>
+  </si>
+  <si>
+    <t>RevitTag</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1818,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1840,6 +1969,18 @@
         <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor rgb="FFD9F2D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1892,7 +2033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2060,11 +2201,36 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2137,8 +2303,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2451,7 +2617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1124724F-B8C4-4B86-9028-743FC73CDDB0}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
@@ -2659,9 +2825,9 @@
   <dimension ref="A1:X124"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="E124" sqref="E124:F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12718,14 +12884,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12890,24 +13056,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4328B84A-AA24-421E-9F4E-92D6A71CA3BE}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -12939,11 +13105,11 @@
       <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>9</v>
+      <c r="B3" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>331</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>9</v>
@@ -12953,11 +13119,11 @@
       <c r="A4" s="7">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>9</v>
+      <c r="B4" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>331</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>9</v>
@@ -12967,11 +13133,11 @@
       <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>9</v>
+      <c r="B5" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>492</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>9</v>
@@ -12981,13 +13147,27 @@
       <c r="A6" s="7">
         <v>6</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>9</v>
+      <c r="B6" s="61" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>491</v>
       </c>
       <c r="D6" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12998,21 +13178,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE7DDAD-871C-4A33-AA34-2A9D5C2ED883}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomLeft" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="36" customWidth="1"/>
     <col min="6" max="6" width="3.140625" style="36" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="36" customWidth="1"/>
     <col min="8" max="8" width="3.140625" style="36" customWidth="1"/>
@@ -13022,10 +13202,12 @@
     <col min="12" max="12" width="3.140625" style="36" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" style="36" customWidth="1"/>
     <col min="14" max="14" width="5.140625" style="36" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="13" customWidth="1"/>
     <col min="16" max="16" width="7" style="36" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" style="36" customWidth="1"/>
-    <col min="18" max="23" width="3.28515625" style="36" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="36" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="36" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" style="36" customWidth="1"/>
+    <col min="20" max="23" width="3.28515625" style="36" customWidth="1"/>
     <col min="24" max="16384" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
@@ -13105,7 +13287,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>351</v>
@@ -13144,13 +13326,13 @@
         <v>16</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>9</v>
+        <v>507</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>9</v>
+        <v>508</v>
       </c>
       <c r="R2" s="41" t="s">
         <v>9</v>
@@ -13175,17 +13357,17 @@
       <c r="A3" s="16">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>350</v>
+      <c r="B3" s="59" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>341</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>511</v>
+        <v>9</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>510</v>
+        <v>9</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>9</v>
@@ -13215,13 +13397,13 @@
         <v>16</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="R3" s="41" t="s">
         <v>9</v>
@@ -13246,17 +13428,17 @@
       <c r="A4" s="16">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>350</v>
+      <c r="B4" s="63" t="s">
+        <v>557</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>468</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>511</v>
+        <v>9</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>510</v>
+        <v>9</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>9</v>
@@ -13286,13 +13468,13 @@
         <v>16</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="R4" s="41" t="s">
         <v>9</v>
@@ -13318,16 +13500,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>350</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>9</v>
@@ -13357,19 +13539,19 @@
         <v>16</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>9</v>
+        <v>520</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>9</v>
+        <v>531</v>
       </c>
       <c r="T5" s="41" t="s">
         <v>9</v>
@@ -13389,16 +13571,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>350</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>9</v>
@@ -13428,19 +13610,19 @@
         <v>16</v>
       </c>
       <c r="O6" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="P6" s="41" t="s">
         <v>507</v>
       </c>
-      <c r="P6" s="41" t="s">
-        <v>512</v>
-      </c>
       <c r="Q6" s="21" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="R6" s="41" t="s">
-        <v>9</v>
+        <v>520</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>9</v>
+        <v>532</v>
       </c>
       <c r="T6" s="41" t="s">
         <v>9</v>
@@ -13460,16 +13642,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>350</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>9</v>
@@ -13499,19 +13681,19 @@
         <v>16</v>
       </c>
       <c r="O7" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q7" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="P7" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>513</v>
-      </c>
       <c r="R7" s="41" t="s">
-        <v>9</v>
+        <v>520</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>9</v>
+        <v>533</v>
       </c>
       <c r="T7" s="41" t="s">
         <v>9</v>
@@ -13531,16 +13713,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>350</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>9</v>
@@ -13570,40 +13752,892 @@
         <v>16</v>
       </c>
       <c r="O8" s="40" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="P8" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="R8" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="T8" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="R9" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="T9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="R10" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="T10" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16">
+        <v>11</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="P11" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="R11" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="T11" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="16">
+        <v>12</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>510</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="P12" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="R12" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="T12" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16">
+        <v>13</v>
+      </c>
+      <c r="B13" s="60" t="s">
         <v>512</v>
       </c>
-      <c r="Q8" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="R8" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="V8" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="21" t="s">
+      <c r="C13" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="P13" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="R13" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="T13" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16">
+        <v>14</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>518</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="P14" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="R14" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="T14" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="16">
+        <v>15</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>544</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="P15" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="R15" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="T15" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>545</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="P16" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="R16" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="T16" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16">
+        <v>17</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="P17" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="R17" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="T17" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16">
+        <v>18</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>546</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="R18" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S18" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="T18" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16">
+        <v>19</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>547</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="P19" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="R19" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="T19" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16">
+        <v>20</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>548</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="R20" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="T20" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" s="21" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:W8">
-    <sortCondition ref="A1:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:W10">
+    <sortCondition ref="A1:A10"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  <conditionalFormatting sqref="B15:B1048576 B1:B10">
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BC455C-7B26-4796-A00E-162CD24BDDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E37CAD2-967E-47B6-9B4A-DFBB482A3630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -1635,9 +1635,6 @@
     <t>"Carimbo de projeto para corpo de Bombeiros"</t>
   </si>
   <si>
-    <t>tipo</t>
-  </si>
-  <si>
     <t>"Carimbo.01"</t>
   </si>
   <si>
@@ -1747,6 +1744,9 @@
   </si>
   <si>
     <t>RevitTag</t>
+  </si>
+  <si>
+    <t>família.tipo</t>
   </si>
 </sst>
 </file>
@@ -2220,17 +2220,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2617,7 +2607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1124724F-B8C4-4B86-9028-743FC73CDDB0}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
@@ -2827,7 +2817,7 @@
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124:F124"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12884,14 +12874,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13180,10 +13170,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE7DDAD-871C-4A33-AA34-2A9D5C2ED883}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="T23" sqref="T23"/>
+      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13205,7 +13195,7 @@
     <col min="15" max="15" width="22.7109375" style="13" customWidth="1"/>
     <col min="16" max="16" width="7" style="36" customWidth="1"/>
     <col min="17" max="17" width="8.28515625" style="36" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="36" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="36" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.85546875" style="36" customWidth="1"/>
     <col min="20" max="23" width="3.28515625" style="36" customWidth="1"/>
     <col min="24" max="16384" width="11.5703125" style="13"/>
@@ -13287,7 +13277,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>351</v>
@@ -13358,7 +13348,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>341</v>
@@ -13429,7 +13419,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>468</v>
@@ -13468,13 +13458,13 @@
         <v>16</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P4" s="41" t="s">
         <v>507</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R4" s="41" t="s">
         <v>9</v>
@@ -13500,7 +13490,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>350</v>
@@ -13509,7 +13499,7 @@
         <v>506</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>9</v>
@@ -13548,10 +13538,10 @@
         <v>508</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="T5" s="41" t="s">
         <v>9</v>
@@ -13571,7 +13561,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>350</v>
@@ -13580,7 +13570,7 @@
         <v>506</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>9</v>
@@ -13619,10 +13609,10 @@
         <v>508</v>
       </c>
       <c r="R6" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T6" s="41" t="s">
         <v>9</v>
@@ -13642,7 +13632,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>350</v>
@@ -13651,7 +13641,7 @@
         <v>506</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>9</v>
@@ -13690,10 +13680,10 @@
         <v>508</v>
       </c>
       <c r="R7" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T7" s="41" t="s">
         <v>9</v>
@@ -13713,7 +13703,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>350</v>
@@ -13722,7 +13712,7 @@
         <v>506</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>9</v>
@@ -13761,10 +13751,10 @@
         <v>508</v>
       </c>
       <c r="R8" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="T8" s="41" t="s">
         <v>9</v>
@@ -13793,7 +13783,7 @@
         <v>506</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>9</v>
@@ -13832,10 +13822,10 @@
         <v>508</v>
       </c>
       <c r="R9" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="T9" s="41" t="s">
         <v>9</v>
@@ -13864,7 +13854,7 @@
         <v>506</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>9</v>
@@ -13903,10 +13893,10 @@
         <v>508</v>
       </c>
       <c r="R10" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T10" s="41" t="s">
         <v>9</v>
@@ -13935,7 +13925,7 @@
         <v>506</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>9</v>
@@ -13974,10 +13964,10 @@
         <v>517</v>
       </c>
       <c r="R11" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="S11" s="21" t="s">
         <v>520</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>521</v>
       </c>
       <c r="T11" s="41" t="s">
         <v>9</v>
@@ -14006,7 +13996,7 @@
         <v>506</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>9</v>
@@ -14045,10 +14035,10 @@
         <v>517</v>
       </c>
       <c r="R12" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T12" s="41" t="s">
         <v>9</v>
@@ -14077,7 +14067,7 @@
         <v>506</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>9</v>
@@ -14116,10 +14106,10 @@
         <v>517</v>
       </c>
       <c r="R13" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T13" s="41" t="s">
         <v>9</v>
@@ -14148,7 +14138,7 @@
         <v>506</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>9</v>
@@ -14187,10 +14177,10 @@
         <v>517</v>
       </c>
       <c r="R14" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T14" s="41" t="s">
         <v>9</v>
@@ -14210,7 +14200,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>452</v>
@@ -14219,7 +14209,7 @@
         <v>506</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>9</v>
@@ -14249,19 +14239,19 @@
         <v>16</v>
       </c>
       <c r="O15" s="40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="P15" s="41" t="s">
         <v>507</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R15" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="T15" s="41" t="s">
         <v>9</v>
@@ -14281,7 +14271,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>452</v>
@@ -14290,7 +14280,7 @@
         <v>506</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>9</v>
@@ -14320,19 +14310,19 @@
         <v>16</v>
       </c>
       <c r="O16" s="40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P16" s="41" t="s">
         <v>507</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R16" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T16" s="41" t="s">
         <v>9</v>
@@ -14352,7 +14342,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C17" s="48" t="s">
         <v>452</v>
@@ -14361,7 +14351,7 @@
         <v>506</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>9</v>
@@ -14391,19 +14381,19 @@
         <v>16</v>
       </c>
       <c r="O17" s="40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P17" s="41" t="s">
         <v>507</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R17" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T17" s="41" t="s">
         <v>9</v>
@@ -14423,7 +14413,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>452</v>
@@ -14432,7 +14422,7 @@
         <v>506</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>9</v>
@@ -14462,19 +14452,19 @@
         <v>16</v>
       </c>
       <c r="O18" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P18" s="41" t="s">
         <v>507</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R18" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T18" s="41" t="s">
         <v>9</v>
@@ -14494,7 +14484,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C19" s="48" t="s">
         <v>452</v>
@@ -14503,7 +14493,7 @@
         <v>506</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>9</v>
@@ -14533,19 +14523,19 @@
         <v>16</v>
       </c>
       <c r="O19" s="40" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P19" s="41" t="s">
         <v>507</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R19" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="T19" s="41" t="s">
         <v>9</v>
@@ -14565,7 +14555,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C20" s="48" t="s">
         <v>452</v>
@@ -14574,7 +14564,7 @@
         <v>506</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>9</v>
@@ -14604,19 +14594,19 @@
         <v>16</v>
       </c>
       <c r="O20" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="P20" s="41" t="s">
         <v>507</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R20" s="41" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T20" s="41" t="s">
         <v>9</v>
@@ -14637,7 +14627,7 @@
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B15:B1048576 B1:B10">
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04845607-0D0A-4D72-8078-CEF78114CC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C047F90-6F00-4E2A-AFF5-700458251B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Disjunt" sheetId="36" r:id="rId3"/>
     <sheet name="Interop" sheetId="37" r:id="rId4"/>
     <sheet name="FatosIn" sheetId="38" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="39" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="604">
   <si>
     <t>Edição</t>
   </si>
@@ -1815,9 +1816,6 @@
     <t>"A Patente nº 01 é protegida por direito Industrial."</t>
   </si>
   <si>
-    <t>Livro.01</t>
-  </si>
-  <si>
     <t>"A Marca 01 é protegida por Legislação de Direito Industrial."</t>
   </si>
   <si>
@@ -1827,23 +1825,133 @@
     <t>"O Livro 01 é protegido Legislação de Direito Autoral."</t>
   </si>
   <si>
-    <t>Lei.Bra.01.2025</t>
-  </si>
-  <si>
-    <t>"É uma lei brasileira de Direito Autoral."</t>
-  </si>
-  <si>
-    <t>Lei.Bra.02.2025</t>
-  </si>
-  <si>
-    <t>"É uma lei brasileira de Direito Industrial."</t>
+    <t>DECRETO Nº 10.306, DE 2 DE ABRIL DE 2020</t>
+  </si>
+  <si>
+    <r>
+      <t>Estabelece a utilização do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Building Information Modelling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> na execução direta ou indireta de obras e serviços de engenharia realizada pelos órgãos e pelas entidades da administração pública federal, no âmbito da Estratégia Nacional de Disseminação do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Building Information Modelling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> - Estratégia </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> BR, instituída pelo Decreto nº 9.983, de 22 de agosto de 2019.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lei</t>
+  </si>
+  <si>
+    <t>Decreto</t>
+  </si>
+  <si>
+    <t>"Estabelece a Estratégia Nacional de Disseminação do BIM - Estratégia BIM BR."</t>
+  </si>
+  <si>
+    <t>"Estabelece o uso de BIM na execução direta ou indireta de obras e serviços de engenharia pelos órgãos e entidades da administração pública federal"</t>
+  </si>
+  <si>
+    <t>"Altera, atualiza e consolida a legislação sobre direitos autorais e dá outras providências."</t>
+  </si>
+  <si>
+    <t>"Regula direitos e obrigações relativos à propriedade industrial."</t>
+  </si>
+  <si>
+    <t>Decreto.10306.2020</t>
+  </si>
+  <si>
+    <t>Lei.09279.1996</t>
+  </si>
+  <si>
+    <t>Lei.09610.1998</t>
+  </si>
+  <si>
+    <t>Decreto.09983.2019</t>
+  </si>
+  <si>
+    <t>Governança</t>
+  </si>
+  <si>
+    <t>Lei publicada no Brasil</t>
+  </si>
+  <si>
+    <t>Decreto publicado no Brasil</t>
+  </si>
+  <si>
+    <t>Lei publicada en Brasil</t>
+  </si>
+  <si>
+    <t>Decreto publicado en Brasil</t>
+  </si>
+  <si>
+    <t>Projeto.de.Lei</t>
+  </si>
+  <si>
+    <t>Projeto de lei no Brasil</t>
+  </si>
+  <si>
+    <t>Proyecto de ley en Brasil</t>
+  </si>
+  <si>
+    <t>Registro.ISBN.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1900,6 +2008,39 @@
       <color rgb="FF000000"/>
       <name val="Arial Nova Cond Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="28">
@@ -2127,10 +2268,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2316,8 +2458,21 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -2707,19 +2862,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1124724F-B8C4-4B86-9028-743FC73CDDB0}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2863,7 +3018,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45745.602245601855</v>
+        <v>45747.408684374997</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2913,39 +3068,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F88FC60-6162-41CE-8831-C9C26A24F489}">
-  <dimension ref="A1:X127"/>
+  <dimension ref="A1:X130"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
+      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="13" customWidth="1"/>
     <col min="6" max="6" width="18" style="13" customWidth="1"/>
-    <col min="7" max="11" width="10.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.109375" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="35" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="36" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" style="26" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="13"/>
+    <col min="23" max="23" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
@@ -13020,8 +13175,8 @@
         <v>Licença</v>
       </c>
       <c r="O125" s="49" t="str">
-        <f t="shared" ref="O125" si="13">IF(ISNUMBER(FIND("Ifc",F125)),CONCATENATE("Classe IFC: ",F125),CONCATENATE("Cat. Revit: ",F125))</f>
-        <v>Cat. Revit: CreativeCommons</v>
+        <f>IF(ISNUMBER(FIND("",F125)),CONCATENATE("",F125),CONCATENATE("",F125))</f>
+        <v>CreativeCommons</v>
       </c>
       <c r="P125" s="49" t="s">
         <v>571</v>
@@ -13033,23 +13188,23 @@
         <v>89</v>
       </c>
       <c r="S125" s="50" t="str">
-        <f t="shared" ref="S125" si="14">SUBSTITUTE(C125, "_", " ")</f>
+        <f t="shared" ref="S125" si="13">SUBSTITUTE(C125, "_", " ")</f>
         <v>Documental</v>
       </c>
       <c r="T125" s="50" t="str">
-        <f t="shared" ref="T125" si="15">SUBSTITUTE(D125, "_", " ")</f>
+        <f t="shared" ref="T125" si="14">SUBSTITUTE(D125, "_", " ")</f>
         <v>Legal</v>
       </c>
       <c r="U125" s="49" t="str">
-        <f t="shared" ref="U125" si="16">SUBSTITUTE(E125, "_", " ")</f>
+        <f t="shared" ref="U125" si="15">SUBSTITUTE(E125, "_", " ")</f>
         <v>Licença</v>
       </c>
       <c r="V125" s="52" t="str">
-        <f t="shared" ref="V125" si="17">C125</f>
+        <f t="shared" ref="V125" si="16">C125</f>
         <v>Documental</v>
       </c>
       <c r="W125" s="32" t="str">
-        <f t="shared" ref="W125" si="18">CONCATENATE("Key_",LEFT(C125,3),LEFT(D125,3),"_",A125)</f>
+        <f t="shared" ref="W125" si="17">CONCATENATE("Key_",LEFT(C125,3),LEFT(D125,3),"_",A125)</f>
         <v>Key_DocLeg_125</v>
       </c>
       <c r="X125" s="53"/>
@@ -13089,20 +13244,20 @@
         <v>9</v>
       </c>
       <c r="L126" s="49" t="str">
-        <f t="shared" ref="L126" si="19">CONCATENATE("", C126)</f>
+        <f t="shared" ref="L126" si="18">CONCATENATE("", C126)</f>
         <v>Documental</v>
       </c>
       <c r="M126" s="49" t="str">
-        <f t="shared" ref="M126" si="20">CONCATENATE("", D126)</f>
+        <f t="shared" ref="M126" si="19">CONCATENATE("", D126)</f>
         <v>Legal</v>
       </c>
       <c r="N126" s="49" t="str">
-        <f t="shared" ref="N126" si="21">CONCATENATE("", E126)</f>
+        <f t="shared" ref="N126" si="20">CONCATENATE("", E126)</f>
         <v>Licença</v>
       </c>
       <c r="O126" s="49" t="str">
-        <f t="shared" ref="O126" si="22">IF(ISNUMBER(FIND("Ifc",F126)),CONCATENATE("Classe IFC: ",F126),CONCATENATE("Cat. Revit: ",F126))</f>
-        <v>Cat. Revit: Direito.Autoral</v>
+        <f>IF(ISNUMBER(FIND("",F126)),CONCATENATE("",F126),CONCATENATE("",F126))</f>
+        <v>Direito.Autoral</v>
       </c>
       <c r="P126" s="49" t="s">
         <v>568</v>
@@ -13114,23 +13269,23 @@
         <v>89</v>
       </c>
       <c r="S126" s="50" t="str">
-        <f t="shared" ref="S126" si="23">SUBSTITUTE(C126, "_", " ")</f>
+        <f t="shared" ref="S126" si="21">SUBSTITUTE(C126, "_", " ")</f>
         <v>Documental</v>
       </c>
       <c r="T126" s="50" t="str">
-        <f t="shared" ref="T126" si="24">SUBSTITUTE(D126, "_", " ")</f>
+        <f t="shared" ref="T126" si="22">SUBSTITUTE(D126, "_", " ")</f>
         <v>Legal</v>
       </c>
       <c r="U126" s="49" t="str">
-        <f t="shared" ref="U126" si="25">SUBSTITUTE(E126, "_", " ")</f>
+        <f t="shared" ref="U126" si="23">SUBSTITUTE(E126, "_", " ")</f>
         <v>Licença</v>
       </c>
       <c r="V126" s="52" t="str">
-        <f t="shared" ref="V126" si="26">C126</f>
+        <f t="shared" ref="V126" si="24">C126</f>
         <v>Documental</v>
       </c>
       <c r="W126" s="32" t="str">
-        <f t="shared" ref="W126" si="27">CONCATENATE("Key_",LEFT(C126,3),LEFT(D126,3),"_",A126)</f>
+        <f t="shared" ref="W126" si="25">CONCATENATE("Key_",LEFT(C126,3),LEFT(D126,3),"_",A126)</f>
         <v>Key_DocLeg_126</v>
       </c>
       <c r="X126" s="53"/>
@@ -13170,20 +13325,20 @@
         <v>9</v>
       </c>
       <c r="L127" s="49" t="str">
-        <f t="shared" ref="L127" si="28">CONCATENATE("", C127)</f>
+        <f t="shared" ref="L127" si="26">CONCATENATE("", C127)</f>
         <v>Documental</v>
       </c>
       <c r="M127" s="49" t="str">
-        <f t="shared" ref="M127" si="29">CONCATENATE("", D127)</f>
+        <f t="shared" ref="M127" si="27">CONCATENATE("", D127)</f>
         <v>Legal</v>
       </c>
       <c r="N127" s="49" t="str">
-        <f t="shared" ref="N127" si="30">CONCATENATE("", E127)</f>
+        <f t="shared" ref="N127" si="28">CONCATENATE("", E127)</f>
         <v>Licença</v>
       </c>
       <c r="O127" s="49" t="str">
-        <f t="shared" ref="O127" si="31">IF(ISNUMBER(FIND("Ifc",F127)),CONCATENATE("Classe IFC: ",F127),CONCATENATE("Cat. Revit: ",F127))</f>
-        <v>Cat. Revit: Direito.Industrial</v>
+        <f t="shared" ref="O127:O129" si="29">IF(ISNUMBER(FIND("",F127)),CONCATENATE("",F127),CONCATENATE("",F127))</f>
+        <v>Direito.Industrial</v>
       </c>
       <c r="P127" s="49" t="s">
         <v>569</v>
@@ -13195,26 +13350,269 @@
         <v>89</v>
       </c>
       <c r="S127" s="50" t="str">
-        <f t="shared" ref="S127" si="32">SUBSTITUTE(C127, "_", " ")</f>
+        <f t="shared" ref="S127" si="30">SUBSTITUTE(C127, "_", " ")</f>
         <v>Documental</v>
       </c>
       <c r="T127" s="50" t="str">
-        <f t="shared" ref="T127" si="33">SUBSTITUTE(D127, "_", " ")</f>
+        <f t="shared" ref="T127" si="31">SUBSTITUTE(D127, "_", " ")</f>
         <v>Legal</v>
       </c>
       <c r="U127" s="49" t="str">
-        <f t="shared" ref="U127" si="34">SUBSTITUTE(E127, "_", " ")</f>
+        <f t="shared" ref="U127" si="32">SUBSTITUTE(E127, "_", " ")</f>
         <v>Licença</v>
       </c>
       <c r="V127" s="52" t="str">
-        <f t="shared" ref="V127" si="35">C127</f>
+        <f t="shared" ref="V127" si="33">C127</f>
         <v>Documental</v>
       </c>
       <c r="W127" s="32" t="str">
-        <f t="shared" ref="W127" si="36">CONCATENATE("Key_",LEFT(C127,3),LEFT(D127,3),"_",A127)</f>
+        <f t="shared" ref="W127" si="34">CONCATENATE("Key_",LEFT(C127,3),LEFT(D127,3),"_",A127)</f>
         <v>Key_DocLeg_127</v>
       </c>
       <c r="X127" s="53"/>
+    </row>
+    <row r="128" spans="1:24" s="31" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="42">
+        <v>128</v>
+      </c>
+      <c r="B128" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C128" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D128" s="45" t="s">
+        <v>552</v>
+      </c>
+      <c r="E128" s="54" t="s">
+        <v>595</v>
+      </c>
+      <c r="F128" s="47" t="s">
+        <v>585</v>
+      </c>
+      <c r="G128" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I128" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J128" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K128" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L128" s="49" t="str">
+        <f t="shared" ref="L128" si="35">CONCATENATE("", C128)</f>
+        <v>Documental</v>
+      </c>
+      <c r="M128" s="49" t="str">
+        <f t="shared" ref="M128" si="36">CONCATENATE("", D128)</f>
+        <v>Legal</v>
+      </c>
+      <c r="N128" s="49" t="str">
+        <f t="shared" ref="N128" si="37">CONCATENATE("", E128)</f>
+        <v>Governança</v>
+      </c>
+      <c r="O128" s="49" t="str">
+        <f t="shared" si="29"/>
+        <v>Lei</v>
+      </c>
+      <c r="P128" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q128" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="R128" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="S128" s="50" t="str">
+        <f t="shared" ref="S128" si="38">SUBSTITUTE(C128, "_", " ")</f>
+        <v>Documental</v>
+      </c>
+      <c r="T128" s="50" t="str">
+        <f t="shared" ref="T128" si="39">SUBSTITUTE(D128, "_", " ")</f>
+        <v>Legal</v>
+      </c>
+      <c r="U128" s="49" t="str">
+        <f t="shared" ref="U128" si="40">SUBSTITUTE(E128, "_", " ")</f>
+        <v>Governança</v>
+      </c>
+      <c r="V128" s="52" t="str">
+        <f t="shared" ref="V128" si="41">C128</f>
+        <v>Documental</v>
+      </c>
+      <c r="W128" s="32" t="str">
+        <f t="shared" ref="W128" si="42">CONCATENATE("Key_",LEFT(C128,3),LEFT(D128,3),"_",A128)</f>
+        <v>Key_DocLeg_128</v>
+      </c>
+      <c r="X128" s="53"/>
+    </row>
+    <row r="129" spans="1:24" s="31" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="42">
+        <v>129</v>
+      </c>
+      <c r="B129" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C129" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D129" s="45" t="s">
+        <v>552</v>
+      </c>
+      <c r="E129" s="54" t="s">
+        <v>595</v>
+      </c>
+      <c r="F129" s="47" t="s">
+        <v>586</v>
+      </c>
+      <c r="G129" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I129" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J129" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K129" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L129" s="49" t="str">
+        <f t="shared" ref="L129" si="43">CONCATENATE("", C129)</f>
+        <v>Documental</v>
+      </c>
+      <c r="M129" s="49" t="str">
+        <f t="shared" ref="M129" si="44">CONCATENATE("", D129)</f>
+        <v>Legal</v>
+      </c>
+      <c r="N129" s="49" t="str">
+        <f t="shared" ref="N129" si="45">CONCATENATE("", E129)</f>
+        <v>Governança</v>
+      </c>
+      <c r="O129" s="49" t="str">
+        <f t="shared" si="29"/>
+        <v>Decreto</v>
+      </c>
+      <c r="P129" s="49" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q129" s="49" t="s">
+        <v>599</v>
+      </c>
+      <c r="R129" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="S129" s="50" t="str">
+        <f t="shared" ref="S129" si="46">SUBSTITUTE(C129, "_", " ")</f>
+        <v>Documental</v>
+      </c>
+      <c r="T129" s="50" t="str">
+        <f t="shared" ref="T129" si="47">SUBSTITUTE(D129, "_", " ")</f>
+        <v>Legal</v>
+      </c>
+      <c r="U129" s="49" t="str">
+        <f t="shared" ref="U129" si="48">SUBSTITUTE(E129, "_", " ")</f>
+        <v>Governança</v>
+      </c>
+      <c r="V129" s="52" t="str">
+        <f t="shared" ref="V129" si="49">C129</f>
+        <v>Documental</v>
+      </c>
+      <c r="W129" s="32" t="str">
+        <f t="shared" ref="W129" si="50">CONCATENATE("Key_",LEFT(C129,3),LEFT(D129,3),"_",A129)</f>
+        <v>Key_DocLeg_129</v>
+      </c>
+      <c r="X129" s="53"/>
+    </row>
+    <row r="130" spans="1:24" s="31" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="42">
+        <v>130</v>
+      </c>
+      <c r="B130" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D130" s="45" t="s">
+        <v>552</v>
+      </c>
+      <c r="E130" s="54" t="s">
+        <v>595</v>
+      </c>
+      <c r="F130" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="G130" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H130" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I130" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J130" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K130" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L130" s="49" t="str">
+        <f t="shared" ref="L130" si="51">CONCATENATE("", C130)</f>
+        <v>Documental</v>
+      </c>
+      <c r="M130" s="49" t="str">
+        <f t="shared" ref="M130" si="52">CONCATENATE("", D130)</f>
+        <v>Legal</v>
+      </c>
+      <c r="N130" s="49" t="str">
+        <f t="shared" ref="N130" si="53">CONCATENATE("", E130)</f>
+        <v>Governança</v>
+      </c>
+      <c r="O130" s="49" t="str">
+        <f t="shared" ref="O130" si="54">IF(ISNUMBER(FIND("",F130)),CONCATENATE("",F130),CONCATENATE("",F130))</f>
+        <v>Projeto.de.Lei</v>
+      </c>
+      <c r="P130" s="49" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q130" s="49" t="s">
+        <v>602</v>
+      </c>
+      <c r="R130" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="S130" s="50" t="str">
+        <f t="shared" ref="S130" si="55">SUBSTITUTE(C130, "_", " ")</f>
+        <v>Documental</v>
+      </c>
+      <c r="T130" s="50" t="str">
+        <f t="shared" ref="T130" si="56">SUBSTITUTE(D130, "_", " ")</f>
+        <v>Legal</v>
+      </c>
+      <c r="U130" s="49" t="str">
+        <f t="shared" ref="U130" si="57">SUBSTITUTE(E130, "_", " ")</f>
+        <v>Governança</v>
+      </c>
+      <c r="V130" s="52" t="str">
+        <f t="shared" ref="V130" si="58">C130</f>
+        <v>Documental</v>
+      </c>
+      <c r="W130" s="32" t="str">
+        <f t="shared" ref="W130" si="59">CONCATENATE("Key_",LEFT(C130,3),LEFT(D130,3),"_",A130)</f>
+        <v>Key_DocLeg_130</v>
+      </c>
+      <c r="X130" s="53"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
@@ -13246,14 +13644,14 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
-    <col min="2" max="10" width="5.7109375" style="12"/>
-    <col min="11" max="16384" width="5.7109375" style="24"/>
+    <col min="1" max="1" width="2.6640625" style="11" customWidth="1"/>
+    <col min="2" max="10" width="5.6640625" style="12"/>
+    <col min="11" max="16384" width="5.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.15">
       <c r="A1" s="22">
         <v>1</v>
       </c>
@@ -13318,7 +13716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="7.8" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>2</v>
       </c>
@@ -13398,13 +13796,13 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="13"/>
+    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13512,41 +13910,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429087C4-377B-4931-BC50-C00BD9684F83}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="62.44140625" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
@@ -13617,7 +14015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -13688,7 +14086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -13759,7 +14157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -13830,7 +14228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -13901,7 +14299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -13972,7 +14370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -14043,7 +14441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -14114,7 +14512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -14185,7 +14583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -14256,7 +14654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -14327,7 +14725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -14398,7 +14796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -14469,7 +14867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -14540,7 +14938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -14611,7 +15009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -14682,7 +15080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -14753,7 +15151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -14824,7 +15222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -14895,7 +15293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -14966,7 +15364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -15037,7 +15435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -15108,7 +15506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -15179,7 +15577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -15250,7 +15648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -15294,7 +15692,7 @@
         <v>16</v>
       </c>
       <c r="O25" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P25" s="40" t="s">
         <v>9</v>
@@ -15321,7 +15719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -15392,7 +15790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -15436,7 +15834,7 @@
         <v>16</v>
       </c>
       <c r="O27" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P27" s="40" t="s">
         <v>9</v>
@@ -15463,12 +15861,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>28</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>574</v>
@@ -15507,7 +15905,7 @@
         <v>16</v>
       </c>
       <c r="O28" s="64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P28" s="40" t="s">
         <v>9</v>
@@ -15534,15 +15932,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>29</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>9</v>
@@ -15578,7 +15976,7 @@
         <v>16</v>
       </c>
       <c r="O29" s="64" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="P29" s="40" t="s">
         <v>9</v>
@@ -15605,15 +16003,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>30</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>9</v>
@@ -15648,38 +16046,208 @@
       <c r="N30" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="64" t="s">
+      <c r="O30" s="68" t="s">
+        <v>590</v>
+      </c>
+      <c r="P30" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R30" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T30" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V30" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="W30" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>31</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>594</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="P30" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="R30" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="S30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="T30" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="U30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="V30" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="W30" s="21" t="s">
+      <c r="P31" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="U31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V31" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="W31" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>32</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>591</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="P32" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T32" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="U32" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="W32" s="21" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B10 B15:B30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B10 B15:B32">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8205D220-553E-4EB4-A3CC-AFCCFA504389}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="82.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67" t="s">
+        <v>584</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="http://legislacao.planalto.gov.br/legisla/legislacao.nsf/Viw_Identificacao/DEC 10.306-2020?OpenDocument" xr:uid="{2B033194-4344-44E8-A556-B0239C4037BD}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C047F90-6F00-4E2A-AFF5-700458251B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B25A32-F0B7-4147-906A-C5A46749EF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="606">
   <si>
     <t>Edição</t>
   </si>
@@ -1945,6 +1945,12 @@
   </si>
   <si>
     <t>Registro.ISBN.01</t>
+  </si>
+  <si>
+    <t>Decreto.11888.2024</t>
+  </si>
+  <si>
+    <t>"Dispõe sobre a Estratégia Nacional de Disseminação do BIM no Brasil - Estratégia BIM BR e institui o Comitê Gestor da Estratégia do BIM BR."</t>
   </si>
 </sst>
 </file>
@@ -3018,7 +3024,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45747.408684374997</v>
+        <v>45747.581869791669</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -13910,11 +13916,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429087C4-377B-4931-BC50-C00BD9684F83}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16216,9 +16222,80 @@
         <v>9</v>
       </c>
     </row>
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>33</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>604</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="P33" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R33" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S33" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T33" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="U33" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="W33" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B10 B15:B32">
+  <conditionalFormatting sqref="B1:B10 B15:B33">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -16233,7 +16310,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="82.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>583</v>
       </c>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B25A32-F0B7-4147-906A-C5A46749EF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3003E64A-69A6-4788-899D-6BFED416D003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Disjunt" sheetId="36" r:id="rId3"/>
     <sheet name="Interop" sheetId="37" r:id="rId4"/>
     <sheet name="FatosIn" sheetId="38" r:id="rId5"/>
-    <sheet name="Planilha1" sheetId="39" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="606">
   <si>
     <t>Edição</t>
   </si>
@@ -1825,71 +1824,6 @@
     <t>"O Livro 01 é protegido Legislação de Direito Autoral."</t>
   </si>
   <si>
-    <t>DECRETO Nº 10.306, DE 2 DE ABRIL DE 2020</t>
-  </si>
-  <si>
-    <r>
-      <t>Estabelece a utilização do </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Building Information Modelling</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> na execução direta ou indireta de obras e serviços de engenharia realizada pelos órgãos e pelas entidades da administração pública federal, no âmbito da Estratégia Nacional de Disseminação do </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Building Information Modelling</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> - Estratégia </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BIM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> BR, instituída pelo Decreto nº 9.983, de 22 de agosto de 2019.</t>
-    </r>
-  </si>
-  <si>
     <t>Lei</t>
   </si>
   <si>
@@ -1951,13 +1885,19 @@
   </si>
   <si>
     <t>"Dispõe sobre a Estratégia Nacional de Disseminação do BIM no Brasil - Estratégia BIM BR e institui o Comitê Gestor da Estratégia do BIM BR."</t>
+  </si>
+  <si>
+    <t>é.revogante.de</t>
+  </si>
+  <si>
+    <t>é.revogado.por</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2014,33 +1954,6 @@
       <color rgb="FF000000"/>
       <name val="Arial Nova Cond Light"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF800000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF800000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2274,11 +2187,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2464,24 +2376,27 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2554,8 +2469,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3024,7 +2939,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45747.581869791669</v>
+        <v>45748.315862268515</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -13391,10 +13306,10 @@
         <v>552</v>
       </c>
       <c r="E128" s="54" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F128" s="47" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G128" s="48" t="s">
         <v>9</v>
@@ -13428,10 +13343,10 @@
         <v>Lei</v>
       </c>
       <c r="P128" s="49" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q128" s="49" t="s">
         <v>596</v>
-      </c>
-      <c r="Q128" s="49" t="s">
-        <v>598</v>
       </c>
       <c r="R128" s="51" t="s">
         <v>89</v>
@@ -13472,10 +13387,10 @@
         <v>552</v>
       </c>
       <c r="E129" s="54" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F129" s="47" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G129" s="48" t="s">
         <v>9</v>
@@ -13509,10 +13424,10 @@
         <v>Decreto</v>
       </c>
       <c r="P129" s="49" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q129" s="49" t="s">
         <v>597</v>
-      </c>
-      <c r="Q129" s="49" t="s">
-        <v>599</v>
       </c>
       <c r="R129" s="51" t="s">
         <v>89</v>
@@ -13553,10 +13468,10 @@
         <v>552</v>
       </c>
       <c r="E130" s="54" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F130" s="47" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G130" s="48" t="s">
         <v>9</v>
@@ -13590,10 +13505,10 @@
         <v>Projeto.de.Lei</v>
       </c>
       <c r="P130" s="49" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Q130" s="49" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="R130" s="51" t="s">
         <v>89</v>
@@ -13622,14 +13537,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13919,8 +13834,8 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13928,8 +13843,8 @@
     <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
     <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
@@ -15872,7 +15787,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>574</v>
@@ -15943,10 +15858,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>9</v>
@@ -15982,7 +15897,7 @@
         <v>16</v>
       </c>
       <c r="O29" s="64" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="P29" s="40" t="s">
         <v>9</v>
@@ -16014,10 +15929,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>9</v>
@@ -16052,8 +15967,8 @@
       <c r="N30" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="68" t="s">
-        <v>590</v>
+      <c r="O30" s="65" t="s">
+        <v>588</v>
       </c>
       <c r="P30" s="40" t="s">
         <v>9</v>
@@ -16085,16 +16000,16 @@
         <v>31</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>9</v>
+        <v>605</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>9</v>
+        <v>602</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>9</v>
@@ -16124,7 +16039,7 @@
         <v>16</v>
       </c>
       <c r="O31" s="64" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="P31" s="40" t="s">
         <v>9</v>
@@ -16156,10 +16071,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>9</v>
@@ -16195,7 +16110,7 @@
         <v>16</v>
       </c>
       <c r="O32" s="64" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="P32" s="40" t="s">
         <v>9</v>
@@ -16227,16 +16142,16 @@
         <v>33</v>
       </c>
       <c r="B33" s="62" t="s">
+        <v>602</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D33" s="19" t="s">
         <v>604</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>9</v>
+      <c r="E33" s="66" t="s">
+        <v>592</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>9</v>
@@ -16266,7 +16181,7 @@
         <v>16</v>
       </c>
       <c r="O33" s="64" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="P33" s="40" t="s">
         <v>9</v>
@@ -16294,37 +16209,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B10 B15:B33">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8205D220-553E-4EB4-A3CC-AFCCFA504389}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="82.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67" t="s">
-        <v>584</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://legislacao.planalto.gov.br/legisla/legislacao.nsf/Viw_Identificacao/DEC 10.306-2020?OpenDocument" xr:uid="{2B033194-4344-44E8-A556-B0239C4037BD}"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3003E64A-69A6-4788-899D-6BFED416D003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDE626B-D65A-4431-98AA-F932EF7008E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -2788,14 +2788,14 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="13"/>
+    <col min="1" max="1" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45748.315862268515</v>
+        <v>45749.32802523148</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2997,31 +2997,31 @@
       <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="13" customWidth="1"/>
     <col min="6" max="6" width="18" style="13" customWidth="1"/>
-    <col min="7" max="11" width="10.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="35" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="36" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="13"/>
+    <col min="23" max="23" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
@@ -13565,14 +13565,14 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="11" customWidth="1"/>
-    <col min="2" max="10" width="5.6640625" style="12"/>
-    <col min="11" max="16384" width="5.6640625" style="24"/>
+    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
+    <col min="2" max="10" width="5.7109375" style="12"/>
+    <col min="11" max="16384" width="5.7109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="22">
         <v>1</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="7.8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>2</v>
       </c>
@@ -13717,13 +13717,13 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="13"/>
+    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13835,37 +13835,37 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="62.44140625" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="62.42578125" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -14291,7 +14291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -14859,7 +14859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>33</v>
       </c>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EA9DF3-DA2A-41F5-B8F7-F536F164C2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A2FD1-C5F9-4BD3-BF34-49ADC93CB768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="631">
   <si>
     <t>Edição</t>
   </si>
@@ -1960,6 +1960,12 @@
   </si>
   <si>
     <t>Formularios internos</t>
+  </si>
+  <si>
+    <t>Lei.10257.2001</t>
+  </si>
+  <si>
+    <t>"Lei Federal conhecida como Estatuto da Cidade. Regulamenta arts. 182 e 183 da Constituição Federal. Estabelece Diretrizes gerais de política urbana."</t>
   </si>
 </sst>
 </file>
@@ -2839,18 +2845,18 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="13"/>
+    <col min="1" max="1" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2994,7 +3000,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45750.310260069447</v>
+        <v>45751.843187268518</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3046,37 +3052,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F88FC60-6162-41CE-8831-C9C26A24F489}">
   <dimension ref="A1:X138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.2" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="55" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="55" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="55" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="55" customWidth="1"/>
     <col min="6" max="6" width="18" style="55" customWidth="1"/>
-    <col min="7" max="11" width="10.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" style="55" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="35" style="55" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="36" style="55" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" style="55" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="55"/>
+    <col min="23" max="23" width="10.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="50" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="50" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>38</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="51">
         <v>2</v>
       </c>
@@ -3228,7 +3234,7 @@
       </c>
       <c r="X2" s="53"/>
     </row>
-    <row r="3" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="51">
         <v>3</v>
       </c>
@@ -3309,7 +3315,7 @@
       </c>
       <c r="X3" s="53"/>
     </row>
-    <row r="4" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51">
         <v>4</v>
       </c>
@@ -3390,7 +3396,7 @@
       </c>
       <c r="X4" s="53"/>
     </row>
-    <row r="5" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51">
         <v>5</v>
       </c>
@@ -3471,7 +3477,7 @@
       </c>
       <c r="X5" s="53"/>
     </row>
-    <row r="6" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51">
         <v>6</v>
       </c>
@@ -3552,7 +3558,7 @@
       </c>
       <c r="X6" s="53"/>
     </row>
-    <row r="7" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="51">
         <v>7</v>
       </c>
@@ -3633,7 +3639,7 @@
       </c>
       <c r="X7" s="53"/>
     </row>
-    <row r="8" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="51">
         <v>8</v>
       </c>
@@ -3714,7 +3720,7 @@
       </c>
       <c r="X8" s="53"/>
     </row>
-    <row r="9" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="51">
         <v>9</v>
       </c>
@@ -3795,7 +3801,7 @@
       </c>
       <c r="X9" s="53"/>
     </row>
-    <row r="10" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51">
         <v>10</v>
       </c>
@@ -3876,7 +3882,7 @@
       </c>
       <c r="X10" s="53"/>
     </row>
-    <row r="11" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="51">
         <v>11</v>
       </c>
@@ -3957,7 +3963,7 @@
       </c>
       <c r="X11" s="53"/>
     </row>
-    <row r="12" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="51">
         <v>12</v>
       </c>
@@ -4038,7 +4044,7 @@
       </c>
       <c r="X12" s="53"/>
     </row>
-    <row r="13" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="51">
         <v>13</v>
       </c>
@@ -4119,7 +4125,7 @@
       </c>
       <c r="X13" s="53"/>
     </row>
-    <row r="14" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="51">
         <v>14</v>
       </c>
@@ -4200,7 +4206,7 @@
       </c>
       <c r="X14" s="53"/>
     </row>
-    <row r="15" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="51">
         <v>15</v>
       </c>
@@ -4281,7 +4287,7 @@
       </c>
       <c r="X15" s="53"/>
     </row>
-    <row r="16" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="51">
         <v>16</v>
       </c>
@@ -4362,7 +4368,7 @@
       </c>
       <c r="X16" s="53"/>
     </row>
-    <row r="17" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="51">
         <v>17</v>
       </c>
@@ -4443,7 +4449,7 @@
       </c>
       <c r="X17" s="53"/>
     </row>
-    <row r="18" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="51">
         <v>18</v>
       </c>
@@ -4524,7 +4530,7 @@
       </c>
       <c r="X18" s="53"/>
     </row>
-    <row r="19" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="51">
         <v>19</v>
       </c>
@@ -4605,7 +4611,7 @@
       </c>
       <c r="X19" s="53"/>
     </row>
-    <row r="20" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="51">
         <v>20</v>
       </c>
@@ -4686,7 +4692,7 @@
       </c>
       <c r="X20" s="53"/>
     </row>
-    <row r="21" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="51">
         <v>21</v>
       </c>
@@ -4767,7 +4773,7 @@
       </c>
       <c r="X21" s="53"/>
     </row>
-    <row r="22" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="51">
         <v>22</v>
       </c>
@@ -4848,7 +4854,7 @@
       </c>
       <c r="X22" s="53"/>
     </row>
-    <row r="23" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="51">
         <v>23</v>
       </c>
@@ -4929,7 +4935,7 @@
       </c>
       <c r="X23" s="53"/>
     </row>
-    <row r="24" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="51">
         <v>24</v>
       </c>
@@ -5010,7 +5016,7 @@
       </c>
       <c r="X24" s="53"/>
     </row>
-    <row r="25" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="51">
         <v>25</v>
       </c>
@@ -5091,7 +5097,7 @@
       </c>
       <c r="X25" s="53"/>
     </row>
-    <row r="26" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="51">
         <v>26</v>
       </c>
@@ -5172,7 +5178,7 @@
       </c>
       <c r="X26" s="53"/>
     </row>
-    <row r="27" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="51">
         <v>27</v>
       </c>
@@ -5253,7 +5259,7 @@
       </c>
       <c r="X27" s="53"/>
     </row>
-    <row r="28" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="51">
         <v>28</v>
       </c>
@@ -5334,7 +5340,7 @@
       </c>
       <c r="X28" s="53"/>
     </row>
-    <row r="29" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="51">
         <v>29</v>
       </c>
@@ -5415,7 +5421,7 @@
       </c>
       <c r="X29" s="53"/>
     </row>
-    <row r="30" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="51">
         <v>30</v>
       </c>
@@ -5496,7 +5502,7 @@
       </c>
       <c r="X30" s="53"/>
     </row>
-    <row r="31" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="51">
         <v>31</v>
       </c>
@@ -5577,7 +5583,7 @@
       </c>
       <c r="X31" s="53"/>
     </row>
-    <row r="32" spans="1:24" s="53" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" s="53" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="51">
         <v>32</v>
       </c>
@@ -5657,7 +5663,7 @@
         <v>Key_DocDim_32</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="53" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" s="53" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="51">
         <v>33</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>Key_DocDim_33</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="53" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" s="53" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="51">
         <v>34</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>Key_DocDim_34</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="53" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" s="53" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="51">
         <v>35</v>
       </c>
@@ -5897,7 +5903,7 @@
         <v>Key_DocEst_35</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="53" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" s="53" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="51">
         <v>36</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>Key_DocEst_36</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="53" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" s="53" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="51">
         <v>37</v>
       </c>
@@ -6057,7 +6063,7 @@
         <v>Key_DocEst_37</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="51">
         <v>38</v>
       </c>
@@ -6138,7 +6144,7 @@
       </c>
       <c r="X38" s="53"/>
     </row>
-    <row r="39" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="51">
         <v>39</v>
       </c>
@@ -6219,7 +6225,7 @@
       </c>
       <c r="X39" s="53"/>
     </row>
-    <row r="40" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="51">
         <v>40</v>
       </c>
@@ -6300,7 +6306,7 @@
       </c>
       <c r="X40" s="53"/>
     </row>
-    <row r="41" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="51">
         <v>41</v>
       </c>
@@ -6381,7 +6387,7 @@
       </c>
       <c r="X41" s="53"/>
     </row>
-    <row r="42" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="51">
         <v>42</v>
       </c>
@@ -6462,7 +6468,7 @@
       </c>
       <c r="X42" s="53"/>
     </row>
-    <row r="43" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="51">
         <v>43</v>
       </c>
@@ -6543,7 +6549,7 @@
       </c>
       <c r="X43" s="53"/>
     </row>
-    <row r="44" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="51">
         <v>44</v>
       </c>
@@ -6624,7 +6630,7 @@
       </c>
       <c r="X44" s="53"/>
     </row>
-    <row r="45" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="51">
         <v>45</v>
       </c>
@@ -6705,7 +6711,7 @@
       </c>
       <c r="X45" s="53"/>
     </row>
-    <row r="46" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="51">
         <v>46</v>
       </c>
@@ -6786,7 +6792,7 @@
       </c>
       <c r="X46" s="53"/>
     </row>
-    <row r="47" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="51">
         <v>47</v>
       </c>
@@ -6867,7 +6873,7 @@
       </c>
       <c r="X47" s="53"/>
     </row>
-    <row r="48" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="51">
         <v>48</v>
       </c>
@@ -6948,7 +6954,7 @@
       </c>
       <c r="X48" s="53"/>
     </row>
-    <row r="49" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="51">
         <v>49</v>
       </c>
@@ -7029,7 +7035,7 @@
       </c>
       <c r="X49" s="53"/>
     </row>
-    <row r="50" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="51">
         <v>50</v>
       </c>
@@ -7110,7 +7116,7 @@
       </c>
       <c r="X50" s="53"/>
     </row>
-    <row r="51" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="51">
         <v>51</v>
       </c>
@@ -7191,7 +7197,7 @@
       </c>
       <c r="X51" s="53"/>
     </row>
-    <row r="52" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="51">
         <v>52</v>
       </c>
@@ -7272,7 +7278,7 @@
       </c>
       <c r="X52" s="53"/>
     </row>
-    <row r="53" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="51">
         <v>53</v>
       </c>
@@ -7353,7 +7359,7 @@
       </c>
       <c r="X53" s="53"/>
     </row>
-    <row r="54" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="51">
         <v>54</v>
       </c>
@@ -7434,7 +7440,7 @@
       </c>
       <c r="X54" s="53"/>
     </row>
-    <row r="55" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="51">
         <v>55</v>
       </c>
@@ -7515,7 +7521,7 @@
       </c>
       <c r="X55" s="53"/>
     </row>
-    <row r="56" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="51">
         <v>56</v>
       </c>
@@ -7596,7 +7602,7 @@
       </c>
       <c r="X56" s="53"/>
     </row>
-    <row r="57" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="51">
         <v>57</v>
       </c>
@@ -7677,7 +7683,7 @@
       </c>
       <c r="X57" s="53"/>
     </row>
-    <row r="58" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="51">
         <v>58</v>
       </c>
@@ -7758,7 +7764,7 @@
       </c>
       <c r="X58" s="53"/>
     </row>
-    <row r="59" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="51">
         <v>59</v>
       </c>
@@ -7839,7 +7845,7 @@
       </c>
       <c r="X59" s="53"/>
     </row>
-    <row r="60" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="51">
         <v>60</v>
       </c>
@@ -7920,7 +7926,7 @@
       </c>
       <c r="X60" s="53"/>
     </row>
-    <row r="61" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="51">
         <v>61</v>
       </c>
@@ -8001,7 +8007,7 @@
       </c>
       <c r="X61" s="53"/>
     </row>
-    <row r="62" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="51">
         <v>62</v>
       </c>
@@ -8082,7 +8088,7 @@
       </c>
       <c r="X62" s="53"/>
     </row>
-    <row r="63" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="51">
         <v>63</v>
       </c>
@@ -8163,7 +8169,7 @@
       </c>
       <c r="X63" s="53"/>
     </row>
-    <row r="64" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="51">
         <v>64</v>
       </c>
@@ -8244,7 +8250,7 @@
       </c>
       <c r="X64" s="53"/>
     </row>
-    <row r="65" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="51">
         <v>65</v>
       </c>
@@ -8325,7 +8331,7 @@
       </c>
       <c r="X65" s="53"/>
     </row>
-    <row r="66" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="51">
         <v>66</v>
       </c>
@@ -8406,7 +8412,7 @@
       </c>
       <c r="X66" s="53"/>
     </row>
-    <row r="67" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="51">
         <v>67</v>
       </c>
@@ -8487,7 +8493,7 @@
       </c>
       <c r="X67" s="53"/>
     </row>
-    <row r="68" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="51">
         <v>68</v>
       </c>
@@ -8568,7 +8574,7 @@
       </c>
       <c r="X68" s="53"/>
     </row>
-    <row r="69" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="51">
         <v>69</v>
       </c>
@@ -8649,7 +8655,7 @@
       </c>
       <c r="X69" s="53"/>
     </row>
-    <row r="70" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="51">
         <v>70</v>
       </c>
@@ -8730,7 +8736,7 @@
       </c>
       <c r="X70" s="53"/>
     </row>
-    <row r="71" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="51">
         <v>71</v>
       </c>
@@ -8811,7 +8817,7 @@
       </c>
       <c r="X71" s="53"/>
     </row>
-    <row r="72" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="51">
         <v>72</v>
       </c>
@@ -8892,7 +8898,7 @@
       </c>
       <c r="X72" s="53"/>
     </row>
-    <row r="73" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="51">
         <v>73</v>
       </c>
@@ -8973,7 +8979,7 @@
       </c>
       <c r="X73" s="53"/>
     </row>
-    <row r="74" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="51">
         <v>74</v>
       </c>
@@ -9054,7 +9060,7 @@
       </c>
       <c r="X74" s="53"/>
     </row>
-    <row r="75" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="51">
         <v>75</v>
       </c>
@@ -9135,7 +9141,7 @@
       </c>
       <c r="X75" s="53"/>
     </row>
-    <row r="76" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="51">
         <v>76</v>
       </c>
@@ -9216,7 +9222,7 @@
       </c>
       <c r="X76" s="53"/>
     </row>
-    <row r="77" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="51">
         <v>77</v>
       </c>
@@ -9297,7 +9303,7 @@
       </c>
       <c r="X77" s="53"/>
     </row>
-    <row r="78" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="51">
         <v>78</v>
       </c>
@@ -9378,7 +9384,7 @@
       </c>
       <c r="X78" s="53"/>
     </row>
-    <row r="79" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="51">
         <v>79</v>
       </c>
@@ -9459,7 +9465,7 @@
       </c>
       <c r="X79" s="53"/>
     </row>
-    <row r="80" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="51">
         <v>80</v>
       </c>
@@ -9540,7 +9546,7 @@
       </c>
       <c r="X80" s="53"/>
     </row>
-    <row r="81" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="51">
         <v>81</v>
       </c>
@@ -9621,7 +9627,7 @@
       </c>
       <c r="X81" s="53"/>
     </row>
-    <row r="82" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="51">
         <v>82</v>
       </c>
@@ -9702,7 +9708,7 @@
       </c>
       <c r="X82" s="53"/>
     </row>
-    <row r="83" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="51">
         <v>83</v>
       </c>
@@ -9783,7 +9789,7 @@
       </c>
       <c r="X83" s="53"/>
     </row>
-    <row r="84" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="51">
         <v>84</v>
       </c>
@@ -9864,7 +9870,7 @@
       </c>
       <c r="X84" s="53"/>
     </row>
-    <row r="85" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="51">
         <v>85</v>
       </c>
@@ -9945,7 +9951,7 @@
       </c>
       <c r="X85" s="53"/>
     </row>
-    <row r="86" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="51">
         <v>86</v>
       </c>
@@ -10026,7 +10032,7 @@
       </c>
       <c r="X86" s="53"/>
     </row>
-    <row r="87" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="51">
         <v>87</v>
       </c>
@@ -10107,7 +10113,7 @@
       </c>
       <c r="X87" s="53"/>
     </row>
-    <row r="88" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="51">
         <v>88</v>
       </c>
@@ -10188,7 +10194,7 @@
       </c>
       <c r="X88" s="53"/>
     </row>
-    <row r="89" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="51">
         <v>89</v>
       </c>
@@ -10269,7 +10275,7 @@
       </c>
       <c r="X89" s="53"/>
     </row>
-    <row r="90" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="51">
         <v>90</v>
       </c>
@@ -10350,7 +10356,7 @@
       </c>
       <c r="X90" s="53"/>
     </row>
-    <row r="91" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="51">
         <v>91</v>
       </c>
@@ -10431,7 +10437,7 @@
       </c>
       <c r="X91" s="53"/>
     </row>
-    <row r="92" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="51">
         <v>92</v>
       </c>
@@ -10512,7 +10518,7 @@
       </c>
       <c r="X92" s="53"/>
     </row>
-    <row r="93" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="51">
         <v>93</v>
       </c>
@@ -10593,7 +10599,7 @@
       </c>
       <c r="X93" s="53"/>
     </row>
-    <row r="94" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="51">
         <v>94</v>
       </c>
@@ -10674,7 +10680,7 @@
       </c>
       <c r="X94" s="53"/>
     </row>
-    <row r="95" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="51">
         <v>95</v>
       </c>
@@ -10755,7 +10761,7 @@
       </c>
       <c r="X95" s="53"/>
     </row>
-    <row r="96" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="51">
         <v>96</v>
       </c>
@@ -10836,7 +10842,7 @@
       </c>
       <c r="X96" s="53"/>
     </row>
-    <row r="97" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="51">
         <v>97</v>
       </c>
@@ -10917,7 +10923,7 @@
       </c>
       <c r="X97" s="53"/>
     </row>
-    <row r="98" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="51">
         <v>98</v>
       </c>
@@ -10998,7 +11004,7 @@
       </c>
       <c r="X98" s="53"/>
     </row>
-    <row r="99" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="51">
         <v>99</v>
       </c>
@@ -11079,7 +11085,7 @@
       </c>
       <c r="X99" s="53"/>
     </row>
-    <row r="100" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="51">
         <v>100</v>
       </c>
@@ -11160,7 +11166,7 @@
       </c>
       <c r="X100" s="53"/>
     </row>
-    <row r="101" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="51">
         <v>101</v>
       </c>
@@ -11241,7 +11247,7 @@
       </c>
       <c r="X101" s="53"/>
     </row>
-    <row r="102" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="51">
         <v>102</v>
       </c>
@@ -11322,7 +11328,7 @@
       </c>
       <c r="X102" s="53"/>
     </row>
-    <row r="103" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="51">
         <v>103</v>
       </c>
@@ -11403,7 +11409,7 @@
       </c>
       <c r="X103" s="53"/>
     </row>
-    <row r="104" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="51">
         <v>104</v>
       </c>
@@ -11484,7 +11490,7 @@
       </c>
       <c r="X104" s="53"/>
     </row>
-    <row r="105" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="51">
         <v>105</v>
       </c>
@@ -11565,7 +11571,7 @@
       </c>
       <c r="X105" s="53"/>
     </row>
-    <row r="106" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="51">
         <v>106</v>
       </c>
@@ -11646,7 +11652,7 @@
       </c>
       <c r="X106" s="53"/>
     </row>
-    <row r="107" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="51">
         <v>107</v>
       </c>
@@ -11727,7 +11733,7 @@
       </c>
       <c r="X107" s="53"/>
     </row>
-    <row r="108" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="51">
         <v>108</v>
       </c>
@@ -11808,7 +11814,7 @@
       </c>
       <c r="X108" s="53"/>
     </row>
-    <row r="109" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="51">
         <v>109</v>
       </c>
@@ -11889,7 +11895,7 @@
       </c>
       <c r="X109" s="53"/>
     </row>
-    <row r="110" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="51">
         <v>110</v>
       </c>
@@ -11970,7 +11976,7 @@
       </c>
       <c r="X110" s="53"/>
     </row>
-    <row r="111" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="51">
         <v>111</v>
       </c>
@@ -12051,7 +12057,7 @@
       </c>
       <c r="X111" s="53"/>
     </row>
-    <row r="112" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="51">
         <v>112</v>
       </c>
@@ -12132,7 +12138,7 @@
       </c>
       <c r="X112" s="53"/>
     </row>
-    <row r="113" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="51">
         <v>113</v>
       </c>
@@ -12213,7 +12219,7 @@
       </c>
       <c r="X113" s="53"/>
     </row>
-    <row r="114" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="51">
         <v>114</v>
       </c>
@@ -12294,7 +12300,7 @@
       </c>
       <c r="X114" s="53"/>
     </row>
-    <row r="115" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="51">
         <v>115</v>
       </c>
@@ -12375,7 +12381,7 @@
       </c>
       <c r="X115" s="53"/>
     </row>
-    <row r="116" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="51">
         <v>116</v>
       </c>
@@ -12456,7 +12462,7 @@
       </c>
       <c r="X116" s="53"/>
     </row>
-    <row r="117" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="51">
         <v>117</v>
       </c>
@@ -12537,7 +12543,7 @@
       </c>
       <c r="X117" s="53"/>
     </row>
-    <row r="118" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="51">
         <v>118</v>
       </c>
@@ -12618,7 +12624,7 @@
       </c>
       <c r="X118" s="53"/>
     </row>
-    <row r="119" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="51">
         <v>119</v>
       </c>
@@ -12699,7 +12705,7 @@
       </c>
       <c r="X119" s="53"/>
     </row>
-    <row r="120" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="51">
         <v>120</v>
       </c>
@@ -12780,7 +12786,7 @@
       </c>
       <c r="X120" s="53"/>
     </row>
-    <row r="121" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="51">
         <v>121</v>
       </c>
@@ -12861,7 +12867,7 @@
       </c>
       <c r="X121" s="53"/>
     </row>
-    <row r="122" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="51">
         <v>122</v>
       </c>
@@ -12942,7 +12948,7 @@
       </c>
       <c r="X122" s="53"/>
     </row>
-    <row r="123" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="51">
         <v>123</v>
       </c>
@@ -13023,7 +13029,7 @@
       </c>
       <c r="X123" s="53"/>
     </row>
-    <row r="124" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="51">
         <v>124</v>
       </c>
@@ -13104,7 +13110,7 @@
       </c>
       <c r="X124" s="53"/>
     </row>
-    <row r="125" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="51">
         <v>125</v>
       </c>
@@ -13185,7 +13191,7 @@
       </c>
       <c r="X125" s="53"/>
     </row>
-    <row r="126" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="51">
         <v>126</v>
       </c>
@@ -13266,7 +13272,7 @@
       </c>
       <c r="X126" s="53"/>
     </row>
-    <row r="127" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="51">
         <v>127</v>
       </c>
@@ -13347,7 +13353,7 @@
       </c>
       <c r="X127" s="53"/>
     </row>
-    <row r="128" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="51">
         <v>128</v>
       </c>
@@ -13428,7 +13434,7 @@
       </c>
       <c r="X128" s="53"/>
     </row>
-    <row r="129" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="51">
         <v>129</v>
       </c>
@@ -13509,7 +13515,7 @@
       </c>
       <c r="X129" s="53"/>
     </row>
-    <row r="130" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="51">
         <v>130</v>
       </c>
@@ -13590,7 +13596,7 @@
       </c>
       <c r="X130" s="53"/>
     </row>
-    <row r="131" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="51">
         <v>131</v>
       </c>
@@ -13671,7 +13677,7 @@
       </c>
       <c r="X131" s="53"/>
     </row>
-    <row r="132" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="51">
         <v>132</v>
       </c>
@@ -13752,7 +13758,7 @@
       </c>
       <c r="X132" s="53"/>
     </row>
-    <row r="133" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="51">
         <v>133</v>
       </c>
@@ -13833,7 +13839,7 @@
       </c>
       <c r="X133" s="53"/>
     </row>
-    <row r="134" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="51">
         <v>134</v>
       </c>
@@ -13914,7 +13920,7 @@
       </c>
       <c r="X134" s="53"/>
     </row>
-    <row r="135" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="51">
         <v>135</v>
       </c>
@@ -13995,7 +14001,7 @@
       </c>
       <c r="X135" s="53"/>
     </row>
-    <row r="136" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="51">
         <v>136</v>
       </c>
@@ -14076,7 +14082,7 @@
       </c>
       <c r="X136" s="53"/>
     </row>
-    <row r="137" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="51">
         <v>137</v>
       </c>
@@ -14123,7 +14129,7 @@
         <v>Empresarial</v>
       </c>
       <c r="O137" s="36" t="str">
-        <f t="shared" ref="O137:P137" si="99">IF(ISNUMBER(FIND("",F137)),CONCATENATE("",F137),CONCATENATE("",F137))</f>
+        <f t="shared" ref="O137" si="99">IF(ISNUMBER(FIND("",F137)),CONCATENATE("",F137),CONCATENATE("",F137))</f>
         <v>Fichário</v>
       </c>
       <c r="P137" s="36" t="s">
@@ -14157,7 +14163,7 @@
       </c>
       <c r="X137" s="53"/>
     </row>
-    <row r="138" spans="1:24" s="50" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:24" s="50" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="51">
         <v>138</v>
       </c>
@@ -14204,7 +14210,7 @@
         <v>Empresarial</v>
       </c>
       <c r="O138" s="36" t="str">
-        <f t="shared" ref="O138:P138" si="108">IF(ISNUMBER(FIND("",F138)),CONCATENATE("",F138),CONCATENATE("",F138))</f>
+        <f t="shared" ref="O138" si="108">IF(ISNUMBER(FIND("",F138)),CONCATENATE("",F138),CONCATENATE("",F138))</f>
         <v>Formulário</v>
       </c>
       <c r="P138" s="36" t="s">
@@ -14268,14 +14274,14 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="11" customWidth="1"/>
-    <col min="2" max="10" width="5.6640625" style="12"/>
-    <col min="11" max="16384" width="5.6640625" style="24"/>
+    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
+    <col min="2" max="10" width="5.7109375" style="12"/>
+    <col min="11" max="16384" width="5.7109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="22">
         <v>1</v>
       </c>
@@ -14340,7 +14346,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="7.8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>2</v>
       </c>
@@ -14420,13 +14426,13 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="13"/>
+    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14534,41 +14540,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429087C4-377B-4931-BC50-C00BD9684F83}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="62.44140625" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="64.28515625" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
@@ -14639,7 +14645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -14710,7 +14716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -14781,7 +14787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -14852,7 +14858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -14923,7 +14929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -14994,7 +15000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -15065,7 +15071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -15136,7 +15142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -15207,7 +15213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -15278,7 +15284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -15349,7 +15355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -15420,7 +15426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -15491,7 +15497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -15562,7 +15568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -15633,7 +15639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -15704,7 +15710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -15775,7 +15781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -15846,7 +15852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -15917,7 +15923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -15988,7 +15994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -16059,7 +16065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -16130,7 +16136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -16201,7 +16207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -16272,7 +16278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -16343,7 +16349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -16414,7 +16420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -16485,7 +16491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -16556,12 +16562,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>29</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>591</v>
+      <c r="B29" s="42" t="s">
+        <v>629</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>583</v>
@@ -16600,7 +16606,7 @@
         <v>16</v>
       </c>
       <c r="O29" s="44" t="s">
-        <v>587</v>
+        <v>630</v>
       </c>
       <c r="P29" s="33" t="s">
         <v>9</v>
@@ -16627,12 +16633,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>30</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>583</v>
@@ -16670,8 +16676,8 @@
       <c r="N30" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="45" t="s">
-        <v>588</v>
+      <c r="O30" s="44" t="s">
+        <v>587</v>
       </c>
       <c r="P30" s="33" t="s">
         <v>9</v>
@@ -16698,21 +16704,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>31</v>
       </c>
-      <c r="B31" s="42" t="s">
-        <v>592</v>
+      <c r="B31" s="43" t="s">
+        <v>590</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>605</v>
+        <v>9</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>602</v>
+        <v>9</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>9</v>
@@ -16741,8 +16747,8 @@
       <c r="N31" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="44" t="s">
-        <v>585</v>
+      <c r="O31" s="45" t="s">
+        <v>588</v>
       </c>
       <c r="P31" s="33" t="s">
         <v>9</v>
@@ -16769,21 +16775,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>32</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>584</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>9</v>
+        <v>605</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>9</v>
+        <v>602</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>9</v>
@@ -16813,7 +16819,7 @@
         <v>16</v>
       </c>
       <c r="O32" s="44" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P32" s="33" t="s">
         <v>9</v>
@@ -16840,21 +16846,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>33</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>584</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>604</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>592</v>
+        <v>9</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>9</v>
@@ -16884,40 +16890,111 @@
         <v>16</v>
       </c>
       <c r="O33" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="P33" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R33" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S33" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T33" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U33" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W33" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>34</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>592</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="P33" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q33" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="R33" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="S33" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="T33" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="U33" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="V33" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="W33" s="21" t="s">
+      <c r="P34" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S34" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T34" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U34" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V34" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W34" s="21" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B10 B15:B33">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B1:B10 B15:B34">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A2FD1-C5F9-4BD3-BF34-49ADC93CB768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A259A8-A8B0-45AD-8732-E791231D4C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45751.843187268518</v>
+        <v>45779.542340046297</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -16990,11 +16990,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B10 B15:B34">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B10 B15:B34">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A259A8-A8B0-45AD-8732-E791231D4C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A2FD1-C5F9-4BD3-BF34-49ADC93CB768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45779.542340046297</v>
+        <v>45751.843187268518</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -16990,11 +16990,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B10 B15:B34">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA988C6-44F7-473B-82DB-91EAEF8A9925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB319045-C610-4CF8-A385-92B1B0F0D8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -1572,24 +1572,6 @@
     <t>Folha.A5</t>
   </si>
   <si>
-    <t>"Prancha tamanho A0"</t>
-  </si>
-  <si>
-    <t>"Prancha tamanho A1"</t>
-  </si>
-  <si>
-    <t>"Prancha tamanho A2"</t>
-  </si>
-  <si>
-    <t>"Prancha tamanho A3"</t>
-  </si>
-  <si>
-    <t>"Prancha tamanho A4"</t>
-  </si>
-  <si>
-    <t>"Prancha tamanho A5"</t>
-  </si>
-  <si>
     <t>é.categoria.revit</t>
   </si>
   <si>
@@ -1966,6 +1948,24 @@
   </si>
   <si>
     <t>"Lei Federal conhecida como Estatuto da Cidade. Regulamenta arts. 182 e 183 da Constituição Federal. Estabelece Diretrizes gerais de política urbana."</t>
+  </si>
+  <si>
+    <t>"Prancha de tamanho A0"</t>
+  </si>
+  <si>
+    <t>"Prancha de tamanho A1"</t>
+  </si>
+  <si>
+    <t>"Prancha de tamanho A2"</t>
+  </si>
+  <si>
+    <t>"Prancha de tamanho A3"</t>
+  </si>
+  <si>
+    <t>"Prancha de tamanho A4"</t>
+  </si>
+  <si>
+    <t>"Prancha de tamanho A5"</t>
   </si>
 </sst>
 </file>
@@ -2444,14 +2444,6 @@
   <dxfs count="8">
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2469,6 +2461,14 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2540,7 +2540,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2843,14 +2843,14 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="13"/>
+    <col min="1" max="1" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45797.660199999998</v>
+        <v>45816.546908564815</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3046,34 +3046,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE914A-3965-4A61-9195-D2681A91581F}">
   <dimension ref="A1:W138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="O13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>38</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46">
         <v>2</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>Key_DocCom_2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46">
         <v>3</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>Key_DocCom_3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46">
         <v>4</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>Key_DocCom_4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46">
         <v>5</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>Key_DocCom_5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46">
         <v>6</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>Key_DocCom_6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <v>7</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>Key_DocDet_7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46">
         <v>8</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>Key_DocDet_8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46">
         <v>9</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>Key_DocDet_9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <v>10</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>Key_DocDet_10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <v>11</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>Key_DocDet_11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>12</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>Key_DocDet_12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <v>13</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>Key_DocDet_13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46">
         <v>14</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>Key_DocDet_14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>15</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>Key_DocDet_15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>16</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>Key_DocDet_16</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>17</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>Key_DocDet_17</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46">
         <v>18</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>Key_DocDet_18</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46">
         <v>19</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>Key_DocDet_19</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46">
         <v>20</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>Key_DocDet_20</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46">
         <v>21</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>Key_DocDet_21</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46">
         <v>22</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>Key_DocDet_22</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46">
         <v>23</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>Key_DocDet_23</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46">
         <v>24</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>Key_DocDet_24</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46">
         <v>25</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>Key_DocDet_25</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46">
         <v>26</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>Key_DocDet_26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46">
         <v>27</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>Key_DocDet_27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46">
         <v>28</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>Key_DocDet_28</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="46">
         <v>29</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>Key_DocDet_29</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46">
         <v>30</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>Key_DocDet_30</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46">
         <v>31</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>Key_DocDet_31</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="46">
         <v>32</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>Key_DocDim_32</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="46">
         <v>33</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>Key_DocDim_33</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="46">
         <v>34</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>Key_DocDim_34</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="46">
         <v>35</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>Key_DocEst_35</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="46">
         <v>36</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>Key_DocEst_36</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="46">
         <v>37</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>Key_DocEst_37</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="46">
         <v>38</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>Key_DocEst_38</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="46">
         <v>39</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>Key_DocEst_39</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="46">
         <v>40</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>Key_DocEst_40</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="46">
         <v>41</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>Key_DocEst_41</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46">
         <v>42</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>Key_DocEst_42</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="46">
         <v>43</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>Key_DocEst_43</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46">
         <v>44</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>Key_DocEst_44</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="46">
         <v>45</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>Key_DocEst_45</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="46">
         <v>46</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>Key_DocEst_46</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="46">
         <v>47</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>Key_DocEst_47</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="46">
         <v>48</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>Key_DocEst_48</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="46">
         <v>49</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>Key_DocEst_49</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="46">
         <v>50</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>Key_DocEst_50</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="46">
         <v>51</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>Key_DocEst_51</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="46">
         <v>52</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>Key_DocEst_52</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="46">
         <v>53</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>Key_DocEst_53</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="46">
         <v>54</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>Key_DocEst_54</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="46">
         <v>55</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>Key_DocEst_55</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="46">
         <v>56</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>Key_DocEst_56</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="46">
         <v>57</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>Key_DocEst_57</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="46">
         <v>58</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>Key_DocEst_58</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="46">
         <v>59</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>Key_DocEst_59</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="46">
         <v>60</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>Key_DocEst_60</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46">
         <v>61</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>Key_DocLeg_61</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="46">
         <v>62</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>Key_DocLeg_62</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="46">
         <v>63</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>Key_DocLeg_63</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="46">
         <v>64</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>Key_DocLeg_64</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="46">
         <v>65</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>Key_DocLeg_65</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46">
         <v>66</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>Key_DocLeg_66</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="46">
         <v>67</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>Key_DocLeg_67</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="46">
         <v>68</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>Key_DocLeg_68</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="46">
         <v>69</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>Key_DocLeg_69</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="46">
         <v>70</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>Key_DocLeg_70</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="46">
         <v>71</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>Key_DocMod_71</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="46">
         <v>72</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>Key_DocMod_72</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="46">
         <v>73</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>Key_DocMod_73</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="46">
         <v>74</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>Key_DocMod_74</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="46">
         <v>75</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>Key_DocMod_75</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="46">
         <v>76</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>Key_DocMod_76</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="46">
         <v>77</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>Key_DocMod_77</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="46">
         <v>78</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>Key_DocMod_78</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="46">
         <v>79</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>Key_DocMod_79</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="46">
         <v>80</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>Key_DocMod_80</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="46">
         <v>81</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>Key_DocMod_81</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="46">
         <v>82</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>Key_DocPra_82</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="46">
         <v>83</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>Key_DocPra_83</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="46">
         <v>84</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>Key_DocPra_84</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="46">
         <v>85</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>Key_DocPra_85</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="46">
         <v>86</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>Key_DocPra_86</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="46">
         <v>87</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>Key_DocPra_87</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="46">
         <v>88</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>Key_DocPra_88</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="46">
         <v>89</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>Key_DocPre_89</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="46">
         <v>90</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>Key_DocPre_90</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="46">
         <v>91</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>Key_DocPre_91</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="46">
         <v>92</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>Key_DocPre_92</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="46">
         <v>93</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>Key_DocRel_93</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="46">
         <v>94</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>Key_DocRel_94</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="46">
         <v>95</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>Key_DocRel_95</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="46">
         <v>96</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>Key_DocRel_96</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="46">
         <v>97</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>Key_DocRel_97</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="46">
         <v>98</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>Key_DocRel_98</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="46">
         <v>99</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>Key_DocRel_99</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="46">
         <v>100</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>Key_DocTab_100</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="46">
         <v>101</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>Key_DocTab_101</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="46">
         <v>102</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>Key_DocTab_102</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="46">
         <v>103</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>Key_DocTab_103</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="46">
         <v>104</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>Key_DocTab_104</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="46">
         <v>105</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>Key_DocTex_105</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="46">
         <v>106</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>Key_DocTex_106</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="46">
         <v>107</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>Key_DocTex_107</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="46">
         <v>108</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>Key_DocTex_108</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="46">
         <v>109</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>Key_DocTex_109</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="46">
         <v>110</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>Key_DocTex_110</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="46">
         <v>111</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>Key_DocTex_111</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="46">
         <v>112</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>Key_DocTex_112</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="46">
         <v>113</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>Key_DocTex_113</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="46">
         <v>114</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>Key_DocTex_114</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="46">
         <v>115</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>Key_DocTex_115</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="46">
         <v>116</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>Key_DocTex_116</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="46">
         <v>117</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>Key_DocTex_117</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="46">
         <v>118</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>Key_DocTex_118</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="46">
         <v>119</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>Key_DocTex_119</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="46">
         <v>120</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>Key_DocTex_120</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="46">
         <v>121</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>Key_DocTex_121</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="46">
         <v>122</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>Key_DocTex_122</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="46">
         <v>123</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>Key_DocTex_123</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="46">
         <v>124</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>Key_DocTex_124</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="46">
         <v>125</v>
       </c>
@@ -12995,13 +12995,13 @@
         <v>84</v>
       </c>
       <c r="D125" s="49" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E125" s="48" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F125" s="51" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G125" s="54" t="s">
         <v>9</v>
@@ -13035,10 +13035,10 @@
         <v>CreativeCommons</v>
       </c>
       <c r="P125" s="34" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="Q125" s="34" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="R125" s="58" t="s">
         <v>89</v>
@@ -13064,7 +13064,7 @@
         <v>Key_DocLeg_125</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="46">
         <v>126</v>
       </c>
@@ -13075,13 +13075,13 @@
         <v>84</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E126" s="48" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F126" s="51" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G126" s="54" t="s">
         <v>9</v>
@@ -13115,10 +13115,10 @@
         <v>Direito.Autoral</v>
       </c>
       <c r="P126" s="34" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="Q126" s="34" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="R126" s="58" t="s">
         <v>89</v>
@@ -13144,7 +13144,7 @@
         <v>Key_DocLeg_126</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="46">
         <v>127</v>
       </c>
@@ -13155,13 +13155,13 @@
         <v>84</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E127" s="48" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F127" s="51" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G127" s="54" t="s">
         <v>9</v>
@@ -13195,10 +13195,10 @@
         <v>Direito.Industrial</v>
       </c>
       <c r="P127" s="34" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="Q127" s="34" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="R127" s="58" t="s">
         <v>89</v>
@@ -13224,7 +13224,7 @@
         <v>Key_DocLeg_127</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="46">
         <v>128</v>
       </c>
@@ -13235,13 +13235,13 @@
         <v>84</v>
       </c>
       <c r="D128" s="49" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E128" s="48" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F128" s="51" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G128" s="54" t="s">
         <v>9</v>
@@ -13275,10 +13275,10 @@
         <v>Lei</v>
       </c>
       <c r="P128" s="34" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="Q128" s="34" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="R128" s="58" t="s">
         <v>89</v>
@@ -13304,7 +13304,7 @@
         <v>Key_DocLeg_128</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="46">
         <v>129</v>
       </c>
@@ -13315,13 +13315,13 @@
         <v>84</v>
       </c>
       <c r="D129" s="49" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E129" s="48" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F129" s="51" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G129" s="54" t="s">
         <v>9</v>
@@ -13355,10 +13355,10 @@
         <v>Decreto</v>
       </c>
       <c r="P129" s="34" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="Q129" s="34" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="R129" s="58" t="s">
         <v>89</v>
@@ -13384,7 +13384,7 @@
         <v>Key_DocLeg_129</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="46">
         <v>130</v>
       </c>
@@ -13395,13 +13395,13 @@
         <v>84</v>
       </c>
       <c r="D130" s="49" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F130" s="51" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G130" s="54" t="s">
         <v>9</v>
@@ -13435,10 +13435,10 @@
         <v>Projeto.de.Lei</v>
       </c>
       <c r="P130" s="34" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="Q130" s="34" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="R130" s="58" t="s">
         <v>89</v>
@@ -13464,7 +13464,7 @@
         <v>Key_DocLeg_130</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="46">
         <v>131</v>
       </c>
@@ -13475,13 +13475,13 @@
         <v>84</v>
       </c>
       <c r="D131" s="49" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E131" s="48" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F131" s="51" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="G131" s="54" t="s">
         <v>9</v>
@@ -13515,10 +13515,10 @@
         <v>Guia</v>
       </c>
       <c r="P131" s="34" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="Q131" s="34" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="R131" s="58" t="s">
         <v>89</v>
@@ -13544,7 +13544,7 @@
         <v>Key_DocPub_131</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="46">
         <v>132</v>
       </c>
@@ -13555,13 +13555,13 @@
         <v>84</v>
       </c>
       <c r="D132" s="49" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F132" s="51" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G132" s="54" t="s">
         <v>9</v>
@@ -13595,10 +13595,10 @@
         <v>Manual</v>
       </c>
       <c r="P132" s="34" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="Q132" s="34" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="R132" s="58" t="s">
         <v>89</v>
@@ -13624,7 +13624,7 @@
         <v>Key_DocPub_132</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="46">
         <v>133</v>
       </c>
@@ -13635,13 +13635,13 @@
         <v>84</v>
       </c>
       <c r="D133" s="49" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E133" s="48" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F133" s="51" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="G133" s="54" t="s">
         <v>9</v>
@@ -13675,10 +13675,10 @@
         <v>Livro</v>
       </c>
       <c r="P133" s="34" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="Q133" s="34" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="R133" s="58" t="s">
         <v>89</v>
@@ -13704,7 +13704,7 @@
         <v>Key_DocPub_133</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="46">
         <v>134</v>
       </c>
@@ -13715,13 +13715,13 @@
         <v>84</v>
       </c>
       <c r="D134" s="49" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E134" s="48" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F134" s="51" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G134" s="54" t="s">
         <v>9</v>
@@ -13755,10 +13755,10 @@
         <v>Treinamento</v>
       </c>
       <c r="P134" s="34" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="Q134" s="34" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="R134" s="58" t="s">
         <v>89</v>
@@ -13784,7 +13784,7 @@
         <v>Key_DocPub_134</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="46">
         <v>135</v>
       </c>
@@ -13795,13 +13795,13 @@
         <v>84</v>
       </c>
       <c r="D135" s="49" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E135" s="48" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F135" s="51" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G135" s="54" t="s">
         <v>9</v>
@@ -13835,10 +13835,10 @@
         <v>Normativa</v>
       </c>
       <c r="P135" s="34" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="Q135" s="34" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="R135" s="58" t="s">
         <v>89</v>
@@ -13864,7 +13864,7 @@
         <v>Key_DocPub_135</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="46">
         <v>136</v>
       </c>
@@ -13875,13 +13875,13 @@
         <v>84</v>
       </c>
       <c r="D136" s="49" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E136" s="48" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F136" s="51" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="G136" s="54" t="s">
         <v>9</v>
@@ -13915,10 +13915,10 @@
         <v>Apresentação</v>
       </c>
       <c r="P136" s="34" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="Q136" s="34" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="R136" s="58" t="s">
         <v>89</v>
@@ -13944,7 +13944,7 @@
         <v>Key_DocPub_136</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="46">
         <v>137</v>
       </c>
@@ -13955,13 +13955,13 @@
         <v>84</v>
       </c>
       <c r="D137" s="49" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E137" s="48" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F137" s="51" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="G137" s="54" t="s">
         <v>9</v>
@@ -13995,10 +13995,10 @@
         <v>Fichário</v>
       </c>
       <c r="P137" s="34" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="Q137" s="34" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="R137" s="58" t="s">
         <v>89</v>
@@ -14024,7 +14024,7 @@
         <v>Key_DocPub_137</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="46">
         <v>138</v>
       </c>
@@ -14035,13 +14035,13 @@
         <v>84</v>
       </c>
       <c r="D138" s="49" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F138" s="51" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G138" s="54" t="s">
         <v>9</v>
@@ -14075,10 +14075,10 @@
         <v>Formulário</v>
       </c>
       <c r="P138" s="34" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="Q138" s="34" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="R138" s="58" t="s">
         <v>89</v>
@@ -14106,14 +14106,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14131,14 +14131,14 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="11" customWidth="1"/>
-    <col min="2" max="10" width="5.6640625" style="12"/>
-    <col min="11" max="16384" width="5.6640625" style="24"/>
+    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
+    <col min="2" max="10" width="5.7109375" style="12"/>
+    <col min="11" max="16384" width="5.7109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="22">
         <v>1</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="7.8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>2</v>
       </c>
@@ -14283,13 +14283,13 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="13"/>
+    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14399,39 +14399,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429087C4-377B-4931-BC50-C00BD9684F83}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="64.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="64.28515625" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
@@ -14502,12 +14502,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>350</v>
@@ -14546,13 +14546,13 @@
         <v>16</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R2" s="31" t="s">
         <v>9</v>
@@ -14573,12 +14573,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>3</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>340</v>
@@ -14617,13 +14617,13 @@
         <v>16</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="R3" s="31" t="s">
         <v>9</v>
@@ -14644,12 +14644,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>4</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>467</v>
@@ -14688,13 +14688,13 @@
         <v>16</v>
       </c>
       <c r="O4" s="30" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="R4" s="31" t="s">
         <v>9</v>
@@ -14715,21 +14715,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>349</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>9</v>
@@ -14759,19 +14759,19 @@
         <v>16</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>499</v>
+        <v>625</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="T5" s="31" t="s">
         <v>9</v>
@@ -14786,21 +14786,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>349</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>9</v>
@@ -14830,19 +14830,19 @@
         <v>16</v>
       </c>
       <c r="O6" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="P6" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="P6" s="31" t="s">
-        <v>506</v>
-      </c>
       <c r="Q6" s="21" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R6" s="31" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="T6" s="31" t="s">
         <v>9</v>
@@ -14857,21 +14857,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>349</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>9</v>
@@ -14901,19 +14901,19 @@
         <v>16</v>
       </c>
       <c r="O7" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q7" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="P7" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>507</v>
-      </c>
       <c r="R7" s="31" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="T7" s="31" t="s">
         <v>9</v>
@@ -14928,21 +14928,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>349</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>9</v>
@@ -14972,19 +14972,19 @@
         <v>16</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>502</v>
+        <v>628</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R8" s="31" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="T8" s="31" t="s">
         <v>9</v>
@@ -14999,7 +14999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -15010,10 +15010,10 @@
         <v>349</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>9</v>
@@ -15043,19 +15043,19 @@
         <v>16</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>503</v>
+        <v>629</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R9" s="31" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="T9" s="31" t="s">
         <v>9</v>
@@ -15070,7 +15070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -15081,10 +15081,10 @@
         <v>349</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>9</v>
@@ -15114,19 +15114,19 @@
         <v>16</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>504</v>
+        <v>630</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R10" s="31" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="T10" s="31" t="s">
         <v>9</v>
@@ -15141,21 +15141,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>11</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>9</v>
@@ -15185,20 +15185,20 @@
         <v>16</v>
       </c>
       <c r="O11" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="S11" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="P11" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>519</v>
-      </c>
       <c r="T11" s="31" t="s">
         <v>9</v>
       </c>
@@ -15212,21 +15212,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>12</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>330</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>9</v>
@@ -15256,20 +15256,20 @@
         <v>16</v>
       </c>
       <c r="O12" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="S12" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="P12" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="S12" s="21" t="s">
-        <v>520</v>
-      </c>
       <c r="T12" s="31" t="s">
         <v>9</v>
       </c>
@@ -15283,21 +15283,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>13</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>330</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>9</v>
@@ -15327,20 +15327,20 @@
         <v>16</v>
       </c>
       <c r="O13" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="S13" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="P13" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q13" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="R13" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="S13" s="21" t="s">
-        <v>521</v>
-      </c>
       <c r="T13" s="31" t="s">
         <v>9</v>
       </c>
@@ -15354,21 +15354,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>14</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>330</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>9</v>
@@ -15398,20 +15398,20 @@
         <v>16</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q14" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="R14" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="S14" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="R14" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="S14" s="21" t="s">
-        <v>522</v>
-      </c>
       <c r="T14" s="31" t="s">
         <v>9</v>
       </c>
@@ -15425,21 +15425,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>15</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>451</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>9</v>
@@ -15469,19 +15469,19 @@
         <v>16</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="R15" s="31" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="T15" s="31" t="s">
         <v>9</v>
@@ -15496,21 +15496,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>16</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>451</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>9</v>
@@ -15540,19 +15540,19 @@
         <v>16</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="R16" s="31" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="T16" s="31" t="s">
         <v>9</v>
@@ -15567,21 +15567,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>17</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>451</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>9</v>
@@ -15611,19 +15611,19 @@
         <v>16</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="R17" s="31" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="T17" s="31" t="s">
         <v>9</v>
@@ -15638,21 +15638,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>18</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>451</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>9</v>
@@ -15682,19 +15682,19 @@
         <v>16</v>
       </c>
       <c r="O18" s="30" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="R18" s="31" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="T18" s="31" t="s">
         <v>9</v>
@@ -15709,21 +15709,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>19</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>451</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>9</v>
@@ -15753,19 +15753,19 @@
         <v>16</v>
       </c>
       <c r="O19" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="P19" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="R19" s="31" t="s">
         <v>541</v>
       </c>
-      <c r="P19" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="R19" s="31" t="s">
-        <v>547</v>
-      </c>
       <c r="S19" s="21" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="T19" s="31" t="s">
         <v>9</v>
@@ -15780,21 +15780,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>20</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>451</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>9</v>
@@ -15824,19 +15824,19 @@
         <v>16</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="R20" s="31" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="T20" s="31" t="s">
         <v>9</v>
@@ -15851,15 +15851,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>21</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>9</v>
@@ -15895,7 +15895,7 @@
         <v>16</v>
       </c>
       <c r="O21" s="42" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>9</v>
@@ -15922,15 +15922,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>22</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>9</v>
@@ -15966,7 +15966,7 @@
         <v>16</v>
       </c>
       <c r="O22" s="42" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="P22" s="31" t="s">
         <v>9</v>
@@ -15993,15 +15993,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>23</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>9</v>
@@ -16037,7 +16037,7 @@
         <v>16</v>
       </c>
       <c r="O23" s="42" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>9</v>
@@ -16064,15 +16064,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>24</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>9</v>
@@ -16108,7 +16108,7 @@
         <v>16</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="P24" s="31" t="s">
         <v>9</v>
@@ -16135,15 +16135,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>25</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>9</v>
@@ -16179,7 +16179,7 @@
         <v>16</v>
       </c>
       <c r="O25" s="42" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="P25" s="31" t="s">
         <v>9</v>
@@ -16206,15 +16206,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>26</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>9</v>
@@ -16250,7 +16250,7 @@
         <v>16</v>
       </c>
       <c r="O26" s="42" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="P26" s="31" t="s">
         <v>9</v>
@@ -16277,15 +16277,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>27</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>9</v>
@@ -16321,7 +16321,7 @@
         <v>16</v>
       </c>
       <c r="O27" s="42" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="P27" s="31" t="s">
         <v>9</v>
@@ -16348,15 +16348,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>28</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>9</v>
@@ -16392,7 +16392,7 @@
         <v>16</v>
       </c>
       <c r="O28" s="42" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="P28" s="31" t="s">
         <v>9</v>
@@ -16419,15 +16419,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>29</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>9</v>
@@ -16463,7 +16463,7 @@
         <v>16</v>
       </c>
       <c r="O29" s="42" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>9</v>
@@ -16490,15 +16490,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>30</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>9</v>
@@ -16534,7 +16534,7 @@
         <v>16</v>
       </c>
       <c r="O30" s="42" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="P30" s="31" t="s">
         <v>9</v>
@@ -16561,15 +16561,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>31</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>9</v>
@@ -16605,7 +16605,7 @@
         <v>16</v>
       </c>
       <c r="O31" s="43" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="P31" s="31" t="s">
         <v>9</v>
@@ -16632,21 +16632,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>32</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>9</v>
@@ -16676,7 +16676,7 @@
         <v>16</v>
       </c>
       <c r="O32" s="42" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="P32" s="31" t="s">
         <v>9</v>
@@ -16703,15 +16703,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>33</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>9</v>
@@ -16747,7 +16747,7 @@
         <v>16</v>
       </c>
       <c r="O33" s="42" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="P33" s="31" t="s">
         <v>9</v>
@@ -16774,21 +16774,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>34</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>9</v>
@@ -16818,7 +16818,7 @@
         <v>16</v>
       </c>
       <c r="O34" s="42" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="P34" s="31" t="s">
         <v>9</v>
@@ -16848,10 +16848,10 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B10 B15:B34">
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB319045-C610-4CF8-A385-92B1B0F0D8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7EEDE2-601A-4F98-89F7-8499D45A78A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="633">
   <si>
     <t>Edição</t>
   </si>
@@ -1966,6 +1966,12 @@
   </si>
   <si>
     <t>"Prancha de tamanho A5"</t>
+  </si>
+  <si>
+    <t>CategoriaRvt</t>
+  </si>
+  <si>
+    <t>ClasseIfc</t>
   </si>
 </sst>
 </file>
@@ -2540,7 +2546,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2840,17 +2846,17 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="10.3828125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.69140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.15234375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2866,7 +2872,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2882,7 +2888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2891,7 +2897,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2916,7 +2922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2924,7 +2930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2964,7 +2970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -2988,16 +2994,16 @@
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45816.546908564815</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45922.454602777776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -3044,36 +3050,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE914A-3965-4A61-9195-D2681A91581F}">
-  <dimension ref="A1:W138"/>
+  <dimension ref="A1:Y138"/>
   <sheetViews>
-    <sheetView topLeftCell="O13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="W124" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:Y138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3046875" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.84375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.3046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.53515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3046875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.15234375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="39.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="45" t="s">
         <v>38</v>
       </c>
@@ -3143,8 +3149,14 @@
       <c r="W1" s="55" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X1" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="46">
         <v>2</v>
       </c>
@@ -3223,8 +3235,14 @@
         <f t="shared" ref="W2:W65" si="4">CONCATENATE("Key_",LEFT(C2,3),LEFT(D2,3),"_",A2)</f>
         <v>Key_DocCom_2</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="46">
         <v>3</v>
       </c>
@@ -3303,8 +3321,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocCom_3</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="46">
         <v>4</v>
       </c>
@@ -3383,8 +3407,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocCom_4</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="46">
         <v>5</v>
       </c>
@@ -3463,8 +3493,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocCom_5</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="46">
         <v>6</v>
       </c>
@@ -3543,8 +3579,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocCom_6</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="46">
         <v>7</v>
       </c>
@@ -3623,8 +3665,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_7</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="46">
         <v>8</v>
       </c>
@@ -3703,8 +3751,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_8</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="46">
         <v>9</v>
       </c>
@@ -3783,8 +3837,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_9</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="46">
         <v>10</v>
       </c>
@@ -3863,8 +3923,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_10</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="46">
         <v>11</v>
       </c>
@@ -3943,8 +4009,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_11</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="46">
         <v>12</v>
       </c>
@@ -4023,8 +4095,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_12</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="46">
         <v>13</v>
       </c>
@@ -4103,8 +4181,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_13</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="46">
         <v>14</v>
       </c>
@@ -4183,8 +4267,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_14</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="46">
         <v>15</v>
       </c>
@@ -4263,8 +4353,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_15</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="46">
         <v>16</v>
       </c>
@@ -4343,8 +4439,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_16</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="46">
         <v>17</v>
       </c>
@@ -4423,8 +4525,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_17</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="46">
         <v>18</v>
       </c>
@@ -4503,8 +4611,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_18</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="46">
         <v>19</v>
       </c>
@@ -4583,8 +4697,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_19</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="46">
         <v>20</v>
       </c>
@@ -4663,8 +4783,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_20</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y20" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="46">
         <v>21</v>
       </c>
@@ -4743,8 +4869,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_21</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="46">
         <v>22</v>
       </c>
@@ -4823,8 +4955,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_22</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="46">
         <v>23</v>
       </c>
@@ -4903,8 +5041,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_23</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="46">
         <v>24</v>
       </c>
@@ -4983,8 +5127,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_24</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y24" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="46">
         <v>25</v>
       </c>
@@ -5063,8 +5213,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_25</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y25" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="46">
         <v>26</v>
       </c>
@@ -5143,8 +5299,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_26</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="46">
         <v>27</v>
       </c>
@@ -5223,8 +5385,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_27</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="46">
         <v>28</v>
       </c>
@@ -5303,8 +5471,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_28</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y28" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="46">
         <v>29</v>
       </c>
@@ -5383,8 +5557,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_29</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y29" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="46">
         <v>30</v>
       </c>
@@ -5463,8 +5643,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_30</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y30" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="46">
         <v>31</v>
       </c>
@@ -5543,8 +5729,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDet_31</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y31" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="46">
         <v>32</v>
       </c>
@@ -5623,8 +5815,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDim_32</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="46">
         <v>33</v>
       </c>
@@ -5703,8 +5901,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDim_33</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y33" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="46">
         <v>34</v>
       </c>
@@ -5783,8 +5987,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocDim_34</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y34" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="46">
         <v>35</v>
       </c>
@@ -5863,8 +6073,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_35</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="46">
         <v>36</v>
       </c>
@@ -5943,8 +6159,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_36</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y36" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="46">
         <v>37</v>
       </c>
@@ -6023,8 +6245,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_37</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X37" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y37" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="46">
         <v>38</v>
       </c>
@@ -6103,8 +6331,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_38</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y38" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="46">
         <v>39</v>
       </c>
@@ -6183,8 +6417,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_39</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X39" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y39" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="46">
         <v>40</v>
       </c>
@@ -6263,8 +6503,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_40</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X40" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y40" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="46">
         <v>41</v>
       </c>
@@ -6343,8 +6589,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_41</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X41" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y41" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="46">
         <v>42</v>
       </c>
@@ -6423,8 +6675,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_42</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X42" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y42" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="46">
         <v>43</v>
       </c>
@@ -6503,8 +6761,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_43</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X43" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y43" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="46">
         <v>44</v>
       </c>
@@ -6583,8 +6847,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_44</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X44" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y44" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="46">
         <v>45</v>
       </c>
@@ -6663,8 +6933,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_45</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X45" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y45" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="46">
         <v>46</v>
       </c>
@@ -6743,8 +7019,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_46</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X46" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y46" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="46">
         <v>47</v>
       </c>
@@ -6823,8 +7105,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_47</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X47" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y47" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="46">
         <v>48</v>
       </c>
@@ -6903,8 +7191,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_48</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X48" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y48" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="46">
         <v>49</v>
       </c>
@@ -6983,8 +7277,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_49</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X49" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y49" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="46">
         <v>50</v>
       </c>
@@ -7063,8 +7363,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_50</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X50" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y50" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="46">
         <v>51</v>
       </c>
@@ -7143,8 +7449,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_51</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X51" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y51" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="46">
         <v>52</v>
       </c>
@@ -7223,8 +7535,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_52</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X52" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y52" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="46">
         <v>53</v>
       </c>
@@ -7303,8 +7621,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_53</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X53" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y53" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="46">
         <v>54</v>
       </c>
@@ -7383,8 +7707,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_54</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X54" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y54" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="46">
         <v>55</v>
       </c>
@@ -7463,8 +7793,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_55</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X55" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y55" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="46">
         <v>56</v>
       </c>
@@ -7543,8 +7879,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_56</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X56" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y56" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="46">
         <v>57</v>
       </c>
@@ -7623,8 +7965,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_57</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X57" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y57" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="46">
         <v>58</v>
       </c>
@@ -7703,8 +8051,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_58</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X58" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y58" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="46">
         <v>59</v>
       </c>
@@ -7783,8 +8137,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_59</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X59" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y59" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="46">
         <v>60</v>
       </c>
@@ -7863,8 +8223,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocEst_60</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X60" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y60" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="46">
         <v>61</v>
       </c>
@@ -7943,8 +8309,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocLeg_61</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X61" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y61" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="46">
         <v>62</v>
       </c>
@@ -8023,8 +8395,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocLeg_62</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X62" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y62" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="46">
         <v>63</v>
       </c>
@@ -8103,8 +8481,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocLeg_63</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X63" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y63" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="46">
         <v>64</v>
       </c>
@@ -8183,8 +8567,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocLeg_64</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X64" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y64" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="46">
         <v>65</v>
       </c>
@@ -8263,8 +8653,14 @@
         <f t="shared" si="4"/>
         <v>Key_DocLeg_65</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X65" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y65" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="46">
         <v>66</v>
       </c>
@@ -8343,8 +8739,14 @@
         <f t="shared" ref="W66:W129" si="9">CONCATENATE("Key_",LEFT(C66,3),LEFT(D66,3),"_",A66)</f>
         <v>Key_DocLeg_66</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X66" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y66" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="46">
         <v>67</v>
       </c>
@@ -8423,8 +8825,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocLeg_67</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X67" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y67" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="46">
         <v>68</v>
       </c>
@@ -8503,8 +8911,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocLeg_68</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X68" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y68" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="46">
         <v>69</v>
       </c>
@@ -8583,8 +8997,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocLeg_69</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X69" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y69" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="46">
         <v>70</v>
       </c>
@@ -8663,8 +9083,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocLeg_70</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X70" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y70" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="46">
         <v>71</v>
       </c>
@@ -8743,8 +9169,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocMod_71</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X71" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y71" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="46">
         <v>72</v>
       </c>
@@ -8823,8 +9255,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocMod_72</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X72" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y72" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="46">
         <v>73</v>
       </c>
@@ -8903,8 +9341,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocMod_73</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X73" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y73" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="46">
         <v>74</v>
       </c>
@@ -8983,8 +9427,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocMod_74</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X74" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y74" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="46">
         <v>75</v>
       </c>
@@ -9063,8 +9513,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocMod_75</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X75" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y75" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="46">
         <v>76</v>
       </c>
@@ -9143,8 +9599,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocMod_76</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X76" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y76" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="46">
         <v>77</v>
       </c>
@@ -9223,8 +9685,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocMod_77</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X77" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y77" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="46">
         <v>78</v>
       </c>
@@ -9303,8 +9771,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocMod_78</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X78" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y78" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="46">
         <v>79</v>
       </c>
@@ -9383,8 +9857,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocMod_79</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X79" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y79" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="46">
         <v>80</v>
       </c>
@@ -9463,8 +9943,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocMod_80</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X80" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y80" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="46">
         <v>81</v>
       </c>
@@ -9543,8 +10029,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocMod_81</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X81" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y81" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="46">
         <v>82</v>
       </c>
@@ -9623,8 +10115,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocPra_82</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X82" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y82" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="46">
         <v>83</v>
       </c>
@@ -9703,8 +10201,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocPra_83</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X83" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y83" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="46">
         <v>84</v>
       </c>
@@ -9783,8 +10287,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocPra_84</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X84" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y84" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="46">
         <v>85</v>
       </c>
@@ -9863,8 +10373,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocPra_85</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X85" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y85" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="46">
         <v>86</v>
       </c>
@@ -9943,8 +10459,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocPra_86</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X86" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y86" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="46">
         <v>87</v>
       </c>
@@ -10023,8 +10545,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocPra_87</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X87" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y87" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="46">
         <v>88</v>
       </c>
@@ -10103,8 +10631,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocPra_88</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X88" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y88" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="46">
         <v>89</v>
       </c>
@@ -10183,8 +10717,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocPre_89</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X89" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y89" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="46">
         <v>90</v>
       </c>
@@ -10263,8 +10803,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocPre_90</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X90" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y90" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="46">
         <v>91</v>
       </c>
@@ -10343,8 +10889,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocPre_91</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X91" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y91" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="46">
         <v>92</v>
       </c>
@@ -10423,8 +10975,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocPre_92</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X92" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y92" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="46">
         <v>93</v>
       </c>
@@ -10503,8 +11061,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocRel_93</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X93" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y93" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="46">
         <v>94</v>
       </c>
@@ -10583,8 +11147,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocRel_94</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X94" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y94" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="46">
         <v>95</v>
       </c>
@@ -10663,8 +11233,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocRel_95</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X95" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y95" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="46">
         <v>96</v>
       </c>
@@ -10743,8 +11319,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocRel_96</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X96" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y96" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="46">
         <v>97</v>
       </c>
@@ -10823,8 +11405,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocRel_97</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X97" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y97" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="46">
         <v>98</v>
       </c>
@@ -10903,8 +11491,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocRel_98</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X98" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y98" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="46">
         <v>99</v>
       </c>
@@ -10983,8 +11577,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocRel_99</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X99" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y99" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="46">
         <v>100</v>
       </c>
@@ -11063,8 +11663,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTab_100</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X100" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y100" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="46">
         <v>101</v>
       </c>
@@ -11143,8 +11749,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTab_101</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X101" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y101" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="46">
         <v>102</v>
       </c>
@@ -11223,8 +11835,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTab_102</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X102" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y102" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="46">
         <v>103</v>
       </c>
@@ -11303,8 +11921,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTab_103</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X103" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y103" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="46">
         <v>104</v>
       </c>
@@ -11383,8 +12007,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTab_104</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X104" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y104" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="46">
         <v>105</v>
       </c>
@@ -11463,8 +12093,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_105</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X105" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y105" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="46">
         <v>106</v>
       </c>
@@ -11543,8 +12179,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_106</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X106" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y106" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="46">
         <v>107</v>
       </c>
@@ -11623,8 +12265,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_107</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X107" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y107" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="46">
         <v>108</v>
       </c>
@@ -11703,8 +12351,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_108</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X108" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y108" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="46">
         <v>109</v>
       </c>
@@ -11783,8 +12437,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_109</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X109" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y109" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="46">
         <v>110</v>
       </c>
@@ -11863,8 +12523,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_110</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X110" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y110" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="46">
         <v>111</v>
       </c>
@@ -11943,8 +12609,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_111</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X111" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y111" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="46">
         <v>112</v>
       </c>
@@ -12023,8 +12695,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_112</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X112" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y112" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="46">
         <v>113</v>
       </c>
@@ -12103,8 +12781,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_113</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X113" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y113" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="46">
         <v>114</v>
       </c>
@@ -12183,8 +12867,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_114</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X114" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y114" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="46">
         <v>115</v>
       </c>
@@ -12263,8 +12953,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_115</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X115" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y115" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="46">
         <v>116</v>
       </c>
@@ -12343,8 +13039,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_116</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X116" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y116" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="46">
         <v>117</v>
       </c>
@@ -12423,8 +13125,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_117</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X117" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y117" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="46">
         <v>118</v>
       </c>
@@ -12503,8 +13211,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_118</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X118" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y118" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="46">
         <v>119</v>
       </c>
@@ -12583,8 +13297,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_119</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X119" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y119" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="46">
         <v>120</v>
       </c>
@@ -12663,8 +13383,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_120</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X120" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y120" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="46">
         <v>121</v>
       </c>
@@ -12743,8 +13469,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_121</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X121" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y121" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="46">
         <v>122</v>
       </c>
@@ -12823,8 +13555,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_122</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X122" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y122" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="46">
         <v>123</v>
       </c>
@@ -12903,8 +13641,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_123</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X123" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y123" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="46">
         <v>124</v>
       </c>
@@ -12983,8 +13727,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocTex_124</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X124" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y124" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="46">
         <v>125</v>
       </c>
@@ -13063,8 +13813,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocLeg_125</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X125" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y125" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="46">
         <v>126</v>
       </c>
@@ -13143,8 +13899,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocLeg_126</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X126" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y126" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="46">
         <v>127</v>
       </c>
@@ -13223,8 +13985,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocLeg_127</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X127" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y127" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="46">
         <v>128</v>
       </c>
@@ -13303,8 +14071,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocLeg_128</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X128" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y128" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="46">
         <v>129</v>
       </c>
@@ -13383,8 +14157,14 @@
         <f t="shared" si="9"/>
         <v>Key_DocLeg_129</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X129" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y129" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="46">
         <v>130</v>
       </c>
@@ -13463,8 +14243,14 @@
         <f t="shared" ref="W130:W138" si="14">CONCATENATE("Key_",LEFT(C130,3),LEFT(D130,3),"_",A130)</f>
         <v>Key_DocLeg_130</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X130" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y130" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="46">
         <v>131</v>
       </c>
@@ -13543,8 +14329,14 @@
         <f t="shared" si="14"/>
         <v>Key_DocPub_131</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X131" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y131" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="46">
         <v>132</v>
       </c>
@@ -13623,8 +14415,14 @@
         <f t="shared" si="14"/>
         <v>Key_DocPub_132</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X132" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y132" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="46">
         <v>133</v>
       </c>
@@ -13703,8 +14501,14 @@
         <f t="shared" si="14"/>
         <v>Key_DocPub_133</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X133" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y133" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="46">
         <v>134</v>
       </c>
@@ -13783,8 +14587,14 @@
         <f t="shared" si="14"/>
         <v>Key_DocPub_134</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X134" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y134" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="46">
         <v>135</v>
       </c>
@@ -13863,8 +14673,14 @@
         <f t="shared" si="14"/>
         <v>Key_DocPub_135</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X135" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y135" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="46">
         <v>136</v>
       </c>
@@ -13943,8 +14759,14 @@
         <f t="shared" si="14"/>
         <v>Key_DocPub_136</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X136" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y136" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="46">
         <v>137</v>
       </c>
@@ -14023,8 +14845,14 @@
         <f t="shared" si="14"/>
         <v>Key_DocPub_137</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X137" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y137" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="46">
         <v>138</v>
       </c>
@@ -14102,6 +14930,12 @@
       <c r="W138" s="56" t="str">
         <f t="shared" si="14"/>
         <v>Key_DocPub_138</v>
+      </c>
+      <c r="X138" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y138" s="35" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -14131,14 +14965,14 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.69140625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
-    <col min="2" max="10" width="5.7109375" style="12"/>
-    <col min="11" max="16384" width="5.7109375" style="24"/>
+    <col min="1" max="1" width="2.69140625" style="11" customWidth="1"/>
+    <col min="2" max="10" width="5.69140625" style="12"/>
+    <col min="11" max="16384" width="5.69140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
       <c r="A1" s="22">
         <v>1</v>
       </c>
@@ -14203,7 +15037,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>2</v>
       </c>
@@ -14283,16 +15117,16 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="13"/>
+    <col min="2" max="2" width="11.3046875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.15234375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -14306,7 +15140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -14320,7 +15154,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>3</v>
       </c>
@@ -14334,7 +15168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>4</v>
       </c>
@@ -14348,7 +15182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>5</v>
       </c>
@@ -14362,7 +15196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>6</v>
       </c>
@@ -14376,7 +15210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>7</v>
       </c>
@@ -14399,39 +15233,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429087C4-377B-4931-BC50-C00BD9684F83}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3046875" customWidth="1"/>
+    <col min="6" max="6" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.84375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="64.28515625" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="64.3046875" customWidth="1"/>
+    <col min="16" max="16" width="8.3828125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
@@ -14502,7 +15336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -14573,7 +15407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -14644,7 +15478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -14715,7 +15549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -14786,7 +15620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -14857,7 +15691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -14928,7 +15762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -14999,7 +15833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -15070,7 +15904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -15141,7 +15975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -15212,7 +16046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -15283,7 +16117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -15354,7 +16188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -15425,7 +16259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -15496,7 +16330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -15567,7 +16401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -15638,7 +16472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -15709,7 +16543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -15780,7 +16614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -15851,7 +16685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -15922,7 +16756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -15993,7 +16827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -16064,7 +16898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -16135,7 +16969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -16206,7 +17040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -16277,7 +17111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -16348,7 +17182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -16419,7 +17253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -16490,7 +17324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -16561,7 +17395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -16632,7 +17466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -16703,7 +17537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16">
         <v>33</v>
       </c>
@@ -16774,7 +17608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16">
         <v>34</v>
       </c>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7EEDE2-601A-4F98-89F7-8499D45A78A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C45C12-7802-4BC6-853A-583CB1FF4182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="634">
   <si>
     <t>Edição</t>
   </si>
@@ -1972,6 +1972,9 @@
   </si>
   <si>
     <t>ClasseIfc</t>
+  </si>
+  <si>
+    <t>ABNT</t>
   </si>
 </sst>
 </file>
@@ -2849,14 +2852,14 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.3828125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.69140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="13"/>
+    <col min="1" max="1" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2978,7 +2981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -2994,16 +2997,16 @@
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45922.454602777776</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45958.469340740739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -3011,7 +3014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3027,7 +3030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -3050,36 +3053,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE914A-3965-4A61-9195-D2681A91581F}">
-  <dimension ref="A1:Y138"/>
+  <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W124" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:Y138"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.15234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.84375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.3046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.53515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>38</v>
       </c>
@@ -3155,8 +3159,11 @@
       <c r="Y1" s="26" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z1" s="26" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46">
         <v>2</v>
       </c>
@@ -3241,8 +3248,11 @@
       <c r="Y2" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z2" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46">
         <v>3</v>
       </c>
@@ -3327,8 +3337,11 @@
       <c r="Y3" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z3" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46">
         <v>4</v>
       </c>
@@ -3413,8 +3426,11 @@
       <c r="Y4" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z4" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46">
         <v>5</v>
       </c>
@@ -3499,8 +3515,11 @@
       <c r="Y5" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z5" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46">
         <v>6</v>
       </c>
@@ -3585,8 +3604,11 @@
       <c r="Y6" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z6" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <v>7</v>
       </c>
@@ -3671,8 +3693,11 @@
       <c r="Y7" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z7" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46">
         <v>8</v>
       </c>
@@ -3757,8 +3782,11 @@
       <c r="Y8" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z8" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46">
         <v>9</v>
       </c>
@@ -3843,8 +3871,11 @@
       <c r="Y9" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z9" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <v>10</v>
       </c>
@@ -3929,8 +3960,11 @@
       <c r="Y10" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z10" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <v>11</v>
       </c>
@@ -4015,8 +4049,11 @@
       <c r="Y11" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z11" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>12</v>
       </c>
@@ -4101,8 +4138,11 @@
       <c r="Y12" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z12" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <v>13</v>
       </c>
@@ -4187,8 +4227,11 @@
       <c r="Y13" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z13" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46">
         <v>14</v>
       </c>
@@ -4273,8 +4316,11 @@
       <c r="Y14" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z14" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>15</v>
       </c>
@@ -4359,8 +4405,11 @@
       <c r="Y15" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z15" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>16</v>
       </c>
@@ -4445,8 +4494,11 @@
       <c r="Y16" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z16" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>17</v>
       </c>
@@ -4531,8 +4583,11 @@
       <c r="Y17" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z17" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46">
         <v>18</v>
       </c>
@@ -4617,8 +4672,11 @@
       <c r="Y18" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z18" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46">
         <v>19</v>
       </c>
@@ -4703,8 +4761,11 @@
       <c r="Y19" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z19" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46">
         <v>20</v>
       </c>
@@ -4789,8 +4850,11 @@
       <c r="Y20" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z20" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46">
         <v>21</v>
       </c>
@@ -4875,8 +4939,11 @@
       <c r="Y21" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z21" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46">
         <v>22</v>
       </c>
@@ -4961,8 +5028,11 @@
       <c r="Y22" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z22" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46">
         <v>23</v>
       </c>
@@ -5047,8 +5117,11 @@
       <c r="Y23" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z23" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46">
         <v>24</v>
       </c>
@@ -5133,8 +5206,11 @@
       <c r="Y24" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z24" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46">
         <v>25</v>
       </c>
@@ -5219,8 +5295,11 @@
       <c r="Y25" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z25" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46">
         <v>26</v>
       </c>
@@ -5305,8 +5384,11 @@
       <c r="Y26" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z26" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46">
         <v>27</v>
       </c>
@@ -5391,8 +5473,11 @@
       <c r="Y27" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z27" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46">
         <v>28</v>
       </c>
@@ -5477,8 +5562,11 @@
       <c r="Y28" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z28" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="46">
         <v>29</v>
       </c>
@@ -5563,8 +5651,11 @@
       <c r="Y29" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z29" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46">
         <v>30</v>
       </c>
@@ -5649,8 +5740,11 @@
       <c r="Y30" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z30" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46">
         <v>31</v>
       </c>
@@ -5735,8 +5829,11 @@
       <c r="Y31" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z31" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="46">
         <v>32</v>
       </c>
@@ -5821,8 +5918,11 @@
       <c r="Y32" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z32" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="46">
         <v>33</v>
       </c>
@@ -5907,8 +6007,11 @@
       <c r="Y33" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z33" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="46">
         <v>34</v>
       </c>
@@ -5993,8 +6096,11 @@
       <c r="Y34" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z34" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="46">
         <v>35</v>
       </c>
@@ -6079,8 +6185,11 @@
       <c r="Y35" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z35" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="46">
         <v>36</v>
       </c>
@@ -6165,8 +6274,11 @@
       <c r="Y36" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z36" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="46">
         <v>37</v>
       </c>
@@ -6251,8 +6363,11 @@
       <c r="Y37" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z37" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="46">
         <v>38</v>
       </c>
@@ -6337,8 +6452,11 @@
       <c r="Y38" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z38" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="46">
         <v>39</v>
       </c>
@@ -6423,8 +6541,11 @@
       <c r="Y39" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z39" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="46">
         <v>40</v>
       </c>
@@ -6509,8 +6630,11 @@
       <c r="Y40" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z40" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="46">
         <v>41</v>
       </c>
@@ -6595,8 +6719,11 @@
       <c r="Y41" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z41" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46">
         <v>42</v>
       </c>
@@ -6681,8 +6808,11 @@
       <c r="Y42" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z42" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="46">
         <v>43</v>
       </c>
@@ -6767,8 +6897,11 @@
       <c r="Y43" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z43" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46">
         <v>44</v>
       </c>
@@ -6853,8 +6986,11 @@
       <c r="Y44" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z44" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="46">
         <v>45</v>
       </c>
@@ -6939,8 +7075,11 @@
       <c r="Y45" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z45" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="46">
         <v>46</v>
       </c>
@@ -7025,8 +7164,11 @@
       <c r="Y46" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z46" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="46">
         <v>47</v>
       </c>
@@ -7111,8 +7253,11 @@
       <c r="Y47" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z47" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="46">
         <v>48</v>
       </c>
@@ -7197,8 +7342,11 @@
       <c r="Y48" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z48" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="46">
         <v>49</v>
       </c>
@@ -7283,8 +7431,11 @@
       <c r="Y49" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z49" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="46">
         <v>50</v>
       </c>
@@ -7369,8 +7520,11 @@
       <c r="Y50" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z50" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="46">
         <v>51</v>
       </c>
@@ -7455,8 +7609,11 @@
       <c r="Y51" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z51" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="46">
         <v>52</v>
       </c>
@@ -7541,8 +7698,11 @@
       <c r="Y52" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z52" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="46">
         <v>53</v>
       </c>
@@ -7627,8 +7787,11 @@
       <c r="Y53" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z53" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="46">
         <v>54</v>
       </c>
@@ -7713,8 +7876,11 @@
       <c r="Y54" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z54" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="46">
         <v>55</v>
       </c>
@@ -7799,8 +7965,11 @@
       <c r="Y55" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z55" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="46">
         <v>56</v>
       </c>
@@ -7885,8 +8054,11 @@
       <c r="Y56" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z56" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="46">
         <v>57</v>
       </c>
@@ -7971,8 +8143,11 @@
       <c r="Y57" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z57" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="46">
         <v>58</v>
       </c>
@@ -8057,8 +8232,11 @@
       <c r="Y58" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z58" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="46">
         <v>59</v>
       </c>
@@ -8143,8 +8321,11 @@
       <c r="Y59" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z59" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="46">
         <v>60</v>
       </c>
@@ -8229,8 +8410,11 @@
       <c r="Y60" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z60" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46">
         <v>61</v>
       </c>
@@ -8315,8 +8499,11 @@
       <c r="Y61" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z61" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="46">
         <v>62</v>
       </c>
@@ -8401,8 +8588,11 @@
       <c r="Y62" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z62" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="46">
         <v>63</v>
       </c>
@@ -8487,8 +8677,11 @@
       <c r="Y63" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z63" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="46">
         <v>64</v>
       </c>
@@ -8573,8 +8766,11 @@
       <c r="Y64" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z64" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="46">
         <v>65</v>
       </c>
@@ -8659,8 +8855,11 @@
       <c r="Y65" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z65" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46">
         <v>66</v>
       </c>
@@ -8745,8 +8944,11 @@
       <c r="Y66" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z66" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="46">
         <v>67</v>
       </c>
@@ -8831,8 +9033,11 @@
       <c r="Y67" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z67" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="46">
         <v>68</v>
       </c>
@@ -8917,8 +9122,11 @@
       <c r="Y68" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z68" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="46">
         <v>69</v>
       </c>
@@ -9003,8 +9211,11 @@
       <c r="Y69" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z69" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="46">
         <v>70</v>
       </c>
@@ -9089,8 +9300,11 @@
       <c r="Y70" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z70" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="46">
         <v>71</v>
       </c>
@@ -9175,8 +9389,11 @@
       <c r="Y71" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z71" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="46">
         <v>72</v>
       </c>
@@ -9261,8 +9478,11 @@
       <c r="Y72" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z72" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="46">
         <v>73</v>
       </c>
@@ -9347,8 +9567,11 @@
       <c r="Y73" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z73" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="46">
         <v>74</v>
       </c>
@@ -9433,8 +9656,11 @@
       <c r="Y74" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z74" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="46">
         <v>75</v>
       </c>
@@ -9519,8 +9745,11 @@
       <c r="Y75" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z75" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="46">
         <v>76</v>
       </c>
@@ -9605,8 +9834,11 @@
       <c r="Y76" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z76" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="46">
         <v>77</v>
       </c>
@@ -9691,8 +9923,11 @@
       <c r="Y77" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z77" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="46">
         <v>78</v>
       </c>
@@ -9777,8 +10012,11 @@
       <c r="Y78" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z78" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="46">
         <v>79</v>
       </c>
@@ -9863,8 +10101,11 @@
       <c r="Y79" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z79" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="46">
         <v>80</v>
       </c>
@@ -9949,8 +10190,11 @@
       <c r="Y80" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z80" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="46">
         <v>81</v>
       </c>
@@ -10035,8 +10279,11 @@
       <c r="Y81" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z81" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="46">
         <v>82</v>
       </c>
@@ -10121,8 +10368,11 @@
       <c r="Y82" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z82" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="46">
         <v>83</v>
       </c>
@@ -10207,8 +10457,11 @@
       <c r="Y83" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z83" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="46">
         <v>84</v>
       </c>
@@ -10293,8 +10546,11 @@
       <c r="Y84" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z84" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="46">
         <v>85</v>
       </c>
@@ -10379,8 +10635,11 @@
       <c r="Y85" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z85" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="46">
         <v>86</v>
       </c>
@@ -10465,8 +10724,11 @@
       <c r="Y86" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z86" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="46">
         <v>87</v>
       </c>
@@ -10551,8 +10813,11 @@
       <c r="Y87" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z87" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="46">
         <v>88</v>
       </c>
@@ -10637,8 +10902,11 @@
       <c r="Y88" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z88" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="46">
         <v>89</v>
       </c>
@@ -10723,8 +10991,11 @@
       <c r="Y89" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z89" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="46">
         <v>90</v>
       </c>
@@ -10809,8 +11080,11 @@
       <c r="Y90" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z90" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="46">
         <v>91</v>
       </c>
@@ -10895,8 +11169,11 @@
       <c r="Y91" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z91" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="46">
         <v>92</v>
       </c>
@@ -10981,8 +11258,11 @@
       <c r="Y92" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z92" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="46">
         <v>93</v>
       </c>
@@ -11067,8 +11347,11 @@
       <c r="Y93" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z93" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="46">
         <v>94</v>
       </c>
@@ -11153,8 +11436,11 @@
       <c r="Y94" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z94" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="46">
         <v>95</v>
       </c>
@@ -11239,8 +11525,11 @@
       <c r="Y95" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z95" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="46">
         <v>96</v>
       </c>
@@ -11325,8 +11614,11 @@
       <c r="Y96" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z96" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="46">
         <v>97</v>
       </c>
@@ -11411,8 +11703,11 @@
       <c r="Y97" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z97" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="46">
         <v>98</v>
       </c>
@@ -11497,8 +11792,11 @@
       <c r="Y98" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z98" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="46">
         <v>99</v>
       </c>
@@ -11583,8 +11881,11 @@
       <c r="Y99" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z99" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="46">
         <v>100</v>
       </c>
@@ -11669,8 +11970,11 @@
       <c r="Y100" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z100" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="46">
         <v>101</v>
       </c>
@@ -11755,8 +12059,11 @@
       <c r="Y101" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z101" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="46">
         <v>102</v>
       </c>
@@ -11841,8 +12148,11 @@
       <c r="Y102" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z102" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="46">
         <v>103</v>
       </c>
@@ -11927,8 +12237,11 @@
       <c r="Y103" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z103" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="46">
         <v>104</v>
       </c>
@@ -12013,8 +12326,11 @@
       <c r="Y104" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z104" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="46">
         <v>105</v>
       </c>
@@ -12099,8 +12415,11 @@
       <c r="Y105" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z105" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="46">
         <v>106</v>
       </c>
@@ -12185,8 +12504,11 @@
       <c r="Y106" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z106" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="46">
         <v>107</v>
       </c>
@@ -12271,8 +12593,11 @@
       <c r="Y107" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z107" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="46">
         <v>108</v>
       </c>
@@ -12357,8 +12682,11 @@
       <c r="Y108" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z108" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="46">
         <v>109</v>
       </c>
@@ -12443,8 +12771,11 @@
       <c r="Y109" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z109" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="46">
         <v>110</v>
       </c>
@@ -12529,8 +12860,11 @@
       <c r="Y110" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z110" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="46">
         <v>111</v>
       </c>
@@ -12615,8 +12949,11 @@
       <c r="Y111" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z111" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="46">
         <v>112</v>
       </c>
@@ -12701,8 +13038,11 @@
       <c r="Y112" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z112" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="46">
         <v>113</v>
       </c>
@@ -12787,8 +13127,11 @@
       <c r="Y113" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z113" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="46">
         <v>114</v>
       </c>
@@ -12873,8 +13216,11 @@
       <c r="Y114" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z114" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="46">
         <v>115</v>
       </c>
@@ -12959,8 +13305,11 @@
       <c r="Y115" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z115" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="46">
         <v>116</v>
       </c>
@@ -13045,8 +13394,11 @@
       <c r="Y116" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z116" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="46">
         <v>117</v>
       </c>
@@ -13131,8 +13483,11 @@
       <c r="Y117" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z117" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="46">
         <v>118</v>
       </c>
@@ -13217,8 +13572,11 @@
       <c r="Y118" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z118" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="46">
         <v>119</v>
       </c>
@@ -13303,8 +13661,11 @@
       <c r="Y119" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z119" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="46">
         <v>120</v>
       </c>
@@ -13389,8 +13750,11 @@
       <c r="Y120" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z120" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="46">
         <v>121</v>
       </c>
@@ -13475,8 +13839,11 @@
       <c r="Y121" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z121" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="46">
         <v>122</v>
       </c>
@@ -13561,8 +13928,11 @@
       <c r="Y122" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z122" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="46">
         <v>123</v>
       </c>
@@ -13647,8 +14017,11 @@
       <c r="Y123" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z123" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="46">
         <v>124</v>
       </c>
@@ -13733,8 +14106,11 @@
       <c r="Y124" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z124" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="46">
         <v>125</v>
       </c>
@@ -13819,8 +14195,11 @@
       <c r="Y125" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z125" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="46">
         <v>126</v>
       </c>
@@ -13905,8 +14284,11 @@
       <c r="Y126" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z126" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="46">
         <v>127</v>
       </c>
@@ -13991,8 +14373,11 @@
       <c r="Y127" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z127" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="46">
         <v>128</v>
       </c>
@@ -14077,8 +14462,11 @@
       <c r="Y128" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z128" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="46">
         <v>129</v>
       </c>
@@ -14163,8 +14551,11 @@
       <c r="Y129" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z129" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="46">
         <v>130</v>
       </c>
@@ -14249,8 +14640,11 @@
       <c r="Y130" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z130" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="46">
         <v>131</v>
       </c>
@@ -14335,8 +14729,11 @@
       <c r="Y131" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z131" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="46">
         <v>132</v>
       </c>
@@ -14421,8 +14818,11 @@
       <c r="Y132" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z132" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="46">
         <v>133</v>
       </c>
@@ -14507,8 +14907,11 @@
       <c r="Y133" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z133" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="46">
         <v>134</v>
       </c>
@@ -14593,8 +14996,11 @@
       <c r="Y134" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z134" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="46">
         <v>135</v>
       </c>
@@ -14679,8 +15085,11 @@
       <c r="Y135" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z135" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="46">
         <v>136</v>
       </c>
@@ -14765,8 +15174,11 @@
       <c r="Y136" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z136" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="46">
         <v>137</v>
       </c>
@@ -14851,8 +15263,11 @@
       <c r="Y137" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z137" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="46">
         <v>138</v>
       </c>
@@ -14935,6 +15350,9 @@
         <v>9</v>
       </c>
       <c r="Y138" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z138" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14965,14 +15383,14 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.69140625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="11" customWidth="1"/>
-    <col min="2" max="10" width="5.69140625" style="12"/>
-    <col min="11" max="16384" width="5.69140625" style="24"/>
+    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
+    <col min="2" max="10" width="5.7109375" style="12"/>
+    <col min="11" max="16384" width="5.7109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="22">
         <v>1</v>
       </c>
@@ -15037,7 +15455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>2</v>
       </c>
@@ -15117,16 +15535,16 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.15234375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.15234375" style="13"/>
+    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -15140,7 +15558,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -15154,7 +15572,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>3</v>
       </c>
@@ -15168,7 +15586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>4</v>
       </c>
@@ -15182,7 +15600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>5</v>
       </c>
@@ -15196,7 +15614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>6</v>
       </c>
@@ -15210,7 +15628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>7</v>
       </c>
@@ -15238,34 +15656,34 @@
       <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3046875" customWidth="1"/>
-    <col min="6" max="6" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="64.3046875" customWidth="1"/>
-    <col min="16" max="16" width="8.3828125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="64.28515625" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
@@ -15336,7 +15754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -15407,7 +15825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -15478,7 +15896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -15549,7 +15967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -15620,7 +16038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -15691,7 +16109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -15762,7 +16180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -15833,7 +16251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -15904,7 +16322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -15975,7 +16393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -16046,7 +16464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -16117,7 +16535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -16188,7 +16606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -16259,7 +16677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -16330,7 +16748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -16401,7 +16819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -16472,7 +16890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -16543,7 +16961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -16614,7 +17032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -16685,7 +17103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -16756,7 +17174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -16827,7 +17245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -16898,7 +17316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -16969,7 +17387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -17040,7 +17458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -17111,7 +17529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -17182,7 +17600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -17253,7 +17671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -17324,7 +17742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -17395,7 +17813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -17466,7 +17884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -17537,7 +17955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>33</v>
       </c>
@@ -17608,7 +18026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>34</v>
       </c>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE632F56-BFDB-495F-86DD-3D440141AC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8C695-AB54-4CCB-9FB0-9A5D4F403AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="636">
   <si>
     <t>Edição</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>BIM</t>
-  </si>
-  <si>
-    <t>José Luis Menegotto</t>
   </si>
   <si>
     <t>Organização</t>
@@ -1978,13 +1975,19 @@
   </si>
   <si>
     <t>000 Translate Classe 5</t>
+  </si>
+  <si>
+    <t>Prof. José Luis Menegotto DEG/POLI/UFRJ</t>
+  </si>
+  <si>
+    <t>Explanation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2053,6 +2056,12 @@
       <sz val="5"/>
       <color rgb="FF000000"/>
       <name val="Arial Nova Cond Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Nova Cond"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2296,7 +2305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2480,19 +2489,14 @@
     <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2512,6 +2516,14 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2887,11 +2899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1124724F-B8C4-4B86-9028-743FC73CDDB0}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2914,7 +2926,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2922,7 +2934,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,28 +2968,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="63" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -3001,15 +3013,15 @@
     </row>
     <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -3017,7 +3029,7 @@
     </row>
     <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -3025,7 +3037,7 @@
     </row>
     <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -3036,21 +3048,21 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45989.692425925925</v>
+        <v>45992.39837141204</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -3058,7 +3070,7 @@
     </row>
     <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -3069,23 +3081,32 @@
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="63" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B24" s="6" t="str">
+        <f>_xlfn.TRANSLATE(B22,"pt","en")</f>
+        <v>Formalize documentation data</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +3118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE914A-3965-4A61-9195-D2681A91581F}">
   <dimension ref="A1:AA138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AA138"/>
     </sheetView>
@@ -3130,85 +3151,85 @@
   <sheetData>
     <row r="1" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="57" t="s">
+      <c r="T1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="U1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>40</v>
-      </c>
       <c r="W1" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X1" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y1" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AA1" s="61" t="s">
         <v>633</v>
-      </c>
-      <c r="AA1" s="61" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3216,19 +3237,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="E2" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="F2" s="51" t="s">
         <v>85</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>470</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>86</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>9</v>
@@ -3262,13 +3283,13 @@
         <v>Cat. Revit: OST_AnnotationCrop</v>
       </c>
       <c r="P2" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="R2" s="58" t="s">
         <v>88</v>
-      </c>
-      <c r="R2" s="58" t="s">
-        <v>89</v>
       </c>
       <c r="S2" s="35" t="str">
         <f t="shared" ref="S2:S33" si="4">SUBSTITUTE(C2, "_", " ")</f>
@@ -3291,10 +3312,10 @@
         <v>Key_DocCom_2</v>
       </c>
       <c r="X2" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y2" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z2" s="35" t="s">
         <v>9</v>
@@ -3309,19 +3330,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="49" t="s">
-        <v>85</v>
-      </c>
       <c r="E3" s="50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="54" t="s">
         <v>9</v>
@@ -3355,13 +3376,13 @@
         <v>Cat. Revit: OST_AnnotationCropSpecial</v>
       </c>
       <c r="P3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="Q3" s="35" t="s">
-        <v>92</v>
-      </c>
       <c r="R3" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S3" s="35" t="str">
         <f t="shared" si="4"/>
@@ -3384,10 +3405,10 @@
         <v>Key_DocCom_3</v>
       </c>
       <c r="X3" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y3" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z3" s="35" t="s">
         <v>9</v>
@@ -3402,19 +3423,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>85</v>
-      </c>
       <c r="E4" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>93</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>94</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>9</v>
@@ -3448,13 +3469,13 @@
         <v>Cat. Revit: OST_LayoutNodes</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R4" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S4" s="35" t="str">
         <f t="shared" si="4"/>
@@ -3477,10 +3498,10 @@
         <v>Key_DocCom_4</v>
       </c>
       <c r="X4" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y4" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z4" s="35" t="s">
         <v>9</v>
@@ -3495,19 +3516,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>85</v>
-      </c>
       <c r="E5" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>9</v>
@@ -3541,13 +3562,13 @@
         <v>Cat. Revit: OST_LayoutPath_Bases</v>
       </c>
       <c r="P5" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="Q5" s="35" t="s">
-        <v>98</v>
-      </c>
       <c r="R5" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S5" s="35" t="str">
         <f t="shared" si="4"/>
@@ -3570,10 +3591,10 @@
         <v>Key_DocCom_5</v>
       </c>
       <c r="X5" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y5" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z5" s="35" t="s">
         <v>9</v>
@@ -3588,19 +3609,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>85</v>
-      </c>
       <c r="E6" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="54" t="s">
         <v>9</v>
@@ -3634,13 +3655,13 @@
         <v>Cat. Revit: OST_LayoutPathBase_Pipings</v>
       </c>
       <c r="P6" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="Q6" s="35" t="s">
-        <v>101</v>
-      </c>
       <c r="R6" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S6" s="35" t="str">
         <f t="shared" si="4"/>
@@ -3663,10 +3684,10 @@
         <v>Key_DocCom_6</v>
       </c>
       <c r="X6" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y6" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z6" s="35" t="s">
         <v>9</v>
@@ -3681,19 +3702,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="F7" s="51" t="s">
         <v>102</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>103</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>9</v>
@@ -3727,13 +3748,13 @@
         <v>Cat. Revit: OST_Callouts</v>
       </c>
       <c r="P7" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="Q7" s="35" t="s">
-        <v>105</v>
-      </c>
       <c r="R7" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S7" s="35" t="str">
         <f t="shared" si="4"/>
@@ -3756,10 +3777,10 @@
         <v>Key_DocDet_7</v>
       </c>
       <c r="X7" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y7" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z7" s="35" t="s">
         <v>9</v>
@@ -3774,19 +3795,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>9</v>
@@ -3820,13 +3841,13 @@
         <v>Cat. Revit: OST_CalloutBoundary</v>
       </c>
       <c r="P8" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="Q8" s="35" t="s">
-        <v>108</v>
-      </c>
       <c r="R8" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S8" s="35" t="str">
         <f t="shared" si="4"/>
@@ -3849,10 +3870,10 @@
         <v>Key_DocDet_8</v>
       </c>
       <c r="X8" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y8" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z8" s="35" t="s">
         <v>9</v>
@@ -3867,19 +3888,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>9</v>
@@ -3913,13 +3934,13 @@
         <v>Cat. Revit: OST_CalloutHeads</v>
       </c>
       <c r="P9" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="35" t="s">
-        <v>111</v>
-      </c>
       <c r="R9" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S9" s="35" t="str">
         <f t="shared" si="4"/>
@@ -3942,10 +3963,10 @@
         <v>Key_DocDet_9</v>
       </c>
       <c r="X9" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y9" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z9" s="35" t="s">
         <v>9</v>
@@ -3960,19 +3981,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>9</v>
@@ -4006,13 +4027,13 @@
         <v>Cat. Revit: OST_CalloutLeaderLine</v>
       </c>
       <c r="P10" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q10" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="Q10" s="35" t="s">
-        <v>114</v>
-      </c>
       <c r="R10" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S10" s="35" t="str">
         <f t="shared" si="4"/>
@@ -4035,10 +4056,10 @@
         <v>Key_DocDet_10</v>
       </c>
       <c r="X10" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y10" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z10" s="35" t="s">
         <v>9</v>
@@ -4053,19 +4074,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>9</v>
@@ -4099,13 +4120,13 @@
         <v>Cat. Revit: OST_RevisionClouds</v>
       </c>
       <c r="P11" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Q11" s="35" t="s">
-        <v>117</v>
-      </c>
       <c r="R11" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S11" s="35" t="str">
         <f t="shared" si="4"/>
@@ -4128,10 +4149,10 @@
         <v>Key_DocDet_11</v>
       </c>
       <c r="X11" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y11" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z11" s="35" t="s">
         <v>9</v>
@@ -4146,19 +4167,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>9</v>
@@ -4192,13 +4213,13 @@
         <v>Cat. Revit: OST_RevisionCloudTags</v>
       </c>
       <c r="P12" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="Q12" s="35" t="s">
-        <v>120</v>
-      </c>
       <c r="R12" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S12" s="35" t="str">
         <f t="shared" si="4"/>
@@ -4221,10 +4242,10 @@
         <v>Key_DocDet_12</v>
       </c>
       <c r="X12" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y12" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z12" s="35" t="s">
         <v>9</v>
@@ -4239,19 +4260,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>9</v>
@@ -4285,13 +4306,13 @@
         <v>Cat. Revit: OST_SectionHeadMediumLines</v>
       </c>
       <c r="P13" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="Q13" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="R13" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S13" s="35" t="str">
         <f t="shared" si="4"/>
@@ -4314,10 +4335,10 @@
         <v>Key_DocDet_13</v>
       </c>
       <c r="X13" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y13" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z13" s="35" t="s">
         <v>9</v>
@@ -4332,19 +4353,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>9</v>
@@ -4378,13 +4399,13 @@
         <v>Cat. Revit: OST_SectionHeads</v>
       </c>
       <c r="P14" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="35" t="s">
-        <v>126</v>
-      </c>
       <c r="R14" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S14" s="35" t="str">
         <f t="shared" si="4"/>
@@ -4407,10 +4428,10 @@
         <v>Key_DocDet_14</v>
       </c>
       <c r="X14" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y14" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z14" s="35" t="s">
         <v>9</v>
@@ -4425,19 +4446,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>9</v>
@@ -4471,13 +4492,13 @@
         <v>Cat. Revit: OST_SectionHeadThinLines</v>
       </c>
       <c r="P15" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q15" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="Q15" s="35" t="s">
-        <v>129</v>
-      </c>
       <c r="R15" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S15" s="35" t="str">
         <f t="shared" si="4"/>
@@ -4500,10 +4521,10 @@
         <v>Key_DocDet_15</v>
       </c>
       <c r="X15" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y15" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z15" s="35" t="s">
         <v>9</v>
@@ -4518,19 +4539,19 @@
         <v>16</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" s="54" t="s">
         <v>9</v>
@@ -4564,13 +4585,13 @@
         <v>Cat. Revit: OST_SectionHeadWideLines</v>
       </c>
       <c r="P16" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Q16" s="35" t="s">
-        <v>132</v>
-      </c>
       <c r="R16" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S16" s="35" t="str">
         <f t="shared" si="4"/>
@@ -4593,10 +4614,10 @@
         <v>Key_DocDet_16</v>
       </c>
       <c r="X16" s="59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y16" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z16" s="35" t="s">
         <v>9</v>
@@ -4611,19 +4632,19 @@
         <v>17</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>9</v>
@@ -4657,13 +4678,13 @@
         <v>Cat. Revit: OST_SectionLine</v>
       </c>
       <c r="P17" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="Q17" s="35" t="s">
-        <v>135</v>
-      </c>
       <c r="R17" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S17" s="35" t="str">
         <f t="shared" si="4"/>
@@ -4686,10 +4707,10 @@
         <v>Key_DocDet_17</v>
       </c>
       <c r="X17" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y17" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z17" s="35" t="s">
         <v>9</v>
@@ -4704,19 +4725,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>9</v>
@@ -4750,13 +4771,13 @@
         <v>Cat. Revit: OST_BrokenSectionLine</v>
       </c>
       <c r="P18" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q18" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="Q18" s="35" t="s">
-        <v>138</v>
-      </c>
       <c r="R18" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S18" s="35" t="str">
         <f t="shared" si="4"/>
@@ -4779,10 +4800,10 @@
         <v>Key_DocDet_18</v>
       </c>
       <c r="X18" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y18" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z18" s="35" t="s">
         <v>9</v>
@@ -4797,19 +4818,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>9</v>
@@ -4843,13 +4864,13 @@
         <v>Cat. Revit: OST_Sections</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R19" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S19" s="35" t="str">
         <f t="shared" si="4"/>
@@ -4872,10 +4893,10 @@
         <v>Key_DocDet_19</v>
       </c>
       <c r="X19" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y19" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z19" s="35" t="s">
         <v>9</v>
@@ -4890,19 +4911,19 @@
         <v>20</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" s="54" t="s">
         <v>9</v>
@@ -4936,13 +4957,13 @@
         <v>Cat. Revit: OST_DecalElement</v>
       </c>
       <c r="P20" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="Q20" s="35" t="s">
-        <v>143</v>
-      </c>
       <c r="R20" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S20" s="35" t="str">
         <f t="shared" si="4"/>
@@ -4965,10 +4986,10 @@
         <v>Key_DocDet_20</v>
       </c>
       <c r="X20" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y20" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z20" s="35" t="s">
         <v>9</v>
@@ -4983,19 +5004,19 @@
         <v>21</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>9</v>
@@ -5029,13 +5050,13 @@
         <v>Cat. Revit: OST_DetailComponents</v>
       </c>
       <c r="P21" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q21" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="Q21" s="35" t="s">
-        <v>146</v>
-      </c>
       <c r="R21" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S21" s="35" t="str">
         <f t="shared" si="4"/>
@@ -5058,10 +5079,10 @@
         <v>Key_DocDet_21</v>
       </c>
       <c r="X21" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y21" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z21" s="35" t="s">
         <v>9</v>
@@ -5076,19 +5097,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>9</v>
@@ -5122,13 +5143,13 @@
         <v>Cat. Revit: OST_DetailComponentsHiddenLines</v>
       </c>
       <c r="P22" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="Q22" s="35" t="s">
-        <v>149</v>
-      </c>
       <c r="R22" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S22" s="35" t="str">
         <f t="shared" si="4"/>
@@ -5151,10 +5172,10 @@
         <v>Key_DocDet_22</v>
       </c>
       <c r="X22" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y22" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z22" s="35" t="s">
         <v>9</v>
@@ -5169,19 +5190,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>9</v>
@@ -5215,13 +5236,13 @@
         <v>Cat. Revit: OST_RepeatingDetailLines</v>
       </c>
       <c r="P23" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="Q23" s="47" t="s">
-        <v>152</v>
-      </c>
       <c r="R23" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S23" s="35" t="str">
         <f t="shared" si="4"/>
@@ -5244,10 +5265,10 @@
         <v>Key_DocDet_23</v>
       </c>
       <c r="X23" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y23" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z23" s="35" t="s">
         <v>9</v>
@@ -5262,19 +5283,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>9</v>
@@ -5308,13 +5329,13 @@
         <v>Cat. Revit: OST_Elev</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R24" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S24" s="35" t="str">
         <f t="shared" si="4"/>
@@ -5337,10 +5358,10 @@
         <v>Key_DocDet_24</v>
       </c>
       <c r="X24" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y24" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z24" s="35" t="s">
         <v>9</v>
@@ -5355,19 +5376,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>9</v>
@@ -5401,13 +5422,13 @@
         <v>Cat. Revit: OST_ElevationMarks</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R25" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S25" s="35" t="str">
         <f t="shared" si="4"/>
@@ -5430,10 +5451,10 @@
         <v>Key_DocDet_25</v>
       </c>
       <c r="X25" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y25" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z25" s="35" t="s">
         <v>9</v>
@@ -5448,19 +5469,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>9</v>
@@ -5494,13 +5515,13 @@
         <v>Cat. Revit: OST_SpotCoordinates</v>
       </c>
       <c r="P26" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="Q26" s="35" t="s">
-        <v>159</v>
-      </c>
       <c r="R26" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S26" s="35" t="str">
         <f t="shared" si="4"/>
@@ -5523,10 +5544,10 @@
         <v>Key_DocDet_26</v>
       </c>
       <c r="X26" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y26" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z26" s="35" t="s">
         <v>9</v>
@@ -5541,19 +5562,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G27" s="54" t="s">
         <v>9</v>
@@ -5587,13 +5608,13 @@
         <v>Cat. Revit: OST_SpotCoordinateSymbols</v>
       </c>
       <c r="P27" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q27" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="Q27" s="35" t="s">
-        <v>162</v>
-      </c>
       <c r="R27" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S27" s="35" t="str">
         <f t="shared" si="4"/>
@@ -5616,10 +5637,10 @@
         <v>Key_DocDet_27</v>
       </c>
       <c r="X27" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y27" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z27" s="35" t="s">
         <v>9</v>
@@ -5634,19 +5655,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G28" s="54" t="s">
         <v>9</v>
@@ -5680,13 +5701,13 @@
         <v>Cat. Revit: OST_SpotElevations</v>
       </c>
       <c r="P28" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q28" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="Q28" s="35" t="s">
-        <v>165</v>
-      </c>
       <c r="R28" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S28" s="35" t="str">
         <f t="shared" si="4"/>
@@ -5709,10 +5730,10 @@
         <v>Key_DocDet_28</v>
       </c>
       <c r="X28" s="59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y28" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z28" s="35" t="s">
         <v>9</v>
@@ -5727,19 +5748,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G29" s="54" t="s">
         <v>9</v>
@@ -5773,13 +5794,13 @@
         <v>Cat. Revit: OST_SpotElevSymbols</v>
       </c>
       <c r="P29" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q29" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="Q29" s="35" t="s">
-        <v>168</v>
-      </c>
       <c r="R29" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S29" s="35" t="str">
         <f t="shared" si="4"/>
@@ -5802,10 +5823,10 @@
         <v>Key_DocDet_29</v>
       </c>
       <c r="X29" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y29" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z29" s="35" t="s">
         <v>9</v>
@@ -5820,19 +5841,19 @@
         <v>30</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G30" s="54" t="s">
         <v>9</v>
@@ -5866,13 +5887,13 @@
         <v>Cat. Revit: OST_SpotSlopes</v>
       </c>
       <c r="P30" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q30" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="Q30" s="35" t="s">
-        <v>171</v>
-      </c>
       <c r="R30" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S30" s="35" t="str">
         <f t="shared" si="4"/>
@@ -5895,10 +5916,10 @@
         <v>Key_DocDet_30</v>
       </c>
       <c r="X30" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y30" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z30" s="35" t="s">
         <v>9</v>
@@ -5913,19 +5934,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G31" s="54" t="s">
         <v>9</v>
@@ -5959,13 +5980,13 @@
         <v>Cat. Revit: OST_SpotSlopesSymbols</v>
       </c>
       <c r="P31" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q31" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="Q31" s="35" t="s">
-        <v>174</v>
-      </c>
       <c r="R31" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S31" s="35" t="str">
         <f t="shared" si="4"/>
@@ -5988,10 +6009,10 @@
         <v>Key_DocDet_31</v>
       </c>
       <c r="X31" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y31" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z31" s="35" t="s">
         <v>9</v>
@@ -6006,19 +6027,19 @@
         <v>32</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="F32" s="51" t="s">
         <v>175</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>176</v>
       </c>
       <c r="G32" s="54" t="s">
         <v>9</v>
@@ -6052,13 +6073,13 @@
         <v>Cat. Revit: OST_Dimensions</v>
       </c>
       <c r="P32" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q32" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="Q32" s="35" t="s">
-        <v>178</v>
-      </c>
       <c r="R32" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S32" s="35" t="str">
         <f t="shared" si="4"/>
@@ -6081,10 +6102,10 @@
         <v>Key_DocDim_32</v>
       </c>
       <c r="X32" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y32" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z32" s="35" t="s">
         <v>9</v>
@@ -6099,19 +6120,19 @@
         <v>33</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G33" s="54" t="s">
         <v>9</v>
@@ -6145,13 +6166,13 @@
         <v>Cat. Revit: OST_DimLockControlLeader</v>
       </c>
       <c r="P33" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q33" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="Q33" s="35" t="s">
-        <v>181</v>
-      </c>
       <c r="R33" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S33" s="35" t="str">
         <f t="shared" si="4"/>
@@ -6174,10 +6195,10 @@
         <v>Key_DocDim_33</v>
       </c>
       <c r="X33" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y33" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z33" s="35" t="s">
         <v>9</v>
@@ -6192,19 +6213,19 @@
         <v>34</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G34" s="54" t="s">
         <v>9</v>
@@ -6238,13 +6259,13 @@
         <v>Cat. Revit: OST_WeakDims</v>
       </c>
       <c r="P34" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q34" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="Q34" s="35" t="s">
-        <v>184</v>
-      </c>
       <c r="R34" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S34" s="35" t="str">
         <f t="shared" ref="S34:S65" si="14">SUBSTITUTE(C34, "_", " ")</f>
@@ -6267,10 +6288,10 @@
         <v>Key_DocDim_34</v>
       </c>
       <c r="X34" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y34" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z34" s="35" t="s">
         <v>9</v>
@@ -6285,19 +6306,19 @@
         <v>35</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="F35" s="51" t="s">
         <v>185</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>477</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>186</v>
       </c>
       <c r="G35" s="54" t="s">
         <v>9</v>
@@ -6331,13 +6352,13 @@
         <v>Cat. Revit: OST_DSR_DimStyleHeavyEndCategoryId</v>
       </c>
       <c r="P35" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q35" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="Q35" s="35" t="s">
-        <v>188</v>
-      </c>
       <c r="R35" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S35" s="35" t="str">
         <f t="shared" si="14"/>
@@ -6360,10 +6381,10 @@
         <v>Key_DocEst_35</v>
       </c>
       <c r="X35" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y35" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z35" s="35" t="s">
         <v>9</v>
@@ -6378,19 +6399,19 @@
         <v>36</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G36" s="54" t="s">
         <v>9</v>
@@ -6424,13 +6445,13 @@
         <v>Cat. Revit: OST_DSR_DimStyleHeavyEndCatId</v>
       </c>
       <c r="P36" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q36" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="Q36" s="35" t="s">
-        <v>188</v>
-      </c>
       <c r="R36" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S36" s="35" t="str">
         <f t="shared" si="14"/>
@@ -6453,10 +6474,10 @@
         <v>Key_DocEst_36</v>
       </c>
       <c r="X36" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y36" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z36" s="35" t="s">
         <v>9</v>
@@ -6471,19 +6492,19 @@
         <v>37</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G37" s="54" t="s">
         <v>9</v>
@@ -6517,13 +6538,13 @@
         <v>Cat. Revit: OST_DSR_CenterlinePatternCatId</v>
       </c>
       <c r="P37" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q37" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="Q37" s="35" t="s">
-        <v>192</v>
-      </c>
       <c r="R37" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S37" s="35" t="str">
         <f t="shared" si="14"/>
@@ -6546,10 +6567,10 @@
         <v>Key_DocEst_37</v>
       </c>
       <c r="X37" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y37" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z37" s="35" t="s">
         <v>9</v>
@@ -6564,19 +6585,19 @@
         <v>38</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G38" s="54" t="s">
         <v>9</v>
@@ -6610,13 +6631,13 @@
         <v>Cat. Revit: OST_InvisibleLines</v>
       </c>
       <c r="P38" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q38" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="Q38" s="35" t="s">
-        <v>195</v>
-      </c>
       <c r="R38" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S38" s="35" t="str">
         <f t="shared" si="14"/>
@@ -6639,10 +6660,10 @@
         <v>Key_DocEst_38</v>
       </c>
       <c r="X38" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y38" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z38" s="35" t="s">
         <v>9</v>
@@ -6657,19 +6678,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G39" s="54" t="s">
         <v>9</v>
@@ -6703,13 +6724,13 @@
         <v>Cat. Revit: OST_LinesBeyond</v>
       </c>
       <c r="P39" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q39" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="Q39" s="35" t="s">
-        <v>198</v>
-      </c>
       <c r="R39" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S39" s="35" t="str">
         <f t="shared" si="14"/>
@@ -6732,10 +6753,10 @@
         <v>Key_DocEst_39</v>
       </c>
       <c r="X39" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y39" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z39" s="35" t="s">
         <v>9</v>
@@ -6750,19 +6771,19 @@
         <v>40</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G40" s="54" t="s">
         <v>9</v>
@@ -6796,13 +6817,13 @@
         <v>Cat. Revit: OST_InsulationLines</v>
       </c>
       <c r="P40" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q40" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="Q40" s="35" t="s">
-        <v>201</v>
-      </c>
       <c r="R40" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S40" s="35" t="str">
         <f t="shared" si="14"/>
@@ -6825,10 +6846,10 @@
         <v>Key_DocEst_40</v>
       </c>
       <c r="X40" s="59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y40" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z40" s="35" t="s">
         <v>9</v>
@@ -6843,19 +6864,19 @@
         <v>41</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F41" s="51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G41" s="54" t="s">
         <v>9</v>
@@ -6889,13 +6910,13 @@
         <v>Cat. Revit: OST_CenterLines</v>
       </c>
       <c r="P41" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q41" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="Q41" s="35" t="s">
-        <v>204</v>
-      </c>
       <c r="R41" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S41" s="35" t="str">
         <f t="shared" si="14"/>
@@ -6918,10 +6939,10 @@
         <v>Key_DocEst_41</v>
       </c>
       <c r="X41" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y41" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z41" s="35" t="s">
         <v>9</v>
@@ -6936,19 +6957,19 @@
         <v>42</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G42" s="54" t="s">
         <v>9</v>
@@ -6982,13 +7003,13 @@
         <v>Cat. Revit: OST_CLines</v>
       </c>
       <c r="P42" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q42" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="Q42" s="35" t="s">
-        <v>207</v>
-      </c>
       <c r="R42" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S42" s="35" t="str">
         <f t="shared" si="14"/>
@@ -7011,10 +7032,10 @@
         <v>Key_DocEst_42</v>
       </c>
       <c r="X42" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y42" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z42" s="35" t="s">
         <v>9</v>
@@ -7029,19 +7050,19 @@
         <v>43</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F43" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G43" s="54" t="s">
         <v>9</v>
@@ -7075,13 +7096,13 @@
         <v>Cat. Revit: OST_DemolishedLines</v>
       </c>
       <c r="P43" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q43" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="Q43" s="47" t="s">
-        <v>210</v>
-      </c>
       <c r="R43" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S43" s="35" t="str">
         <f t="shared" si="14"/>
@@ -7104,10 +7125,10 @@
         <v>Key_DocEst_43</v>
       </c>
       <c r="X43" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y43" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z43" s="35" t="s">
         <v>9</v>
@@ -7122,19 +7143,19 @@
         <v>44</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F44" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G44" s="54" t="s">
         <v>9</v>
@@ -7168,13 +7189,13 @@
         <v>Cat. Revit: OST_OverheadLines</v>
       </c>
       <c r="P44" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q44" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="Q44" s="47" t="s">
-        <v>213</v>
-      </c>
       <c r="R44" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S44" s="35" t="str">
         <f t="shared" si="14"/>
@@ -7197,10 +7218,10 @@
         <v>Key_DocEst_44</v>
       </c>
       <c r="X44" s="59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y44" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z44" s="35" t="s">
         <v>9</v>
@@ -7215,19 +7236,19 @@
         <v>45</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F45" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G45" s="54" t="s">
         <v>9</v>
@@ -7261,13 +7282,13 @@
         <v>Cat. Revit: OST_LinesHiddenLines</v>
       </c>
       <c r="P45" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q45" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="Q45" s="35" t="s">
-        <v>216</v>
-      </c>
       <c r="R45" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S45" s="35" t="str">
         <f t="shared" si="14"/>
@@ -7290,10 +7311,10 @@
         <v>Key_DocEst_45</v>
       </c>
       <c r="X45" s="59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y45" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z45" s="35" t="s">
         <v>9</v>
@@ -7308,19 +7329,19 @@
         <v>46</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G46" s="54" t="s">
         <v>9</v>
@@ -7354,13 +7375,13 @@
         <v>Cat. Revit: OST_HiddenFloorLines</v>
       </c>
       <c r="P46" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q46" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="Q46" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="R46" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S46" s="35" t="str">
         <f t="shared" si="14"/>
@@ -7383,10 +7404,10 @@
         <v>Key_DocEst_46</v>
       </c>
       <c r="X46" s="59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y46" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z46" s="35" t="s">
         <v>9</v>
@@ -7401,19 +7422,19 @@
         <v>47</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F47" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G47" s="54" t="s">
         <v>9</v>
@@ -7447,13 +7468,13 @@
         <v>Cat. Revit: OST_HiddenLines</v>
       </c>
       <c r="P47" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q47" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="Q47" s="35" t="s">
-        <v>222</v>
-      </c>
       <c r="R47" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S47" s="35" t="str">
         <f t="shared" si="14"/>
@@ -7476,10 +7497,10 @@
         <v>Key_DocEst_47</v>
       </c>
       <c r="X47" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y47" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z47" s="35" t="s">
         <v>9</v>
@@ -7494,19 +7515,19 @@
         <v>48</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F48" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G48" s="54" t="s">
         <v>9</v>
@@ -7540,13 +7561,13 @@
         <v>Cat. Revit: OST_HiddenStructuralColumnLines</v>
       </c>
       <c r="P48" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q48" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="Q48" s="35" t="s">
-        <v>225</v>
-      </c>
       <c r="R48" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S48" s="35" t="str">
         <f t="shared" si="14"/>
@@ -7569,10 +7590,10 @@
         <v>Key_DocEst_48</v>
       </c>
       <c r="X48" s="59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y48" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z48" s="35" t="s">
         <v>9</v>
@@ -7587,19 +7608,19 @@
         <v>49</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G49" s="54" t="s">
         <v>9</v>
@@ -7633,13 +7654,13 @@
         <v>Cat. Revit: OST_HiddenStructuralFoundationLines</v>
       </c>
       <c r="P49" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q49" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="Q49" s="35" t="s">
-        <v>228</v>
-      </c>
       <c r="R49" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S49" s="35" t="str">
         <f t="shared" si="14"/>
@@ -7662,10 +7683,10 @@
         <v>Key_DocEst_49</v>
       </c>
       <c r="X49" s="59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y49" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z49" s="35" t="s">
         <v>9</v>
@@ -7680,19 +7701,19 @@
         <v>50</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G50" s="54" t="s">
         <v>9</v>
@@ -7726,13 +7747,13 @@
         <v>Cat. Revit: OST_HiddenStructuralFramingLines</v>
       </c>
       <c r="P50" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q50" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="Q50" s="35" t="s">
-        <v>231</v>
-      </c>
       <c r="R50" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S50" s="35" t="str">
         <f t="shared" si="14"/>
@@ -7755,10 +7776,10 @@
         <v>Key_DocEst_50</v>
       </c>
       <c r="X50" s="59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y50" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z50" s="35" t="s">
         <v>9</v>
@@ -7773,19 +7794,19 @@
         <v>51</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G51" s="54" t="s">
         <v>9</v>
@@ -7819,13 +7840,13 @@
         <v>Cat. Revit: OST_HiddenWallLines</v>
       </c>
       <c r="P51" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q51" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="Q51" s="35" t="s">
-        <v>234</v>
-      </c>
       <c r="R51" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S51" s="35" t="str">
         <f t="shared" si="14"/>
@@ -7848,10 +7869,10 @@
         <v>Key_DocEst_51</v>
       </c>
       <c r="X51" s="59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y51" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z51" s="35" t="s">
         <v>9</v>
@@ -7866,19 +7887,19 @@
         <v>52</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F52" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G52" s="54" t="s">
         <v>9</v>
@@ -7912,13 +7933,13 @@
         <v>Cat. Revit: OST_InstanceDrivenLineStyle</v>
       </c>
       <c r="P52" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q52" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="Q52" s="35" t="s">
-        <v>237</v>
-      </c>
       <c r="R52" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S52" s="35" t="str">
         <f t="shared" si="14"/>
@@ -7941,10 +7962,10 @@
         <v>Key_DocEst_52</v>
       </c>
       <c r="X52" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y52" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z52" s="35" t="s">
         <v>9</v>
@@ -7959,19 +7980,19 @@
         <v>53</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G53" s="54" t="s">
         <v>9</v>
@@ -8005,13 +8026,13 @@
         <v>Cat. Revit: OST_DSR_CenterlineTickMarkStyleId</v>
       </c>
       <c r="P53" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q53" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="Q53" s="35" t="s">
-        <v>240</v>
-      </c>
       <c r="R53" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S53" s="35" t="str">
         <f t="shared" si="14"/>
@@ -8034,10 +8055,10 @@
         <v>Key_DocEst_53</v>
       </c>
       <c r="X53" s="59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y53" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z53" s="35" t="s">
         <v>9</v>
@@ -8052,19 +8073,19 @@
         <v>54</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G54" s="54" t="s">
         <v>9</v>
@@ -8098,13 +8119,13 @@
         <v>Cat. Revit: OST_DSR_DimStyleTickCategoryId</v>
       </c>
       <c r="P54" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q54" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="Q54" s="35" t="s">
-        <v>243</v>
-      </c>
       <c r="R54" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S54" s="35" t="str">
         <f t="shared" si="14"/>
@@ -8127,10 +8148,10 @@
         <v>Key_DocEst_54</v>
       </c>
       <c r="X54" s="59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y54" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z54" s="35" t="s">
         <v>9</v>
@@ -8145,19 +8166,19 @@
         <v>55</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F55" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G55" s="54" t="s">
         <v>9</v>
@@ -8191,13 +8212,13 @@
         <v>Cat. Revit: OST_DSR_InteriorTickMarkStyleId</v>
       </c>
       <c r="P55" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q55" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="Q55" s="35" t="s">
-        <v>246</v>
-      </c>
       <c r="R55" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S55" s="35" t="str">
         <f t="shared" si="14"/>
@@ -8220,10 +8241,10 @@
         <v>Key_DocEst_55</v>
       </c>
       <c r="X55" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y55" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z55" s="35" t="s">
         <v>9</v>
@@ -8238,19 +8259,19 @@
         <v>56</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F56" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G56" s="54" t="s">
         <v>9</v>
@@ -8284,13 +8305,13 @@
         <v>Cat. Revit: OST_DSR_LeaderTickMarkStyleId</v>
       </c>
       <c r="P56" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q56" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="Q56" s="35" t="s">
-        <v>249</v>
-      </c>
       <c r="R56" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S56" s="35" t="str">
         <f t="shared" si="14"/>
@@ -8313,10 +8334,10 @@
         <v>Key_DocEst_56</v>
       </c>
       <c r="X56" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Y56" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z56" s="35" t="s">
         <v>9</v>
@@ -8331,19 +8352,19 @@
         <v>57</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F57" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G57" s="54" t="s">
         <v>9</v>
@@ -8377,13 +8398,13 @@
         <v>Cat. Revit: OST_DSR_ArrowHeadStyleId</v>
       </c>
       <c r="P57" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q57" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="Q57" s="35" t="s">
-        <v>252</v>
-      </c>
       <c r="R57" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S57" s="35" t="str">
         <f t="shared" si="14"/>
@@ -8406,10 +8427,10 @@
         <v>Key_DocEst_57</v>
       </c>
       <c r="X57" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y57" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z57" s="35" t="s">
         <v>9</v>
@@ -8424,19 +8445,19 @@
         <v>58</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F58" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G58" s="54" t="s">
         <v>9</v>
@@ -8470,13 +8491,13 @@
         <v>Cat. Revit: OST_DSR_LineAndTextAttrFontId</v>
       </c>
       <c r="P58" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q58" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="Q58" s="35" t="s">
-        <v>255</v>
-      </c>
       <c r="R58" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S58" s="35" t="str">
         <f t="shared" si="14"/>
@@ -8499,10 +8520,10 @@
         <v>Key_DocEst_58</v>
       </c>
       <c r="X58" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y58" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z58" s="35" t="s">
         <v>9</v>
@@ -8517,19 +8538,19 @@
         <v>59</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F59" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G59" s="54" t="s">
         <v>9</v>
@@ -8563,13 +8584,13 @@
         <v>Cat. Revit: OST_DSR_LineAndTextAttrCategoryId</v>
       </c>
       <c r="P59" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q59" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="Q59" s="35" t="s">
-        <v>258</v>
-      </c>
       <c r="R59" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S59" s="35" t="str">
         <f t="shared" si="14"/>
@@ -8592,10 +8613,10 @@
         <v>Key_DocEst_59</v>
       </c>
       <c r="X59" s="59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y59" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z59" s="35" t="s">
         <v>9</v>
@@ -8610,19 +8631,19 @@
         <v>60</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E60" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="F60" s="51" t="s">
         <v>259</v>
-      </c>
-      <c r="F60" s="51" t="s">
-        <v>260</v>
       </c>
       <c r="G60" s="54" t="s">
         <v>9</v>
@@ -8656,13 +8677,13 @@
         <v>Cat. Revit: OST_ImportObjectStyles</v>
       </c>
       <c r="P60" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q60" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R60" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S60" s="35" t="str">
         <f t="shared" si="14"/>
@@ -8685,10 +8706,10 @@
         <v>Key_DocEst_60</v>
       </c>
       <c r="X60" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y60" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z60" s="35" t="s">
         <v>9</v>
@@ -8703,19 +8724,19 @@
         <v>61</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D61" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="E61" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="F61" s="51" t="s">
         <v>262</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>485</v>
-      </c>
-      <c r="F61" s="51" t="s">
-        <v>263</v>
       </c>
       <c r="G61" s="54" t="s">
         <v>9</v>
@@ -8749,13 +8770,13 @@
         <v>Cat. Revit: OST_DuctColorFillLegends</v>
       </c>
       <c r="P61" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q61" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="Q61" s="35" t="s">
-        <v>265</v>
-      </c>
       <c r="R61" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S61" s="35" t="str">
         <f t="shared" si="14"/>
@@ -8778,10 +8799,10 @@
         <v>Key_DocLeg_61</v>
       </c>
       <c r="X61" s="59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y61" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z61" s="35" t="s">
         <v>9</v>
@@ -8796,19 +8817,19 @@
         <v>62</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E62" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F62" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G62" s="54" t="s">
         <v>9</v>
@@ -8842,13 +8863,13 @@
         <v>Cat. Revit: OST_DuctColorFills</v>
       </c>
       <c r="P62" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q62" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="Q62" s="35" t="s">
-        <v>268</v>
-      </c>
       <c r="R62" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S62" s="35" t="str">
         <f t="shared" si="14"/>
@@ -8871,10 +8892,10 @@
         <v>Key_DocLeg_62</v>
       </c>
       <c r="X62" s="59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y62" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z62" s="35" t="s">
         <v>9</v>
@@ -8889,19 +8910,19 @@
         <v>63</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E63" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F63" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G63" s="54" t="s">
         <v>9</v>
@@ -8935,13 +8956,13 @@
         <v>Cat. Revit: OST_PipeColorFillLegends</v>
       </c>
       <c r="P63" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q63" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="Q63" s="35" t="s">
-        <v>271</v>
-      </c>
       <c r="R63" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S63" s="35" t="str">
         <f t="shared" si="14"/>
@@ -8964,10 +8985,10 @@
         <v>Key_DocLeg_63</v>
       </c>
       <c r="X63" s="59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y63" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z63" s="35" t="s">
         <v>9</v>
@@ -8982,19 +9003,19 @@
         <v>64</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F64" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G64" s="54" t="s">
         <v>9</v>
@@ -9028,13 +9049,13 @@
         <v>Cat. Revit: OST_PipeColorFills</v>
       </c>
       <c r="P64" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q64" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="Q64" s="35" t="s">
-        <v>274</v>
-      </c>
       <c r="R64" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S64" s="35" t="str">
         <f t="shared" si="14"/>
@@ -9057,10 +9078,10 @@
         <v>Key_DocLeg_64</v>
       </c>
       <c r="X64" s="59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y64" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z64" s="35" t="s">
         <v>9</v>
@@ -9075,19 +9096,19 @@
         <v>65</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E65" s="49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F65" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G65" s="54" t="s">
         <v>9</v>
@@ -9121,13 +9142,13 @@
         <v>Cat. Revit: OST_RoomColorFill</v>
       </c>
       <c r="P65" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q65" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="Q65" s="35" t="s">
-        <v>277</v>
-      </c>
       <c r="R65" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S65" s="35" t="str">
         <f t="shared" si="14"/>
@@ -9150,10 +9171,10 @@
         <v>Key_DocLeg_65</v>
       </c>
       <c r="X65" s="59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y65" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z65" s="35" t="s">
         <v>9</v>
@@ -9168,19 +9189,19 @@
         <v>66</v>
       </c>
       <c r="B66" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F66" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G66" s="54" t="s">
         <v>9</v>
@@ -9214,13 +9235,13 @@
         <v>Cat. Revit: OST_AreaColorFill</v>
       </c>
       <c r="P66" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q66" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="Q66" s="35" t="s">
-        <v>280</v>
-      </c>
       <c r="R66" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S66" s="35" t="str">
         <f t="shared" ref="S66:S97" si="23">SUBSTITUTE(C66, "_", " ")</f>
@@ -9243,10 +9264,10 @@
         <v>Key_DocLeg_66</v>
       </c>
       <c r="X66" s="59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y66" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z66" s="35" t="s">
         <v>9</v>
@@ -9261,19 +9282,19 @@
         <v>67</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F67" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G67" s="54" t="s">
         <v>9</v>
@@ -9307,13 +9328,13 @@
         <v>Cat. Revit: OST_MEPSpaceColorFill</v>
       </c>
       <c r="P67" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q67" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="Q67" s="35" t="s">
-        <v>283</v>
-      </c>
       <c r="R67" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S67" s="35" t="str">
         <f t="shared" si="23"/>
@@ -9336,10 +9357,10 @@
         <v>Key_DocLeg_67</v>
       </c>
       <c r="X67" s="59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y67" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z67" s="35" t="s">
         <v>9</v>
@@ -9354,19 +9375,19 @@
         <v>68</v>
       </c>
       <c r="B68" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F68" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G68" s="54" t="s">
         <v>9</v>
@@ -9400,13 +9421,13 @@
         <v>Cat. Revit: OST_HVAC_Zones_ColorFill</v>
       </c>
       <c r="P68" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q68" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="Q68" s="35" t="s">
-        <v>286</v>
-      </c>
       <c r="R68" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S68" s="35" t="str">
         <f t="shared" si="23"/>
@@ -9429,10 +9450,10 @@
         <v>Key_DocLeg_68</v>
       </c>
       <c r="X68" s="59" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y68" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z68" s="35" t="s">
         <v>9</v>
@@ -9447,19 +9468,19 @@
         <v>69</v>
       </c>
       <c r="B69" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F69" s="51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G69" s="54" t="s">
         <v>9</v>
@@ -9493,13 +9514,13 @@
         <v>Cat. Revit: OST_ColorFillSchema</v>
       </c>
       <c r="P69" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q69" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="Q69" s="35" t="s">
-        <v>289</v>
-      </c>
       <c r="R69" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S69" s="35" t="str">
         <f t="shared" si="23"/>
@@ -9522,10 +9543,10 @@
         <v>Key_DocLeg_69</v>
       </c>
       <c r="X69" s="59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y69" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z69" s="35" t="s">
         <v>9</v>
@@ -9540,19 +9561,19 @@
         <v>70</v>
       </c>
       <c r="B70" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F70" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G70" s="54" t="s">
         <v>9</v>
@@ -9586,13 +9607,13 @@
         <v>Cat. Revit: OST_LegendComponents</v>
       </c>
       <c r="P70" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q70" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="Q70" s="35" t="s">
-        <v>292</v>
-      </c>
       <c r="R70" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S70" s="35" t="str">
         <f t="shared" si="23"/>
@@ -9615,10 +9636,10 @@
         <v>Key_DocLeg_70</v>
       </c>
       <c r="X70" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y70" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z70" s="35" t="s">
         <v>9</v>
@@ -9633,19 +9654,19 @@
         <v>71</v>
       </c>
       <c r="B71" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="E71" s="49" t="s">
+      <c r="F71" s="51" t="s">
         <v>294</v>
-      </c>
-      <c r="F71" s="51" t="s">
-        <v>295</v>
       </c>
       <c r="G71" s="54" t="s">
         <v>9</v>
@@ -9679,13 +9700,13 @@
         <v>Cat. Revit: OST_CloudLines</v>
       </c>
       <c r="P71" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q71" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="Q71" s="35" t="s">
-        <v>297</v>
-      </c>
       <c r="R71" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S71" s="35" t="str">
         <f t="shared" si="23"/>
@@ -9708,10 +9729,10 @@
         <v>Key_DocMod_71</v>
       </c>
       <c r="X71" s="59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y71" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z71" s="35" t="s">
         <v>9</v>
@@ -9726,19 +9747,19 @@
         <v>72</v>
       </c>
       <c r="B72" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D72" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E72" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="E72" s="49" t="s">
-        <v>294</v>
-      </c>
       <c r="F72" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G72" s="54" t="s">
         <v>9</v>
@@ -9772,13 +9793,13 @@
         <v>Cat. Revit: OST_DirectionEdgeLines</v>
       </c>
       <c r="P72" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q72" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="Q72" s="35" t="s">
-        <v>300</v>
-      </c>
       <c r="R72" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S72" s="35" t="str">
         <f t="shared" si="23"/>
@@ -9801,10 +9822,10 @@
         <v>Key_DocMod_72</v>
       </c>
       <c r="X72" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y72" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z72" s="35" t="s">
         <v>9</v>
@@ -9819,19 +9840,19 @@
         <v>73</v>
       </c>
       <c r="B73" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E73" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="E73" s="49" t="s">
-        <v>294</v>
-      </c>
       <c r="F73" s="51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G73" s="54" t="s">
         <v>9</v>
@@ -9865,13 +9886,13 @@
         <v>Cat. Revit: OST_GenericLines</v>
       </c>
       <c r="P73" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q73" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="Q73" s="35" t="s">
-        <v>303</v>
-      </c>
       <c r="R73" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S73" s="35" t="str">
         <f t="shared" si="23"/>
@@ -9894,10 +9915,10 @@
         <v>Key_DocMod_73</v>
       </c>
       <c r="X73" s="59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y73" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z73" s="35" t="s">
         <v>9</v>
@@ -9912,19 +9933,19 @@
         <v>74</v>
       </c>
       <c r="B74" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D74" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E74" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="E74" s="49" t="s">
-        <v>294</v>
-      </c>
       <c r="F74" s="51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G74" s="54" t="s">
         <v>9</v>
@@ -9958,13 +9979,13 @@
         <v>Cat. Revit: OST_Lines</v>
       </c>
       <c r="P74" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q74" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="Q74" s="35" t="s">
-        <v>306</v>
-      </c>
       <c r="R74" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S74" s="35" t="str">
         <f t="shared" si="23"/>
@@ -9987,10 +10008,10 @@
         <v>Key_DocMod_74</v>
       </c>
       <c r="X74" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y74" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z74" s="35" t="s">
         <v>9</v>
@@ -10005,19 +10026,19 @@
         <v>75</v>
       </c>
       <c r="B75" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E75" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="E75" s="49" t="s">
-        <v>294</v>
-      </c>
       <c r="F75" s="51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G75" s="54" t="s">
         <v>9</v>
@@ -10051,13 +10072,13 @@
         <v>Cat. Revit: OST_ModelText</v>
       </c>
       <c r="P75" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q75" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="Q75" s="35" t="s">
-        <v>309</v>
-      </c>
       <c r="R75" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S75" s="35" t="str">
         <f t="shared" si="23"/>
@@ -10080,10 +10101,10 @@
         <v>Key_DocMod_75</v>
       </c>
       <c r="X75" s="59" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y75" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z75" s="35" t="s">
         <v>9</v>
@@ -10098,19 +10119,19 @@
         <v>76</v>
       </c>
       <c r="B76" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D76" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E76" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="F76" s="51" t="s">
         <v>310</v>
-      </c>
-      <c r="F76" s="51" t="s">
-        <v>311</v>
       </c>
       <c r="G76" s="54" t="s">
         <v>9</v>
@@ -10144,13 +10165,13 @@
         <v>Cat. Revit: OST_DisplacementElements</v>
       </c>
       <c r="P76" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q76" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="Q76" s="35" t="s">
-        <v>313</v>
-      </c>
       <c r="R76" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S76" s="35" t="str">
         <f t="shared" si="23"/>
@@ -10173,10 +10194,10 @@
         <v>Key_DocMod_76</v>
       </c>
       <c r="X76" s="59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y76" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z76" s="35" t="s">
         <v>9</v>
@@ -10191,19 +10212,19 @@
         <v>77</v>
       </c>
       <c r="B77" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E77" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F77" s="51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G77" s="54" t="s">
         <v>9</v>
@@ -10237,13 +10258,13 @@
         <v>Cat. Revit: OST_DisplacementPath</v>
       </c>
       <c r="P77" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q77" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="Q77" s="35" t="s">
-        <v>316</v>
-      </c>
       <c r="R77" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S77" s="35" t="str">
         <f t="shared" si="23"/>
@@ -10266,10 +10287,10 @@
         <v>Key_DocMod_77</v>
       </c>
       <c r="X77" s="59" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y77" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z77" s="35" t="s">
         <v>9</v>
@@ -10284,19 +10305,19 @@
         <v>78</v>
       </c>
       <c r="B78" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F78" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G78" s="54" t="s">
         <v>9</v>
@@ -10330,13 +10351,13 @@
         <v>Cat. Revit: OST_GraphicalWarning_OpenConnector</v>
       </c>
       <c r="P78" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q78" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="Q78" s="35" t="s">
-        <v>319</v>
-      </c>
       <c r="R78" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S78" s="35" t="str">
         <f t="shared" si="23"/>
@@ -10359,10 +10380,10 @@
         <v>Key_DocMod_78</v>
       </c>
       <c r="X78" s="59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y78" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z78" s="35" t="s">
         <v>9</v>
@@ -10377,19 +10398,19 @@
         <v>79</v>
       </c>
       <c r="B79" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D79" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F79" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G79" s="54" t="s">
         <v>9</v>
@@ -10423,13 +10444,13 @@
         <v>Cat. Revit: OST_RasterImages</v>
       </c>
       <c r="P79" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q79" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="Q79" s="35" t="s">
-        <v>322</v>
-      </c>
       <c r="R79" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S79" s="35" t="str">
         <f t="shared" si="23"/>
@@ -10452,10 +10473,10 @@
         <v>Key_DocMod_79</v>
       </c>
       <c r="X79" s="59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y79" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z79" s="35" t="s">
         <v>9</v>
@@ -10470,19 +10491,19 @@
         <v>80</v>
       </c>
       <c r="B80" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D80" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E80" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F80" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G80" s="54" t="s">
         <v>9</v>
@@ -10516,13 +10537,13 @@
         <v>Cat. Revit: OST_RiseDropSymbols</v>
       </c>
       <c r="P80" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q80" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="Q80" s="35" t="s">
-        <v>325</v>
-      </c>
       <c r="R80" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S80" s="35" t="str">
         <f t="shared" si="23"/>
@@ -10545,10 +10566,10 @@
         <v>Key_DocMod_80</v>
       </c>
       <c r="X80" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y80" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z80" s="35" t="s">
         <v>9</v>
@@ -10563,19 +10584,19 @@
         <v>81</v>
       </c>
       <c r="B81" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E81" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F81" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G81" s="54" t="s">
         <v>9</v>
@@ -10609,13 +10630,13 @@
         <v>Cat. Revit: OST_GuideGrid</v>
       </c>
       <c r="P81" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q81" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="Q81" s="35" t="s">
-        <v>328</v>
-      </c>
       <c r="R81" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S81" s="35" t="str">
         <f t="shared" si="23"/>
@@ -10638,10 +10659,10 @@
         <v>Key_DocMod_81</v>
       </c>
       <c r="X81" s="59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y81" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z81" s="35" t="s">
         <v>9</v>
@@ -10656,19 +10677,19 @@
         <v>82</v>
       </c>
       <c r="B82" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D82" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E82" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="E82" s="48" t="s">
+      <c r="F82" s="51" t="s">
         <v>330</v>
-      </c>
-      <c r="F82" s="51" t="s">
-        <v>331</v>
       </c>
       <c r="G82" s="54" t="s">
         <v>9</v>
@@ -10702,13 +10723,13 @@
         <v>Cat. Revit: OST_Revisions</v>
       </c>
       <c r="P82" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q82" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="Q82" s="35" t="s">
-        <v>333</v>
-      </c>
       <c r="R82" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S82" s="35" t="str">
         <f t="shared" si="23"/>
@@ -10731,10 +10752,10 @@
         <v>Key_DocPra_82</v>
       </c>
       <c r="X82" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y82" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z82" s="35" t="s">
         <v>9</v>
@@ -10749,19 +10770,19 @@
         <v>83</v>
       </c>
       <c r="B83" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D83" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E83" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="E83" s="48" t="s">
-        <v>330</v>
-      </c>
       <c r="F83" s="51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G83" s="54" t="s">
         <v>9</v>
@@ -10795,13 +10816,13 @@
         <v>Cat. Revit: OST_RevisionNumberingSequences</v>
       </c>
       <c r="P83" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q83" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="Q83" s="35" t="s">
-        <v>336</v>
-      </c>
       <c r="R83" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S83" s="35" t="str">
         <f t="shared" si="23"/>
@@ -10824,10 +10845,10 @@
         <v>Key_DocPra_83</v>
       </c>
       <c r="X83" s="59" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y83" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z83" s="35" t="s">
         <v>9</v>
@@ -10842,19 +10863,19 @@
         <v>84</v>
       </c>
       <c r="B84" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E84" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="E84" s="48" t="s">
-        <v>330</v>
-      </c>
       <c r="F84" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G84" s="54" t="s">
         <v>9</v>
@@ -10888,13 +10909,13 @@
         <v>Cat. Revit: OST_TitleBlockMediumLines</v>
       </c>
       <c r="P84" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q84" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="Q84" s="35" t="s">
-        <v>339</v>
-      </c>
       <c r="R84" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S84" s="35" t="str">
         <f t="shared" si="23"/>
@@ -10917,10 +10938,10 @@
         <v>Key_DocPra_84</v>
       </c>
       <c r="X84" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y84" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z84" s="35" t="s">
         <v>9</v>
@@ -10935,19 +10956,19 @@
         <v>85</v>
       </c>
       <c r="B85" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E85" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="E85" s="48" t="s">
-        <v>330</v>
-      </c>
       <c r="F85" s="51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G85" s="54" t="s">
         <v>9</v>
@@ -10981,13 +11002,13 @@
         <v>Cat. Revit: OST_TitleBlocks</v>
       </c>
       <c r="P85" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q85" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="Q85" s="35" t="s">
-        <v>342</v>
-      </c>
       <c r="R85" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S85" s="35" t="str">
         <f t="shared" si="23"/>
@@ -11010,10 +11031,10 @@
         <v>Key_DocPra_85</v>
       </c>
       <c r="X85" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y85" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z85" s="35" t="s">
         <v>9</v>
@@ -11028,19 +11049,19 @@
         <v>86</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E86" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="E86" s="48" t="s">
-        <v>330</v>
-      </c>
       <c r="F86" s="51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G86" s="54" t="s">
         <v>9</v>
@@ -11074,13 +11095,13 @@
         <v>Cat. Revit: OST_TitleBlockThinLines</v>
       </c>
       <c r="P86" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q86" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="Q86" s="35" t="s">
-        <v>345</v>
-      </c>
       <c r="R86" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S86" s="35" t="str">
         <f t="shared" si="23"/>
@@ -11103,10 +11124,10 @@
         <v>Key_DocPra_86</v>
       </c>
       <c r="X86" s="59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Y86" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z86" s="35" t="s">
         <v>9</v>
@@ -11121,19 +11142,19 @@
         <v>87</v>
       </c>
       <c r="B87" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D87" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E87" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="E87" s="48" t="s">
-        <v>330</v>
-      </c>
       <c r="F87" s="51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G87" s="54" t="s">
         <v>9</v>
@@ -11167,13 +11188,13 @@
         <v>Cat. Revit: OST_TitleBlockWideLines</v>
       </c>
       <c r="P87" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q87" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="Q87" s="35" t="s">
-        <v>348</v>
-      </c>
       <c r="R87" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S87" s="35" t="str">
         <f t="shared" si="23"/>
@@ -11196,10 +11217,10 @@
         <v>Key_DocPra_87</v>
       </c>
       <c r="X87" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y87" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z87" s="35" t="s">
         <v>9</v>
@@ -11214,19 +11235,19 @@
         <v>88</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C88" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D88" s="49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E88" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="F88" s="51" t="s">
         <v>349</v>
-      </c>
-      <c r="F88" s="51" t="s">
-        <v>350</v>
       </c>
       <c r="G88" s="54" t="s">
         <v>9</v>
@@ -11260,13 +11281,13 @@
         <v>Cat. Revit: OST_Sheets</v>
       </c>
       <c r="P88" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q88" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="Q88" s="35" t="s">
-        <v>352</v>
-      </c>
       <c r="R88" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S88" s="35" t="str">
         <f t="shared" si="23"/>
@@ -11289,10 +11310,10 @@
         <v>Key_DocPra_88</v>
       </c>
       <c r="X88" s="59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y88" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z88" s="35" t="s">
         <v>9</v>
@@ -11307,19 +11328,19 @@
         <v>89</v>
       </c>
       <c r="B89" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D89" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="E89" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="E89" s="48" t="s">
+      <c r="F89" s="51" t="s">
         <v>354</v>
-      </c>
-      <c r="F89" s="51" t="s">
-        <v>355</v>
       </c>
       <c r="G89" s="54" t="s">
         <v>9</v>
@@ -11353,13 +11374,13 @@
         <v>Cat. Revit: OST_FillPatterns</v>
       </c>
       <c r="P89" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q89" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="Q89" s="35" t="s">
-        <v>357</v>
-      </c>
       <c r="R89" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S89" s="35" t="str">
         <f t="shared" si="23"/>
@@ -11382,10 +11403,10 @@
         <v>Key_DocPre_89</v>
       </c>
       <c r="X89" s="59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y89" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z89" s="35" t="s">
         <v>9</v>
@@ -11400,19 +11421,19 @@
         <v>90</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C90" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D90" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="E90" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="E90" s="48" t="s">
-        <v>354</v>
-      </c>
       <c r="F90" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G90" s="54" t="s">
         <v>9</v>
@@ -11446,13 +11467,13 @@
         <v>Cat. Revit: OST_TilePatterns</v>
       </c>
       <c r="P90" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q90" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="Q90" s="35" t="s">
-        <v>360</v>
-      </c>
       <c r="R90" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S90" s="35" t="str">
         <f t="shared" si="23"/>
@@ -11475,10 +11496,10 @@
         <v>Key_DocPre_90</v>
       </c>
       <c r="X90" s="59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y90" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z90" s="35" t="s">
         <v>9</v>
@@ -11493,19 +11514,19 @@
         <v>91</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C91" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D91" s="49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E91" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="F91" s="51" t="s">
         <v>361</v>
-      </c>
-      <c r="F91" s="51" t="s">
-        <v>362</v>
       </c>
       <c r="G91" s="54" t="s">
         <v>9</v>
@@ -11539,13 +11560,13 @@
         <v>Cat. Revit: OST_FilledRegion</v>
       </c>
       <c r="P91" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q91" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="Q91" s="35" t="s">
-        <v>364</v>
-      </c>
       <c r="R91" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S91" s="35" t="str">
         <f t="shared" si="23"/>
@@ -11568,10 +11589,10 @@
         <v>Key_DocPre_91</v>
       </c>
       <c r="X91" s="59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y91" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z91" s="35" t="s">
         <v>9</v>
@@ -11586,19 +11607,19 @@
         <v>92</v>
       </c>
       <c r="B92" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E92" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F92" s="51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G92" s="54" t="s">
         <v>9</v>
@@ -11632,13 +11653,13 @@
         <v>Cat. Revit: OST_MaskingRegion</v>
       </c>
       <c r="P92" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q92" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="Q92" s="35" t="s">
-        <v>367</v>
-      </c>
       <c r="R92" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S92" s="35" t="str">
         <f t="shared" si="23"/>
@@ -11661,10 +11682,10 @@
         <v>Key_DocPre_92</v>
       </c>
       <c r="X92" s="59" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Y92" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z92" s="35" t="s">
         <v>9</v>
@@ -11679,19 +11700,19 @@
         <v>93</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C93" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D93" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="E93" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="F93" s="51" t="s">
         <v>369</v>
-      </c>
-      <c r="F93" s="51" t="s">
-        <v>370</v>
       </c>
       <c r="G93" s="54" t="s">
         <v>9</v>
@@ -11725,13 +11746,13 @@
         <v>Cat. Revit: OST_MatchAll</v>
       </c>
       <c r="P93" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q93" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="Q93" s="35" t="s">
-        <v>372</v>
-      </c>
       <c r="R93" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S93" s="35" t="str">
         <f t="shared" si="23"/>
@@ -11754,10 +11775,10 @@
         <v>Key_DocRel_93</v>
       </c>
       <c r="X93" s="59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y93" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z93" s="35" t="s">
         <v>9</v>
@@ -11772,19 +11793,19 @@
         <v>94</v>
       </c>
       <c r="B94" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D94" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="E94" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="E94" s="48" t="s">
-        <v>369</v>
-      </c>
       <c r="F94" s="51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G94" s="54" t="s">
         <v>9</v>
@@ -11818,13 +11839,13 @@
         <v>Cat. Revit: OST_MatchAnnotation</v>
       </c>
       <c r="P94" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q94" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="Q94" s="35" t="s">
-        <v>375</v>
-      </c>
       <c r="R94" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S94" s="35" t="str">
         <f t="shared" si="23"/>
@@ -11847,10 +11868,10 @@
         <v>Key_DocRel_94</v>
       </c>
       <c r="X94" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y94" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z94" s="35" t="s">
         <v>9</v>
@@ -11865,19 +11886,19 @@
         <v>95</v>
       </c>
       <c r="B95" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C95" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D95" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="E95" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="E95" s="48" t="s">
-        <v>369</v>
-      </c>
       <c r="F95" s="51" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G95" s="54" t="s">
         <v>9</v>
@@ -11911,13 +11932,13 @@
         <v>Cat. Revit: OST_MatchDetail</v>
       </c>
       <c r="P95" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q95" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="Q95" s="35" t="s">
-        <v>378</v>
-      </c>
       <c r="R95" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S95" s="35" t="str">
         <f t="shared" si="23"/>
@@ -11940,10 +11961,10 @@
         <v>Key_DocRel_95</v>
       </c>
       <c r="X95" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y95" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z95" s="35" t="s">
         <v>9</v>
@@ -11958,19 +11979,19 @@
         <v>96</v>
       </c>
       <c r="B96" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D96" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="E96" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="E96" s="48" t="s">
-        <v>369</v>
-      </c>
       <c r="F96" s="51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G96" s="54" t="s">
         <v>9</v>
@@ -12004,13 +12025,13 @@
         <v>Cat. Revit: OST_Matchline</v>
       </c>
       <c r="P96" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q96" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="Q96" s="35" t="s">
-        <v>381</v>
-      </c>
       <c r="R96" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S96" s="35" t="str">
         <f t="shared" si="23"/>
@@ -12033,10 +12054,10 @@
         <v>Key_DocRel_96</v>
       </c>
       <c r="X96" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Y96" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z96" s="35" t="s">
         <v>9</v>
@@ -12051,19 +12072,19 @@
         <v>97</v>
       </c>
       <c r="B97" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C97" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D97" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="E97" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="E97" s="48" t="s">
-        <v>369</v>
-      </c>
       <c r="F97" s="51" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G97" s="54" t="s">
         <v>9</v>
@@ -12097,13 +12118,13 @@
         <v>Cat. Revit: OST_MatchModel</v>
       </c>
       <c r="P97" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q97" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="Q97" s="35" t="s">
-        <v>384</v>
-      </c>
       <c r="R97" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S97" s="35" t="str">
         <f t="shared" si="23"/>
@@ -12126,10 +12147,10 @@
         <v>Key_DocRel_97</v>
       </c>
       <c r="X97" s="59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Y97" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z97" s="35" t="s">
         <v>9</v>
@@ -12144,19 +12165,19 @@
         <v>98</v>
       </c>
       <c r="B98" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C98" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D98" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="E98" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="E98" s="48" t="s">
-        <v>369</v>
-      </c>
       <c r="F98" s="51" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G98" s="54" t="s">
         <v>9</v>
@@ -12190,13 +12211,13 @@
         <v>Cat. Revit: OST_MatchProfile</v>
       </c>
       <c r="P98" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q98" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="Q98" s="35" t="s">
-        <v>387</v>
-      </c>
       <c r="R98" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S98" s="35" t="str">
         <f t="shared" ref="S98:S129" si="33">SUBSTITUTE(C98, "_", " ")</f>
@@ -12219,10 +12240,10 @@
         <v>Key_DocRel_98</v>
       </c>
       <c r="X98" s="59" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Y98" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z98" s="35" t="s">
         <v>9</v>
@@ -12237,19 +12258,19 @@
         <v>99</v>
       </c>
       <c r="B99" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D99" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="E99" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="E99" s="48" t="s">
-        <v>369</v>
-      </c>
       <c r="F99" s="51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G99" s="54" t="s">
         <v>9</v>
@@ -12283,13 +12304,13 @@
         <v>Cat. Revit: OST_MatchSiteComponent</v>
       </c>
       <c r="P99" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q99" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="Q99" s="35" t="s">
-        <v>390</v>
-      </c>
       <c r="R99" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S99" s="35" t="str">
         <f t="shared" si="33"/>
@@ -12312,10 +12333,10 @@
         <v>Key_DocRel_99</v>
       </c>
       <c r="X99" s="59" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Y99" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z99" s="35" t="s">
         <v>9</v>
@@ -12330,19 +12351,19 @@
         <v>100</v>
       </c>
       <c r="B100" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D100" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="E100" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="F100" s="51" t="s">
         <v>391</v>
-      </c>
-      <c r="E100" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="F100" s="51" t="s">
-        <v>392</v>
       </c>
       <c r="G100" s="54" t="s">
         <v>9</v>
@@ -12376,13 +12397,13 @@
         <v>Cat. Revit: OST_PanelScheduleGraphics</v>
       </c>
       <c r="P100" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q100" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="Q100" s="47" t="s">
-        <v>394</v>
-      </c>
       <c r="R100" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S100" s="35" t="str">
         <f t="shared" si="33"/>
@@ -12405,10 +12426,10 @@
         <v>Key_DocTab_100</v>
       </c>
       <c r="X100" s="59" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y100" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z100" s="35" t="s">
         <v>9</v>
@@ -12423,19 +12444,19 @@
         <v>101</v>
       </c>
       <c r="B101" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D101" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E101" s="48" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F101" s="51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G101" s="54" t="s">
         <v>9</v>
@@ -12469,13 +12490,13 @@
         <v>Cat. Revit: OST_ScheduleGraphics</v>
       </c>
       <c r="P101" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q101" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="Q101" s="47" t="s">
-        <v>397</v>
-      </c>
       <c r="R101" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S101" s="35" t="str">
         <f t="shared" si="33"/>
@@ -12498,10 +12519,10 @@
         <v>Key_DocTab_101</v>
       </c>
       <c r="X101" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y101" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z101" s="35" t="s">
         <v>9</v>
@@ -12516,19 +12537,19 @@
         <v>102</v>
       </c>
       <c r="B102" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C102" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D102" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E102" s="48" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F102" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G102" s="54" t="s">
         <v>9</v>
@@ -12562,13 +12583,13 @@
         <v>Cat. Revit: OST_Schedules</v>
       </c>
       <c r="P102" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q102" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="Q102" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="R102" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S102" s="35" t="str">
         <f t="shared" si="33"/>
@@ -12591,10 +12612,10 @@
         <v>Key_DocTab_102</v>
       </c>
       <c r="X102" s="59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y102" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z102" s="35" t="s">
         <v>9</v>
@@ -12609,19 +12630,19 @@
         <v>103</v>
       </c>
       <c r="B103" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C103" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D103" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E103" s="48" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F103" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G103" s="54" t="s">
         <v>9</v>
@@ -12655,13 +12676,13 @@
         <v>Cat. Revit: OST_ScheduleViewParamGroup</v>
       </c>
       <c r="P103" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q103" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="Q103" s="35" t="s">
-        <v>403</v>
-      </c>
       <c r="R103" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S103" s="35" t="str">
         <f t="shared" si="33"/>
@@ -12684,10 +12705,10 @@
         <v>Key_DocTab_103</v>
       </c>
       <c r="X103" s="59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Y103" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z103" s="35" t="s">
         <v>9</v>
@@ -12702,19 +12723,19 @@
         <v>104</v>
       </c>
       <c r="B104" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C104" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D104" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E104" s="48" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F104" s="51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G104" s="54" t="s">
         <v>9</v>
@@ -12748,13 +12769,13 @@
         <v>Cat. Revit: OST_BranchPanelScheduleTemplates</v>
       </c>
       <c r="P104" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q104" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="Q104" s="35" t="s">
-        <v>406</v>
-      </c>
       <c r="R104" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S104" s="35" t="str">
         <f t="shared" si="33"/>
@@ -12777,10 +12798,10 @@
         <v>Key_DocTab_104</v>
       </c>
       <c r="X104" s="59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y104" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z104" s="35" t="s">
         <v>9</v>
@@ -12795,19 +12816,19 @@
         <v>105</v>
       </c>
       <c r="B105" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C105" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D105" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E105" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E105" s="48" t="s">
+      <c r="F105" s="52" t="s">
         <v>408</v>
-      </c>
-      <c r="F105" s="52" t="s">
-        <v>409</v>
       </c>
       <c r="G105" s="54" t="s">
         <v>9</v>
@@ -12841,13 +12862,13 @@
         <v>Classe IFC: IfcAnnotation</v>
       </c>
       <c r="P105" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q105" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="Q105" s="35" t="s">
-        <v>411</v>
-      </c>
       <c r="R105" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S105" s="35" t="str">
         <f t="shared" si="33"/>
@@ -12888,19 +12909,19 @@
         <v>106</v>
       </c>
       <c r="B106" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C106" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D106" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E106" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E106" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F106" s="52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G106" s="54" t="s">
         <v>9</v>
@@ -12934,13 +12955,13 @@
         <v>Classe IFC: IfcAnnotationCONTOURLINE</v>
       </c>
       <c r="P106" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q106" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="Q106" s="35" t="s">
-        <v>414</v>
-      </c>
       <c r="R106" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S106" s="35" t="str">
         <f t="shared" si="33"/>
@@ -12981,19 +13002,19 @@
         <v>107</v>
       </c>
       <c r="B107" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C107" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D107" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E107" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E107" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F107" s="52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G107" s="54" t="s">
         <v>9</v>
@@ -13027,13 +13048,13 @@
         <v>Classe IFC: IfcAnnotationDIMENSION</v>
       </c>
       <c r="P107" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q107" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="Q107" s="35" t="s">
-        <v>417</v>
-      </c>
       <c r="R107" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S107" s="35" t="str">
         <f t="shared" si="33"/>
@@ -13074,19 +13095,19 @@
         <v>108</v>
       </c>
       <c r="B108" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C108" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D108" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E108" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E108" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F108" s="52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G108" s="54" t="s">
         <v>9</v>
@@ -13120,13 +13141,13 @@
         <v>Classe IFC: IfcAnnotationISOBAR</v>
       </c>
       <c r="P108" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q108" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="Q108" s="35" t="s">
-        <v>420</v>
-      </c>
       <c r="R108" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S108" s="35" t="str">
         <f t="shared" si="33"/>
@@ -13167,19 +13188,19 @@
         <v>109</v>
       </c>
       <c r="B109" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C109" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D109" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E109" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E109" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F109" s="52" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G109" s="54" t="s">
         <v>9</v>
@@ -13213,13 +13234,13 @@
         <v>Classe IFC: IfcAnnotationISOLUX</v>
       </c>
       <c r="P109" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q109" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="Q109" s="35" t="s">
-        <v>423</v>
-      </c>
       <c r="R109" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S109" s="35" t="str">
         <f t="shared" si="33"/>
@@ -13260,19 +13281,19 @@
         <v>110</v>
       </c>
       <c r="B110" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D110" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E110" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E110" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F110" s="52" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G110" s="54" t="s">
         <v>9</v>
@@ -13306,13 +13327,13 @@
         <v>Classe IFC: IfcAnnotationISOTHERM</v>
       </c>
       <c r="P110" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q110" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="Q110" s="35" t="s">
-        <v>426</v>
-      </c>
       <c r="R110" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S110" s="35" t="str">
         <f t="shared" si="33"/>
@@ -13353,19 +13374,19 @@
         <v>111</v>
       </c>
       <c r="B111" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D111" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E111" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E111" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F111" s="52" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G111" s="54" t="s">
         <v>9</v>
@@ -13399,13 +13420,13 @@
         <v>Classe IFC: IfcAnnotationLEADER</v>
       </c>
       <c r="P111" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q111" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="Q111" s="35" t="s">
-        <v>429</v>
-      </c>
       <c r="R111" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S111" s="35" t="str">
         <f t="shared" si="33"/>
@@ -13446,19 +13467,19 @@
         <v>112</v>
       </c>
       <c r="B112" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C112" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D112" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E112" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E112" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F112" s="52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G112" s="54" t="s">
         <v>9</v>
@@ -13492,13 +13513,13 @@
         <v>Classe IFC: IfcAnnotationSURVEY</v>
       </c>
       <c r="P112" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q112" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="Q112" s="35" t="s">
-        <v>432</v>
-      </c>
       <c r="R112" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S112" s="35" t="str">
         <f t="shared" si="33"/>
@@ -13539,19 +13560,19 @@
         <v>113</v>
       </c>
       <c r="B113" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C113" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D113" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E113" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E113" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F113" s="52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G113" s="54" t="s">
         <v>9</v>
@@ -13585,13 +13606,13 @@
         <v>Classe IFC: IfcAnnotationSYMBOL</v>
       </c>
       <c r="P113" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q113" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="Q113" s="35" t="s">
-        <v>435</v>
-      </c>
       <c r="R113" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S113" s="35" t="str">
         <f t="shared" si="33"/>
@@ -13632,19 +13653,19 @@
         <v>114</v>
       </c>
       <c r="B114" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C114" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D114" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E114" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E114" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F114" s="52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G114" s="54" t="s">
         <v>9</v>
@@ -13678,13 +13699,13 @@
         <v>Classe IFC: IfcAnnotationTEXT</v>
       </c>
       <c r="P114" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q114" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="Q114" s="35" t="s">
-        <v>438</v>
-      </c>
       <c r="R114" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S114" s="35" t="str">
         <f t="shared" si="33"/>
@@ -13725,19 +13746,19 @@
         <v>115</v>
       </c>
       <c r="B115" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C115" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D115" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E115" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E115" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F115" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G115" s="54" t="s">
         <v>9</v>
@@ -13771,13 +13792,13 @@
         <v>Cat. Revit: OST_GenericAnnotation</v>
       </c>
       <c r="P115" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q115" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="Q115" s="35" t="s">
-        <v>441</v>
-      </c>
       <c r="R115" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S115" s="35" t="str">
         <f t="shared" si="33"/>
@@ -13800,10 +13821,10 @@
         <v>Key_DocTex_115</v>
       </c>
       <c r="X115" s="59" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Y115" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z115" s="35" t="s">
         <v>9</v>
@@ -13818,19 +13839,19 @@
         <v>116</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C116" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D116" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E116" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E116" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F116" s="51" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G116" s="54" t="s">
         <v>9</v>
@@ -13864,13 +13885,13 @@
         <v>Cat. Revit: OST_MultiReferenceAnnotations</v>
       </c>
       <c r="P116" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q116" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="Q116" s="35" t="s">
-        <v>444</v>
-      </c>
       <c r="R116" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S116" s="35" t="str">
         <f t="shared" si="33"/>
@@ -13893,10 +13914,10 @@
         <v>Key_DocTex_116</v>
       </c>
       <c r="X116" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y116" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z116" s="35" t="s">
         <v>9</v>
@@ -13911,19 +13932,19 @@
         <v>117</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C117" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D117" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E117" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E117" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F117" s="51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G117" s="54" t="s">
         <v>9</v>
@@ -13957,13 +13978,13 @@
         <v>Cat. Revit: OST_StructuralAnnotations</v>
       </c>
       <c r="P117" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q117" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="Q117" s="35" t="s">
-        <v>447</v>
-      </c>
       <c r="R117" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S117" s="35" t="str">
         <f t="shared" si="33"/>
@@ -13986,10 +14007,10 @@
         <v>Key_DocTex_117</v>
       </c>
       <c r="X117" s="59" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y117" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z117" s="35" t="s">
         <v>9</v>
@@ -14004,19 +14025,19 @@
         <v>118</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C118" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D118" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="E118" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E118" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="F118" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G118" s="54" t="s">
         <v>9</v>
@@ -14050,13 +14071,13 @@
         <v>Cat. Revit: OST_TextNotes</v>
       </c>
       <c r="P118" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q118" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="Q118" s="35" t="s">
-        <v>450</v>
-      </c>
       <c r="R118" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S118" s="35" t="str">
         <f t="shared" si="33"/>
@@ -14079,10 +14100,10 @@
         <v>Key_DocTex_118</v>
       </c>
       <c r="X118" s="59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y118" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z118" s="35" t="s">
         <v>9</v>
@@ -14097,19 +14118,19 @@
         <v>119</v>
       </c>
       <c r="B119" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C119" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D119" s="49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E119" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="F119" s="51" t="s">
         <v>451</v>
-      </c>
-      <c r="F119" s="51" t="s">
-        <v>452</v>
       </c>
       <c r="G119" s="54" t="s">
         <v>9</v>
@@ -14143,13 +14164,13 @@
         <v>Cat. Revit: OST_DetailComponentTags</v>
       </c>
       <c r="P119" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q119" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="Q119" s="35" t="s">
-        <v>454</v>
-      </c>
       <c r="R119" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S119" s="35" t="str">
         <f t="shared" si="33"/>
@@ -14172,10 +14193,10 @@
         <v>Key_DocTex_119</v>
       </c>
       <c r="X119" s="59" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y119" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z119" s="35" t="s">
         <v>9</v>
@@ -14190,19 +14211,19 @@
         <v>120</v>
       </c>
       <c r="B120" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C120" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D120" s="49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F120" s="51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G120" s="54" t="s">
         <v>9</v>
@@ -14236,13 +14257,13 @@
         <v>Cat. Revit: OST_KeynoteTags</v>
       </c>
       <c r="P120" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q120" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="Q120" s="35" t="s">
-        <v>457</v>
-      </c>
       <c r="R120" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S120" s="35" t="str">
         <f t="shared" si="33"/>
@@ -14265,10 +14286,10 @@
         <v>Key_DocTex_120</v>
       </c>
       <c r="X120" s="59" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Y120" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z120" s="35" t="s">
         <v>9</v>
@@ -14283,19 +14304,19 @@
         <v>121</v>
       </c>
       <c r="B121" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C121" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D121" s="49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F121" s="51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G121" s="54" t="s">
         <v>9</v>
@@ -14329,13 +14350,13 @@
         <v>Cat. Revit: OST_ModelGroupTags</v>
       </c>
       <c r="P121" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q121" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="Q121" s="35" t="s">
-        <v>460</v>
-      </c>
       <c r="R121" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S121" s="35" t="str">
         <f t="shared" si="33"/>
@@ -14358,10 +14379,10 @@
         <v>Key_DocTex_121</v>
       </c>
       <c r="X121" s="59" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Y121" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z121" s="35" t="s">
         <v>9</v>
@@ -14376,19 +14397,19 @@
         <v>122</v>
       </c>
       <c r="B122" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C122" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D122" s="49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F122" s="51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G122" s="54" t="s">
         <v>9</v>
@@ -14422,13 +14443,13 @@
         <v>Cat. Revit: OST_MultiCategoryTags</v>
       </c>
       <c r="P122" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q122" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="Q122" s="35" t="s">
-        <v>463</v>
-      </c>
       <c r="R122" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S122" s="35" t="str">
         <f t="shared" si="33"/>
@@ -14451,10 +14472,10 @@
         <v>Key_DocTex_122</v>
       </c>
       <c r="X122" s="59" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y122" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z122" s="35" t="s">
         <v>9</v>
@@ -14469,19 +14490,19 @@
         <v>123</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C123" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D123" s="49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E123" s="48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F123" s="51" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G123" s="54" t="s">
         <v>9</v>
@@ -14515,13 +14536,13 @@
         <v>Cat. Revit: OST_MultiLeaderTag</v>
       </c>
       <c r="P123" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q123" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="Q123" s="35" t="s">
-        <v>466</v>
-      </c>
       <c r="R123" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S123" s="35" t="str">
         <f t="shared" si="33"/>
@@ -14544,10 +14565,10 @@
         <v>Key_DocTex_123</v>
       </c>
       <c r="X123" s="59" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Y123" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z123" s="35" t="s">
         <v>9</v>
@@ -14562,19 +14583,19 @@
         <v>124</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C124" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D124" s="49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F124" s="51" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G124" s="54" t="s">
         <v>9</v>
@@ -14608,13 +14629,13 @@
         <v>Cat. Revit: OST_Tags</v>
       </c>
       <c r="P124" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q124" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="Q124" s="35" t="s">
-        <v>469</v>
-      </c>
       <c r="R124" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S124" s="35" t="str">
         <f t="shared" si="33"/>
@@ -14637,10 +14658,10 @@
         <v>Key_DocTex_124</v>
       </c>
       <c r="X124" s="59" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Y124" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z124" s="35" t="s">
         <v>9</v>
@@ -14655,19 +14676,19 @@
         <v>125</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C125" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D125" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="E125" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="F125" s="51" t="s">
         <v>546</v>
-      </c>
-      <c r="E125" s="48" t="s">
-        <v>545</v>
-      </c>
-      <c r="F125" s="51" t="s">
-        <v>547</v>
       </c>
       <c r="G125" s="54" t="s">
         <v>9</v>
@@ -14701,13 +14722,13 @@
         <v>CreativeCommons</v>
       </c>
       <c r="P125" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Q125" s="34" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R125" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S125" s="35" t="str">
         <f t="shared" si="33"/>
@@ -14748,19 +14769,19 @@
         <v>126</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C126" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E126" s="48" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F126" s="51" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G126" s="54" t="s">
         <v>9</v>
@@ -14794,13 +14815,13 @@
         <v>Direito.Autoral</v>
       </c>
       <c r="P126" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q126" s="34" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R126" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S126" s="35" t="str">
         <f t="shared" si="33"/>
@@ -14841,19 +14862,19 @@
         <v>127</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C127" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E127" s="48" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F127" s="51" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G127" s="54" t="s">
         <v>9</v>
@@ -14887,13 +14908,13 @@
         <v>Direito.Industrial</v>
       </c>
       <c r="P127" s="34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q127" s="34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R127" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S127" s="35" t="str">
         <f t="shared" si="33"/>
@@ -14934,19 +14955,19 @@
         <v>128</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C128" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D128" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E128" s="48" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F128" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G128" s="54" t="s">
         <v>9</v>
@@ -14980,13 +15001,13 @@
         <v>Lei</v>
       </c>
       <c r="P128" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Q128" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R128" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S128" s="35" t="str">
         <f t="shared" si="33"/>
@@ -15027,19 +15048,19 @@
         <v>129</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C129" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D129" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E129" s="48" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F129" s="51" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G129" s="54" t="s">
         <v>9</v>
@@ -15073,13 +15094,13 @@
         <v>Decreto</v>
       </c>
       <c r="P129" s="34" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Q129" s="34" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R129" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S129" s="35" t="str">
         <f t="shared" si="33"/>
@@ -15120,19 +15141,19 @@
         <v>130</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C130" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D130" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F130" s="51" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G130" s="54" t="s">
         <v>9</v>
@@ -15166,13 +15187,13 @@
         <v>Projeto.de.Lei</v>
       </c>
       <c r="P130" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q130" s="34" t="s">
         <v>593</v>
       </c>
-      <c r="Q130" s="34" t="s">
-        <v>594</v>
-      </c>
       <c r="R130" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S130" s="35" t="str">
         <f t="shared" ref="S130:S138" si="42">SUBSTITUTE(C130, "_", " ")</f>
@@ -15213,19 +15234,19 @@
         <v>131</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C131" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D131" s="49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E131" s="48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F131" s="51" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G131" s="54" t="s">
         <v>9</v>
@@ -15259,13 +15280,13 @@
         <v>Guia</v>
       </c>
       <c r="P131" s="34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Q131" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="R131" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S131" s="35" t="str">
         <f t="shared" si="42"/>
@@ -15306,19 +15327,19 @@
         <v>132</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C132" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D132" s="49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F132" s="51" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G132" s="54" t="s">
         <v>9</v>
@@ -15352,13 +15373,13 @@
         <v>Manual</v>
       </c>
       <c r="P132" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Q132" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="R132" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S132" s="35" t="str">
         <f t="shared" si="42"/>
@@ -15399,19 +15420,19 @@
         <v>133</v>
       </c>
       <c r="B133" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C133" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D133" s="49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E133" s="48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F133" s="51" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G133" s="54" t="s">
         <v>9</v>
@@ -15445,13 +15466,13 @@
         <v>Livro</v>
       </c>
       <c r="P133" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="Q133" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="R133" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S133" s="35" t="str">
         <f t="shared" si="42"/>
@@ -15492,19 +15513,19 @@
         <v>134</v>
       </c>
       <c r="B134" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C134" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D134" s="49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E134" s="48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F134" s="51" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G134" s="54" t="s">
         <v>9</v>
@@ -15538,13 +15559,13 @@
         <v>Treinamento</v>
       </c>
       <c r="P134" s="34" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q134" s="34" t="s">
         <v>611</v>
       </c>
-      <c r="Q134" s="34" t="s">
-        <v>612</v>
-      </c>
       <c r="R134" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S134" s="35" t="str">
         <f t="shared" si="42"/>
@@ -15585,19 +15606,19 @@
         <v>135</v>
       </c>
       <c r="B135" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C135" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D135" s="49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E135" s="48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F135" s="51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G135" s="54" t="s">
         <v>9</v>
@@ -15631,13 +15652,13 @@
         <v>Normativa</v>
       </c>
       <c r="P135" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Q135" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R135" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S135" s="35" t="str">
         <f t="shared" si="42"/>
@@ -15678,19 +15699,19 @@
         <v>136</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C136" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D136" s="49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E136" s="48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F136" s="51" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G136" s="54" t="s">
         <v>9</v>
@@ -15724,13 +15745,13 @@
         <v>Apresentação</v>
       </c>
       <c r="P136" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q136" s="34" t="s">
         <v>614</v>
       </c>
-      <c r="Q136" s="34" t="s">
-        <v>615</v>
-      </c>
       <c r="R136" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S136" s="35" t="str">
         <f t="shared" si="42"/>
@@ -15771,19 +15792,19 @@
         <v>137</v>
       </c>
       <c r="B137" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C137" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D137" s="49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E137" s="48" t="s">
+        <v>615</v>
+      </c>
+      <c r="F137" s="51" t="s">
         <v>616</v>
-      </c>
-      <c r="F137" s="51" t="s">
-        <v>617</v>
       </c>
       <c r="G137" s="54" t="s">
         <v>9</v>
@@ -15817,13 +15838,13 @@
         <v>Fichário</v>
       </c>
       <c r="P137" s="34" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Q137" s="34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R137" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S137" s="35" t="str">
         <f t="shared" si="42"/>
@@ -15864,19 +15885,19 @@
         <v>138</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C138" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D138" s="49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F138" s="51" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G138" s="54" t="s">
         <v>9</v>
@@ -15910,13 +15931,13 @@
         <v>Formulário</v>
       </c>
       <c r="P138" s="34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Q138" s="34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="R138" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S138" s="35" t="str">
         <f t="shared" si="42"/>
@@ -15969,7 +15990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA138">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15999,64 +16020,64 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
@@ -16156,10 +16177,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16167,13 +16188,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16181,10 +16202,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>9</v>
@@ -16195,10 +16216,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>9</v>
@@ -16209,10 +16230,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>9</v>
@@ -16223,10 +16244,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>9</v>
@@ -16237,10 +16258,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>9</v>
@@ -16289,7 +16310,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>13</v>
@@ -16328,7 +16349,7 @@
         <v>2</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O1" s="29" t="s">
         <v>2</v>
@@ -16355,7 +16376,7 @@
         <v>15</v>
       </c>
       <c r="W1" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -16363,10 +16384,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>9</v>
@@ -16402,13 +16423,13 @@
         <v>16</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P2" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>500</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>501</v>
       </c>
       <c r="R2" s="31" t="s">
         <v>9</v>
@@ -16434,10 +16455,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>9</v>
@@ -16473,13 +16494,13 @@
         <v>16</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R3" s="31" t="s">
         <v>9</v>
@@ -16505,10 +16526,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>9</v>
@@ -16544,13 +16565,13 @@
         <v>16</v>
       </c>
       <c r="O4" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q4" s="21" t="s">
         <v>517</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>518</v>
       </c>
       <c r="R4" s="31" t="s">
         <v>9</v>
@@ -16576,16 +16597,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>9</v>
@@ -16615,19 +16636,19 @@
         <v>16</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P5" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q5" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="Q5" s="21" t="s">
-        <v>501</v>
-      </c>
       <c r="R5" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T5" s="31" t="s">
         <v>9</v>
@@ -16647,16 +16668,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>9</v>
@@ -16686,19 +16707,19 @@
         <v>16</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P6" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="Q6" s="21" t="s">
-        <v>501</v>
-      </c>
       <c r="R6" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T6" s="31" t="s">
         <v>9</v>
@@ -16718,16 +16739,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>9</v>
@@ -16757,19 +16778,19 @@
         <v>16</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P7" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q7" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="Q7" s="21" t="s">
-        <v>501</v>
-      </c>
       <c r="R7" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T7" s="31" t="s">
         <v>9</v>
@@ -16789,16 +16810,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>9</v>
@@ -16828,19 +16849,19 @@
         <v>16</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P8" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q8" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="Q8" s="21" t="s">
-        <v>501</v>
-      </c>
       <c r="R8" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="T8" s="31" t="s">
         <v>9</v>
@@ -16860,16 +16881,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>9</v>
@@ -16899,19 +16920,19 @@
         <v>16</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P9" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q9" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="Q9" s="21" t="s">
-        <v>501</v>
-      </c>
       <c r="R9" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="T9" s="31" t="s">
         <v>9</v>
@@ -16931,16 +16952,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>499</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>9</v>
@@ -16970,19 +16991,19 @@
         <v>16</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P10" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q10" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="Q10" s="21" t="s">
-        <v>501</v>
-      </c>
       <c r="R10" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="T10" s="31" t="s">
         <v>9</v>
@@ -17002,16 +17023,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>9</v>
@@ -17041,19 +17062,19 @@
         <v>16</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R11" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T11" s="31" t="s">
         <v>9</v>
@@ -17073,16 +17094,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>9</v>
@@ -17112,19 +17133,19 @@
         <v>16</v>
       </c>
       <c r="O12" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R12" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T12" s="31" t="s">
         <v>9</v>
@@ -17144,16 +17165,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>9</v>
@@ -17183,19 +17204,19 @@
         <v>16</v>
       </c>
       <c r="O13" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q13" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="P13" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q13" s="21" t="s">
-        <v>510</v>
-      </c>
       <c r="R13" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T13" s="31" t="s">
         <v>9</v>
@@ -17215,16 +17236,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>9</v>
@@ -17254,19 +17275,19 @@
         <v>16</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R14" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T14" s="31" t="s">
         <v>9</v>
@@ -17286,16 +17307,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>9</v>
@@ -17325,19 +17346,19 @@
         <v>16</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R15" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T15" s="31" t="s">
         <v>9</v>
@@ -17357,16 +17378,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>9</v>
@@ -17396,19 +17417,19 @@
         <v>16</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R16" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T16" s="31" t="s">
         <v>9</v>
@@ -17428,16 +17449,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>9</v>
@@ -17467,19 +17488,19 @@
         <v>16</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R17" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T17" s="31" t="s">
         <v>9</v>
@@ -17499,16 +17520,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>9</v>
@@ -17538,19 +17559,19 @@
         <v>16</v>
       </c>
       <c r="O18" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R18" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="T18" s="31" t="s">
         <v>9</v>
@@ -17570,16 +17591,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>9</v>
@@ -17609,19 +17630,19 @@
         <v>16</v>
       </c>
       <c r="O19" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R19" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T19" s="31" t="s">
         <v>9</v>
@@ -17641,16 +17662,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>556</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>557</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>9</v>
@@ -17680,19 +17701,19 @@
         <v>16</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R20" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T20" s="31" t="s">
         <v>9</v>
@@ -17712,10 +17733,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>9</v>
@@ -17751,7 +17772,7 @@
         <v>16</v>
       </c>
       <c r="O21" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>9</v>
@@ -17783,10 +17804,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>9</v>
@@ -17822,7 +17843,7 @@
         <v>16</v>
       </c>
       <c r="O22" s="42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="P22" s="31" t="s">
         <v>9</v>
@@ -17854,10 +17875,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>9</v>
@@ -17893,7 +17914,7 @@
         <v>16</v>
       </c>
       <c r="O23" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>9</v>
@@ -17925,10 +17946,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>9</v>
@@ -17964,7 +17985,7 @@
         <v>16</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P24" s="31" t="s">
         <v>9</v>
@@ -17996,10 +18017,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>9</v>
@@ -18035,7 +18056,7 @@
         <v>16</v>
       </c>
       <c r="O25" s="42" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P25" s="31" t="s">
         <v>9</v>
@@ -18067,10 +18088,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>9</v>
@@ -18106,7 +18127,7 @@
         <v>16</v>
       </c>
       <c r="O26" s="42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P26" s="31" t="s">
         <v>9</v>
@@ -18138,10 +18159,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>9</v>
@@ -18177,7 +18198,7 @@
         <v>16</v>
       </c>
       <c r="O27" s="42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P27" s="31" t="s">
         <v>9</v>
@@ -18209,10 +18230,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>9</v>
@@ -18248,7 +18269,7 @@
         <v>16</v>
       </c>
       <c r="O28" s="42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P28" s="31" t="s">
         <v>9</v>
@@ -18280,10 +18301,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>9</v>
@@ -18319,7 +18340,7 @@
         <v>16</v>
       </c>
       <c r="O29" s="42" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>9</v>
@@ -18351,10 +18372,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>9</v>
@@ -18390,7 +18411,7 @@
         <v>16</v>
       </c>
       <c r="O30" s="42" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P30" s="31" t="s">
         <v>9</v>
@@ -18422,10 +18443,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>9</v>
@@ -18461,7 +18482,7 @@
         <v>16</v>
       </c>
       <c r="O31" s="43" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P31" s="31" t="s">
         <v>9</v>
@@ -18493,16 +18514,16 @@
         <v>32</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>9</v>
@@ -18532,7 +18553,7 @@
         <v>16</v>
       </c>
       <c r="O32" s="42" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P32" s="31" t="s">
         <v>9</v>
@@ -18564,10 +18585,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>9</v>
@@ -18603,7 +18624,7 @@
         <v>16</v>
       </c>
       <c r="O33" s="42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P33" s="31" t="s">
         <v>9</v>
@@ -18635,16 +18656,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>9</v>
@@ -18674,7 +18695,7 @@
         <v>16</v>
       </c>
       <c r="O34" s="42" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P34" s="31" t="s">
         <v>9</v>
@@ -18704,10 +18725,10 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B10 B15:B34">
-    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8C695-AB54-4CCB-9FB0-9A5D4F403AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB7CD08-B7C0-4967-A612-2503AA5385A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="640">
   <si>
     <t>Edição</t>
   </si>
@@ -1981,13 +1981,25 @@
   </si>
   <si>
     <t>Explanation</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>"pt"</t>
+  </si>
+  <si>
+    <t>"es"</t>
+  </si>
+  <si>
+    <t>"en"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2062,6 +2074,12 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial Nova Cond"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Nova Cond Light"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2305,7 +2323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2490,6 +2508,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2899,53 +2926,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1124724F-B8C4-4B86-9028-743FC73CDDB0}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.3828125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.69140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="13"/>
+    <col min="3" max="3" width="3.4609375" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.15234375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="64" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2953,8 +2993,11 @@
         <f>_xlfn.CONCAT(B4,"Prop")</f>
         <v>BIMProp</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2962,151 +3005,208 @@
         <f>_xlfn.CONCAT(B4,"Data")</f>
         <v>BIMData</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" s="63" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="63" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45992.39837141204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45992.541088194441</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" s="63" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="65" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="63" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B24" s="6" t="str">
         <f>_xlfn.TRANSLATE(B22,"pt","en")</f>
         <v>Formalize documentation data</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/Versão5/DOCU/Ontologia_DOCUM.xlsx
+++ b/Versão5/DOCU/Ontologia_DOCUM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\DOCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB7CD08-B7C0-4967-A612-2503AA5385A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D4A8D0-1D7E-43AC-8C52-40B16672E16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -1986,13 +1986,13 @@
     <t>Idioma</t>
   </si>
   <si>
-    <t>"pt"</t>
-  </si>
-  <si>
-    <t>"es"</t>
-  </si>
-  <si>
-    <t>"en"</t>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -2929,8 +2929,8 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45992.541088194441</v>
+        <v>45992.730014814813</v>
       </c>
       <c r="C18" s="65" t="s">
         <v>637</v>
